--- a/map_draw.xlsx
+++ b/map_draw.xlsx
@@ -24,9 +24,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
-    <t>17,2</t>
+    <t>박쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리자드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리자드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리자드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -145,37 +189,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T25" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AR33" sqref="AR33"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,7 +711,9 @@
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
-      <c r="AO2" s="1"/>
+      <c r="AO2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="2"/>
@@ -699,7 +745,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -991,7 +1037,9 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
-      <c r="AM8" s="1"/>
+      <c r="AM8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
@@ -1261,7 +1309,9 @@
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
-      <c r="AM13" s="1"/>
+      <c r="AM13" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
@@ -1425,7 +1475,9 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="1"/>
+      <c r="AO16" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
@@ -1457,7 +1509,9 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -1503,7 +1557,9 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1580,7 +1636,9 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="6"/>
-      <c r="AH19" s="1"/>
+      <c r="AH19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
@@ -1738,7 +1796,9 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-      <c r="AD22" s="1"/>
+      <c r="AD22" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="2"/>
@@ -1825,7 +1885,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1839,7 +1901,9 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="1"/>
+      <c r="W24" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
@@ -1954,7 +2018,9 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-      <c r="AD26" s="1"/>
+      <c r="AD26" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
@@ -2018,7 +2084,9 @@
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
-      <c r="AN27" s="1"/>
+      <c r="AN27" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
@@ -2104,7 +2172,9 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="1"/>
+      <c r="R29" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -2206,7 +2276,9 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="2"/>
@@ -2346,7 +2418,9 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="3"/>
-      <c r="AR33" s="1"/>
+      <c r="AR33" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
@@ -2727,7 +2801,9 @@
       <c r="AR40" s="3"/>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3"/>
-      <c r="AU40" s="1"/>
+      <c r="AU40" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AV40" s="3"/>
       <c r="AW40" s="3"/>
       <c r="AX40" s="2"/>
@@ -2793,7 +2869,9 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -2956,7 +3034,9 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2977,7 +3057,9 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
-      <c r="AA45" s="1"/>
+      <c r="AA45" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
@@ -3036,7 +3118,9 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
-      <c r="AF46" s="1"/>
+      <c r="AF46" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
@@ -3076,7 +3160,9 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="1"/>
+      <c r="R47" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -3125,7 +3211,9 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-      <c r="M48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -3145,7 +3233,9 @@
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
-      <c r="AG48" s="1"/>
+      <c r="AG48" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
@@ -3210,7 +3300,9 @@
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
-      <c r="AR49" s="1"/>
+      <c r="AR49" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
       <c r="AU49" s="9"/>

--- a/map_draw.xlsx
+++ b/map_draw.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\OneDrive\Documents\GitHub\2DGP_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckckf\OneDrive\Documents\GitHub\2DGP_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A49464-5EED-4E94-BE1A-4142BB3060CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="10640" yWindow="2710" windowWidth="24260" windowHeight="16610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
   <si>
     <t>박쥐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -501,22 +502,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="11" customWidth="1"/>
     <col min="2" max="17" width="9" style="11"/>
-    <col min="18" max="18" width="10.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.08203125" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="50" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:102" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -667,8 +668,158 @@
       <c r="AX1" s="2">
         <v>49</v>
       </c>
+      <c r="BA1" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>4</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>5</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>6</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>7</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>8</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>9</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>10</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>11</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>12</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>13</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>14</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>15</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>16</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>17</v>
+      </c>
+      <c r="BS1" s="2">
+        <v>18</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>19</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>20</v>
+      </c>
+      <c r="BV1" s="2">
+        <v>21</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>22</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>23</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>24</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>25</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>26</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>27</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>28</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>29</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>30</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>31</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>32</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>33</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>34</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>35</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>36</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>37</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>38</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>39</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>40</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>41</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>42</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>43</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>44</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>45</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>46</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>47</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>48</v>
+      </c>
+      <c r="CX1" s="2">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:102" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -723,8 +874,62 @@
       <c r="AV2" s="3"/>
       <c r="AW2" s="3"/>
       <c r="AX2" s="2"/>
+      <c r="BA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="3"/>
+      <c r="CM2" s="3"/>
+      <c r="CN2" s="3"/>
+      <c r="CO2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="3"/>
+      <c r="CQ2" s="3"/>
+      <c r="CR2" s="2"/>
+      <c r="CS2" s="2"/>
+      <c r="CT2" s="3"/>
+      <c r="CU2" s="3"/>
+      <c r="CV2" s="3"/>
+      <c r="CW2" s="3"/>
+      <c r="CX2" s="2"/>
     </row>
-    <row r="3" spans="1:50" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:102" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -779,8 +984,62 @@
       <c r="AV3" s="3"/>
       <c r="AW3" s="6"/>
       <c r="AX3" s="2"/>
+      <c r="BA3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="5"/>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="2"/>
+      <c r="CS3" s="2"/>
+      <c r="CT3" s="3"/>
+      <c r="CU3" s="3"/>
+      <c r="CV3" s="3"/>
+      <c r="CW3" s="6"/>
+      <c r="CX3" s="2"/>
     </row>
-    <row r="4" spans="1:50" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:102" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -833,8 +1092,60 @@
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
+      <c r="BA4" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="3"/>
+      <c r="CU4" s="3"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
     </row>
-    <row r="5" spans="1:50" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:102" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -887,8 +1198,60 @@
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
+      <c r="BA5" s="2">
+        <v>4</v>
+      </c>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="3"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="5"/>
+      <c r="CO5" s="5"/>
+      <c r="CP5" s="5"/>
+      <c r="CQ5" s="5"/>
+      <c r="CR5" s="5"/>
+      <c r="CS5" s="5"/>
+      <c r="CT5" s="3"/>
+      <c r="CU5" s="3"/>
+      <c r="CV5" s="2"/>
+      <c r="CW5" s="2"/>
+      <c r="CX5" s="2"/>
     </row>
-    <row r="6" spans="1:50" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:102" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -941,8 +1304,60 @@
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
+      <c r="BA6" s="2">
+        <v>5</v>
+      </c>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="3"/>
+      <c r="CJ6" s="3"/>
+      <c r="CK6" s="5"/>
+      <c r="CL6" s="2"/>
+      <c r="CM6" s="2"/>
+      <c r="CN6" s="5"/>
+      <c r="CO6" s="5"/>
+      <c r="CP6" s="5"/>
+      <c r="CQ6" s="5"/>
+      <c r="CR6" s="5"/>
+      <c r="CS6" s="5"/>
+      <c r="CT6" s="3"/>
+      <c r="CU6" s="3"/>
+      <c r="CV6" s="2"/>
+      <c r="CW6" s="2"/>
+      <c r="CX6" s="2"/>
     </row>
-    <row r="7" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -995,8 +1410,60 @@
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
+      <c r="BA7" s="2">
+        <v>6</v>
+      </c>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="7"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="2"/>
+      <c r="BV7" s="2"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="2"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="4"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7" s="2"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="2"/>
+      <c r="CO7" s="2"/>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="2"/>
+      <c r="CR7" s="2"/>
+      <c r="CS7" s="2"/>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3"/>
+      <c r="CV7" s="2"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="2"/>
     </row>
-    <row r="8" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1051,8 +1518,62 @@
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
+      <c r="BA8" s="2">
+        <v>7</v>
+      </c>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="2"/>
+      <c r="BU8" s="2"/>
+      <c r="BV8" s="2"/>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="2"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="2"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="2"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="5"/>
+      <c r="CL8" s="5"/>
+      <c r="CM8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN8" s="5"/>
+      <c r="CO8" s="5"/>
+      <c r="CP8" s="5"/>
+      <c r="CQ8" s="5"/>
+      <c r="CR8" s="5"/>
+      <c r="CS8" s="5"/>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3"/>
+      <c r="CV8" s="2"/>
+      <c r="CW8" s="2"/>
+      <c r="CX8" s="2"/>
     </row>
-    <row r="9" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1105,8 +1626,60 @@
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
+      <c r="BA9" s="2">
+        <v>8</v>
+      </c>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="2"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
+      <c r="CH9" s="3"/>
+      <c r="CI9" s="3"/>
+      <c r="CJ9" s="3"/>
+      <c r="CK9" s="5"/>
+      <c r="CL9" s="5"/>
+      <c r="CM9" s="5"/>
+      <c r="CN9" s="5"/>
+      <c r="CO9" s="5"/>
+      <c r="CP9" s="5"/>
+      <c r="CQ9" s="5"/>
+      <c r="CR9" s="5"/>
+      <c r="CS9" s="5"/>
+      <c r="CT9" s="3"/>
+      <c r="CU9" s="3"/>
+      <c r="CV9" s="2"/>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="2"/>
     </row>
-    <row r="10" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1159,8 +1732,60 @@
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
+      <c r="BA10" s="2">
+        <v>9</v>
+      </c>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2"/>
+      <c r="BU10" s="2"/>
+      <c r="BV10" s="2"/>
+      <c r="BW10" s="2"/>
+      <c r="BX10" s="2"/>
+      <c r="BY10" s="2"/>
+      <c r="BZ10" s="2"/>
+      <c r="CA10" s="2"/>
+      <c r="CB10" s="2"/>
+      <c r="CC10" s="2"/>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="3"/>
+      <c r="CF10" s="2"/>
+      <c r="CG10" s="2"/>
+      <c r="CH10" s="2"/>
+      <c r="CI10" s="2"/>
+      <c r="CJ10" s="2"/>
+      <c r="CK10" s="2"/>
+      <c r="CL10" s="2"/>
+      <c r="CM10" s="2"/>
+      <c r="CN10" s="2"/>
+      <c r="CO10" s="2"/>
+      <c r="CP10" s="2"/>
+      <c r="CQ10" s="2"/>
+      <c r="CR10" s="2"/>
+      <c r="CS10" s="2"/>
+      <c r="CT10" s="2"/>
+      <c r="CU10" s="2"/>
+      <c r="CV10" s="2"/>
+      <c r="CW10" s="2"/>
+      <c r="CX10" s="2"/>
     </row>
-    <row r="11" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1213,8 +1838,60 @@
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
+      <c r="BA11" s="2">
+        <v>10</v>
+      </c>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="2"/>
+      <c r="BR11" s="2"/>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="2"/>
+      <c r="BU11" s="2"/>
+      <c r="BV11" s="6"/>
+      <c r="BW11" s="3"/>
+      <c r="BX11" s="3"/>
+      <c r="BY11" s="2"/>
+      <c r="BZ11" s="2"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+      <c r="CD11" s="3"/>
+      <c r="CE11" s="3"/>
+      <c r="CF11" s="2"/>
+      <c r="CG11" s="2"/>
+      <c r="CH11" s="2"/>
+      <c r="CI11" s="2"/>
+      <c r="CJ11" s="2"/>
+      <c r="CK11" s="2"/>
+      <c r="CL11" s="2"/>
+      <c r="CM11" s="2"/>
+      <c r="CN11" s="2"/>
+      <c r="CO11" s="2"/>
+      <c r="CP11" s="2"/>
+      <c r="CQ11" s="2"/>
+      <c r="CR11" s="2"/>
+      <c r="CS11" s="2"/>
+      <c r="CT11" s="2"/>
+      <c r="CU11" s="2"/>
+      <c r="CV11" s="2"/>
+      <c r="CW11" s="2"/>
+      <c r="CX11" s="2"/>
     </row>
-    <row r="12" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1267,8 +1944,60 @@
       <c r="AV12" s="3"/>
       <c r="AW12" s="3"/>
       <c r="AX12" s="2"/>
+      <c r="BA12" s="2">
+        <v>11</v>
+      </c>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+      <c r="BV12" s="2"/>
+      <c r="BW12" s="3"/>
+      <c r="BX12" s="3"/>
+      <c r="BY12" s="2"/>
+      <c r="BZ12" s="2"/>
+      <c r="CA12" s="3"/>
+      <c r="CB12" s="3"/>
+      <c r="CC12" s="3"/>
+      <c r="CD12" s="3"/>
+      <c r="CE12" s="3"/>
+      <c r="CF12" s="3"/>
+      <c r="CG12" s="3"/>
+      <c r="CH12" s="3"/>
+      <c r="CI12" s="3"/>
+      <c r="CJ12" s="3"/>
+      <c r="CK12" s="3"/>
+      <c r="CL12" s="3"/>
+      <c r="CM12" s="3"/>
+      <c r="CN12" s="5"/>
+      <c r="CO12" s="3"/>
+      <c r="CP12" s="3"/>
+      <c r="CQ12" s="3"/>
+      <c r="CR12" s="3"/>
+      <c r="CS12" s="3"/>
+      <c r="CT12" s="3"/>
+      <c r="CU12" s="3"/>
+      <c r="CV12" s="3"/>
+      <c r="CW12" s="3"/>
+      <c r="CX12" s="2"/>
     </row>
-    <row r="13" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1323,8 +2052,62 @@
       <c r="AV13" s="3"/>
       <c r="AW13" s="3"/>
       <c r="AX13" s="2"/>
+      <c r="BA13" s="2">
+        <v>12</v>
+      </c>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="3"/>
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="5"/>
+      <c r="BV13" s="3"/>
+      <c r="BW13" s="3"/>
+      <c r="BX13" s="3"/>
+      <c r="BY13" s="2"/>
+      <c r="BZ13" s="2"/>
+      <c r="CA13" s="3"/>
+      <c r="CB13" s="3"/>
+      <c r="CC13" s="3"/>
+      <c r="CD13" s="3"/>
+      <c r="CE13" s="3"/>
+      <c r="CF13" s="3"/>
+      <c r="CG13" s="3"/>
+      <c r="CH13" s="3"/>
+      <c r="CI13" s="4"/>
+      <c r="CJ13" s="3"/>
+      <c r="CK13" s="3"/>
+      <c r="CL13" s="3"/>
+      <c r="CM13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN13" s="3"/>
+      <c r="CO13" s="3"/>
+      <c r="CP13" s="3"/>
+      <c r="CQ13" s="3"/>
+      <c r="CR13" s="3"/>
+      <c r="CS13" s="3"/>
+      <c r="CT13" s="3"/>
+      <c r="CU13" s="3"/>
+      <c r="CV13" s="3"/>
+      <c r="CW13" s="3"/>
+      <c r="CX13" s="2"/>
     </row>
-    <row r="14" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1377,8 +2160,60 @@
       <c r="AV14" s="3"/>
       <c r="AW14" s="3"/>
       <c r="AX14" s="2"/>
+      <c r="BA14" s="2">
+        <v>13</v>
+      </c>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
+      <c r="BQ14" s="3"/>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="5"/>
+      <c r="BV14" s="3"/>
+      <c r="BW14" s="3"/>
+      <c r="BX14" s="2"/>
+      <c r="BY14" s="2"/>
+      <c r="BZ14" s="2"/>
+      <c r="CA14" s="3"/>
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="2"/>
+      <c r="CD14" s="2"/>
+      <c r="CE14" s="2"/>
+      <c r="CF14" s="2"/>
+      <c r="CG14" s="3"/>
+      <c r="CH14" s="3"/>
+      <c r="CI14" s="4"/>
+      <c r="CJ14" s="2"/>
+      <c r="CK14" s="2"/>
+      <c r="CL14" s="2"/>
+      <c r="CM14" s="2"/>
+      <c r="CN14" s="2"/>
+      <c r="CO14" s="2"/>
+      <c r="CP14" s="2"/>
+      <c r="CQ14" s="3"/>
+      <c r="CR14" s="3"/>
+      <c r="CS14" s="3"/>
+      <c r="CT14" s="3"/>
+      <c r="CU14" s="3"/>
+      <c r="CV14" s="3"/>
+      <c r="CW14" s="3"/>
+      <c r="CX14" s="2"/>
     </row>
-    <row r="15" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1431,8 +2266,60 @@
       <c r="AV15" s="3"/>
       <c r="AW15" s="3"/>
       <c r="AX15" s="2"/>
+      <c r="BA15" s="2">
+        <v>14</v>
+      </c>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="2"/>
+      <c r="BS15" s="2"/>
+      <c r="BT15" s="2"/>
+      <c r="BU15" s="5"/>
+      <c r="BV15" s="3"/>
+      <c r="BW15" s="2"/>
+      <c r="BX15" s="2"/>
+      <c r="BY15" s="2"/>
+      <c r="BZ15" s="2"/>
+      <c r="CA15" s="3"/>
+      <c r="CB15" s="3"/>
+      <c r="CC15" s="2"/>
+      <c r="CD15" s="2"/>
+      <c r="CE15" s="2"/>
+      <c r="CF15" s="2"/>
+      <c r="CG15" s="3"/>
+      <c r="CH15" s="3"/>
+      <c r="CI15" s="4"/>
+      <c r="CJ15" s="2"/>
+      <c r="CK15" s="2"/>
+      <c r="CL15" s="2"/>
+      <c r="CM15" s="2"/>
+      <c r="CN15" s="2"/>
+      <c r="CO15" s="2"/>
+      <c r="CP15" s="2"/>
+      <c r="CQ15" s="3"/>
+      <c r="CR15" s="3"/>
+      <c r="CS15" s="3"/>
+      <c r="CT15" s="3"/>
+      <c r="CU15" s="3"/>
+      <c r="CV15" s="3"/>
+      <c r="CW15" s="3"/>
+      <c r="CX15" s="2"/>
     </row>
-    <row r="16" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1487,8 +2374,62 @@
       <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
       <c r="AX16" s="2"/>
+      <c r="BA16" s="2">
+        <v>15</v>
+      </c>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="2"/>
+      <c r="BT16" s="2"/>
+      <c r="BU16" s="5"/>
+      <c r="BV16" s="3"/>
+      <c r="BW16" s="2"/>
+      <c r="BX16" s="2"/>
+      <c r="BY16" s="2"/>
+      <c r="BZ16" s="2"/>
+      <c r="CA16" s="3"/>
+      <c r="CB16" s="3"/>
+      <c r="CC16" s="2"/>
+      <c r="CD16" s="2"/>
+      <c r="CE16" s="2"/>
+      <c r="CF16" s="2"/>
+      <c r="CG16" s="3"/>
+      <c r="CH16" s="3"/>
+      <c r="CI16" s="4"/>
+      <c r="CJ16" s="2"/>
+      <c r="CK16" s="2"/>
+      <c r="CL16" s="2"/>
+      <c r="CM16" s="3"/>
+      <c r="CN16" s="3"/>
+      <c r="CO16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP16" s="3"/>
+      <c r="CQ16" s="3"/>
+      <c r="CR16" s="3"/>
+      <c r="CS16" s="3"/>
+      <c r="CT16" s="3"/>
+      <c r="CU16" s="3"/>
+      <c r="CV16" s="3"/>
+      <c r="CW16" s="3"/>
+      <c r="CX16" s="2"/>
     </row>
-    <row r="17" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1543,8 +2484,62 @@
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
+      <c r="BA17" s="2">
+        <v>16</v>
+      </c>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
+      <c r="BQ17" s="3"/>
+      <c r="BR17" s="3"/>
+      <c r="BS17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="3"/>
+      <c r="BU17" s="3"/>
+      <c r="BV17" s="3"/>
+      <c r="BW17" s="2"/>
+      <c r="BX17" s="2"/>
+      <c r="BY17" s="2"/>
+      <c r="BZ17" s="2"/>
+      <c r="CA17" s="3"/>
+      <c r="CB17" s="3"/>
+      <c r="CC17" s="2"/>
+      <c r="CD17" s="2"/>
+      <c r="CE17" s="2"/>
+      <c r="CF17" s="2"/>
+      <c r="CG17" s="3"/>
+      <c r="CH17" s="3"/>
+      <c r="CI17" s="4"/>
+      <c r="CJ17" s="2"/>
+      <c r="CK17" s="2"/>
+      <c r="CL17" s="2"/>
+      <c r="CM17" s="3"/>
+      <c r="CN17" s="3"/>
+      <c r="CO17" s="3"/>
+      <c r="CP17" s="3"/>
+      <c r="CQ17" s="5"/>
+      <c r="CR17" s="5"/>
+      <c r="CS17" s="2"/>
+      <c r="CT17" s="2"/>
+      <c r="CU17" s="2"/>
+      <c r="CV17" s="2"/>
+      <c r="CW17" s="2"/>
+      <c r="CX17" s="2"/>
     </row>
-    <row r="18" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1599,8 +2594,62 @@
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
+      <c r="BA18" s="2">
+        <v>17</v>
+      </c>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
+      <c r="BQ18" s="3"/>
+      <c r="BR18" s="3"/>
+      <c r="BS18" s="3"/>
+      <c r="BT18" s="3"/>
+      <c r="BU18" s="3"/>
+      <c r="BV18" s="3"/>
+      <c r="BW18" s="2"/>
+      <c r="BX18" s="2"/>
+      <c r="BY18" s="2"/>
+      <c r="BZ18" s="2"/>
+      <c r="CA18" s="3"/>
+      <c r="CB18" s="3"/>
+      <c r="CC18" s="2"/>
+      <c r="CD18" s="2"/>
+      <c r="CE18" s="2"/>
+      <c r="CF18" s="2"/>
+      <c r="CG18" s="3"/>
+      <c r="CH18" s="3"/>
+      <c r="CI18" s="4"/>
+      <c r="CJ18" s="2"/>
+      <c r="CK18" s="2"/>
+      <c r="CL18" s="2"/>
+      <c r="CM18" s="3"/>
+      <c r="CN18" s="3"/>
+      <c r="CO18" s="3"/>
+      <c r="CP18" s="3"/>
+      <c r="CQ18" s="5"/>
+      <c r="CR18" s="5"/>
+      <c r="CS18" s="2"/>
+      <c r="CT18" s="2"/>
+      <c r="CU18" s="2"/>
+      <c r="CV18" s="2"/>
+      <c r="CW18" s="2"/>
+      <c r="CX18" s="2"/>
     </row>
-    <row r="19" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1655,8 +2704,62 @@
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
       <c r="AX19" s="2"/>
+      <c r="BA19" s="2">
+        <v>18</v>
+      </c>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="2"/>
+      <c r="BW19" s="2"/>
+      <c r="BX19" s="2"/>
+      <c r="BY19" s="2"/>
+      <c r="BZ19" s="2"/>
+      <c r="CA19" s="3"/>
+      <c r="CB19" s="3"/>
+      <c r="CC19" s="2"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="2"/>
+      <c r="CF19" s="2"/>
+      <c r="CG19" s="6"/>
+      <c r="CH19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI19" s="4"/>
+      <c r="CJ19" s="2"/>
+      <c r="CK19" s="2"/>
+      <c r="CL19" s="2"/>
+      <c r="CM19" s="3"/>
+      <c r="CN19" s="3"/>
+      <c r="CO19" s="3"/>
+      <c r="CP19" s="3"/>
+      <c r="CQ19" s="3"/>
+      <c r="CR19" s="3"/>
+      <c r="CS19" s="3"/>
+      <c r="CT19" s="3"/>
+      <c r="CU19" s="3"/>
+      <c r="CV19" s="3"/>
+      <c r="CW19" s="3"/>
+      <c r="CX19" s="2"/>
     </row>
-    <row r="20" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1709,8 +2812,60 @@
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
       <c r="AX20" s="2"/>
+      <c r="BA20" s="2">
+        <v>19</v>
+      </c>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="3"/>
+      <c r="BQ20" s="3"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
+      <c r="BV20" s="2"/>
+      <c r="BW20" s="2"/>
+      <c r="BX20" s="2"/>
+      <c r="BY20" s="2"/>
+      <c r="BZ20" s="2"/>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3"/>
+      <c r="CC20" s="2"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2"/>
+      <c r="CF20" s="2"/>
+      <c r="CG20" s="2"/>
+      <c r="CH20" s="2"/>
+      <c r="CI20" s="2"/>
+      <c r="CJ20" s="2"/>
+      <c r="CK20" s="2"/>
+      <c r="CL20" s="2"/>
+      <c r="CM20" s="3"/>
+      <c r="CN20" s="3"/>
+      <c r="CO20" s="3"/>
+      <c r="CP20" s="3"/>
+      <c r="CQ20" s="3"/>
+      <c r="CR20" s="3"/>
+      <c r="CS20" s="3"/>
+      <c r="CT20" s="3"/>
+      <c r="CU20" s="3"/>
+      <c r="CV20" s="3"/>
+      <c r="CW20" s="3"/>
+      <c r="CX20" s="2"/>
     </row>
-    <row r="21" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1763,8 +2918,60 @@
       <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
       <c r="AX21" s="2"/>
+      <c r="BA21" s="2">
+        <v>20</v>
+      </c>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
+      <c r="BQ21" s="3"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="3"/>
+      <c r="BT21" s="3"/>
+      <c r="BU21" s="3"/>
+      <c r="BV21" s="3"/>
+      <c r="BW21" s="3"/>
+      <c r="BX21" s="3"/>
+      <c r="BY21" s="3"/>
+      <c r="BZ21" s="3"/>
+      <c r="CA21" s="3"/>
+      <c r="CB21" s="3"/>
+      <c r="CC21" s="2"/>
+      <c r="CD21" s="2"/>
+      <c r="CE21" s="2"/>
+      <c r="CF21" s="2"/>
+      <c r="CG21" s="2"/>
+      <c r="CH21" s="2"/>
+      <c r="CI21" s="2"/>
+      <c r="CJ21" s="2"/>
+      <c r="CK21" s="2"/>
+      <c r="CL21" s="2"/>
+      <c r="CM21" s="2"/>
+      <c r="CN21" s="2"/>
+      <c r="CO21" s="2"/>
+      <c r="CP21" s="2"/>
+      <c r="CQ21" s="2"/>
+      <c r="CR21" s="2"/>
+      <c r="CS21" s="2"/>
+      <c r="CT21" s="2"/>
+      <c r="CU21" s="3"/>
+      <c r="CV21" s="3"/>
+      <c r="CW21" s="3"/>
+      <c r="CX21" s="2"/>
     </row>
-    <row r="22" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1819,8 +3026,62 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="2"/>
+      <c r="BA22" s="2">
+        <v>21</v>
+      </c>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+      <c r="BP22" s="3"/>
+      <c r="BQ22" s="2"/>
+      <c r="BR22" s="2"/>
+      <c r="BS22" s="3"/>
+      <c r="BT22" s="3"/>
+      <c r="BU22" s="3"/>
+      <c r="BV22" s="3"/>
+      <c r="BW22" s="3"/>
+      <c r="BX22" s="3"/>
+      <c r="BY22" s="3"/>
+      <c r="BZ22" s="3"/>
+      <c r="CA22" s="3"/>
+      <c r="CB22" s="3"/>
+      <c r="CC22" s="3"/>
+      <c r="CD22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE22" s="3"/>
+      <c r="CF22" s="3"/>
+      <c r="CG22" s="2"/>
+      <c r="CH22" s="2"/>
+      <c r="CI22" s="2"/>
+      <c r="CJ22" s="2"/>
+      <c r="CK22" s="2"/>
+      <c r="CL22" s="2"/>
+      <c r="CM22" s="2"/>
+      <c r="CN22" s="2"/>
+      <c r="CO22" s="2"/>
+      <c r="CP22" s="2"/>
+      <c r="CQ22" s="2"/>
+      <c r="CR22" s="2"/>
+      <c r="CS22" s="2"/>
+      <c r="CT22" s="2"/>
+      <c r="CU22" s="3"/>
+      <c r="CV22" s="3"/>
+      <c r="CW22" s="3"/>
+      <c r="CX22" s="2"/>
     </row>
-    <row r="23" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1873,8 +3134,60 @@
       <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
       <c r="AX23" s="2"/>
+      <c r="BA23" s="2">
+        <v>22</v>
+      </c>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="3"/>
+      <c r="BT23" s="3"/>
+      <c r="BU23" s="3"/>
+      <c r="BV23" s="3"/>
+      <c r="BW23" s="3"/>
+      <c r="BX23" s="3"/>
+      <c r="BY23" s="3"/>
+      <c r="BZ23" s="3"/>
+      <c r="CA23" s="3"/>
+      <c r="CB23" s="3"/>
+      <c r="CC23" s="3"/>
+      <c r="CD23" s="3"/>
+      <c r="CE23" s="3"/>
+      <c r="CF23" s="3"/>
+      <c r="CG23" s="3"/>
+      <c r="CH23" s="3"/>
+      <c r="CI23" s="3"/>
+      <c r="CJ23" s="3"/>
+      <c r="CK23" s="3"/>
+      <c r="CL23" s="3"/>
+      <c r="CM23" s="3"/>
+      <c r="CN23" s="3"/>
+      <c r="CO23" s="3"/>
+      <c r="CP23" s="3"/>
+      <c r="CQ23" s="3"/>
+      <c r="CR23" s="3"/>
+      <c r="CS23" s="3"/>
+      <c r="CT23" s="3"/>
+      <c r="CU23" s="3"/>
+      <c r="CV23" s="3"/>
+      <c r="CW23" s="3"/>
+      <c r="CX23" s="2"/>
     </row>
-    <row r="24" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1931,8 +3244,64 @@
       <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
       <c r="AX24" s="2"/>
+      <c r="BA24" s="2">
+        <v>23</v>
+      </c>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="3"/>
+      <c r="BT24" s="3"/>
+      <c r="BU24" s="3"/>
+      <c r="BV24" s="3"/>
+      <c r="BW24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX24" s="3"/>
+      <c r="BY24" s="3"/>
+      <c r="BZ24" s="3"/>
+      <c r="CA24" s="3"/>
+      <c r="CB24" s="3"/>
+      <c r="CC24" s="3"/>
+      <c r="CD24" s="3"/>
+      <c r="CE24" s="3"/>
+      <c r="CF24" s="3"/>
+      <c r="CG24" s="3"/>
+      <c r="CH24" s="3"/>
+      <c r="CI24" s="3"/>
+      <c r="CJ24" s="3"/>
+      <c r="CK24" s="3"/>
+      <c r="CL24" s="3"/>
+      <c r="CM24" s="3"/>
+      <c r="CN24" s="3"/>
+      <c r="CO24" s="3"/>
+      <c r="CP24" s="3"/>
+      <c r="CQ24" s="3"/>
+      <c r="CR24" s="3"/>
+      <c r="CS24" s="3"/>
+      <c r="CT24" s="3"/>
+      <c r="CU24" s="3"/>
+      <c r="CV24" s="3"/>
+      <c r="CW24" s="3"/>
+      <c r="CX24" s="2"/>
     </row>
-    <row r="25" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1985,8 +3354,60 @@
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
+      <c r="BA25" s="2">
+        <v>24</v>
+      </c>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="3"/>
+      <c r="BT25" s="3"/>
+      <c r="BU25" s="2"/>
+      <c r="BV25" s="2"/>
+      <c r="BW25" s="2"/>
+      <c r="BX25" s="2"/>
+      <c r="BY25" s="2"/>
+      <c r="BZ25" s="2"/>
+      <c r="CA25" s="2"/>
+      <c r="CB25" s="2"/>
+      <c r="CC25" s="2"/>
+      <c r="CD25" s="2"/>
+      <c r="CE25" s="2"/>
+      <c r="CF25" s="2"/>
+      <c r="CG25" s="2"/>
+      <c r="CH25" s="2"/>
+      <c r="CI25" s="2"/>
+      <c r="CJ25" s="2"/>
+      <c r="CK25" s="2"/>
+      <c r="CL25" s="2"/>
+      <c r="CM25" s="2"/>
+      <c r="CN25" s="2"/>
+      <c r="CO25" s="2"/>
+      <c r="CP25" s="2"/>
+      <c r="CQ25" s="2"/>
+      <c r="CR25" s="2"/>
+      <c r="CS25" s="2"/>
+      <c r="CT25" s="2"/>
+      <c r="CU25" s="2"/>
+      <c r="CV25" s="2"/>
+      <c r="CW25" s="2"/>
+      <c r="CX25" s="2"/>
     </row>
-    <row r="26" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2041,8 +3462,62 @@
       <c r="AV26" s="3"/>
       <c r="AW26" s="3"/>
       <c r="AX26" s="2"/>
+      <c r="BA26" s="2">
+        <v>25</v>
+      </c>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="3"/>
+      <c r="BQ26" s="3"/>
+      <c r="BR26" s="3"/>
+      <c r="BS26" s="3"/>
+      <c r="BT26" s="3"/>
+      <c r="BU26" s="3"/>
+      <c r="BV26" s="3"/>
+      <c r="BW26" s="3"/>
+      <c r="BX26" s="3"/>
+      <c r="BY26" s="3"/>
+      <c r="BZ26" s="3"/>
+      <c r="CA26" s="3"/>
+      <c r="CB26" s="3"/>
+      <c r="CC26" s="3"/>
+      <c r="CD26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE26" s="3"/>
+      <c r="CF26" s="3"/>
+      <c r="CG26" s="3"/>
+      <c r="CH26" s="3"/>
+      <c r="CI26" s="3"/>
+      <c r="CJ26" s="3"/>
+      <c r="CK26" s="3"/>
+      <c r="CL26" s="3"/>
+      <c r="CM26" s="3"/>
+      <c r="CN26" s="3"/>
+      <c r="CO26" s="3"/>
+      <c r="CP26" s="3"/>
+      <c r="CQ26" s="3"/>
+      <c r="CR26" s="3"/>
+      <c r="CS26" s="3"/>
+      <c r="CT26" s="3"/>
+      <c r="CU26" s="3"/>
+      <c r="CV26" s="3"/>
+      <c r="CW26" s="3"/>
+      <c r="CX26" s="2"/>
     </row>
-    <row r="27" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2097,8 +3572,62 @@
       <c r="AV27" s="3"/>
       <c r="AW27" s="3"/>
       <c r="AX27" s="2"/>
+      <c r="BA27" s="2">
+        <v>26</v>
+      </c>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
+      <c r="BQ27" s="3"/>
+      <c r="BR27" s="3"/>
+      <c r="BS27" s="3"/>
+      <c r="BT27" s="3"/>
+      <c r="BU27" s="3"/>
+      <c r="BV27" s="3"/>
+      <c r="BW27" s="3"/>
+      <c r="BX27" s="3"/>
+      <c r="BY27" s="3"/>
+      <c r="BZ27" s="3"/>
+      <c r="CA27" s="3"/>
+      <c r="CB27" s="3"/>
+      <c r="CC27" s="3"/>
+      <c r="CD27" s="3"/>
+      <c r="CE27" s="3"/>
+      <c r="CF27" s="3"/>
+      <c r="CG27" s="3"/>
+      <c r="CH27" s="3"/>
+      <c r="CI27" s="3"/>
+      <c r="CJ27" s="3"/>
+      <c r="CK27" s="3"/>
+      <c r="CL27" s="3"/>
+      <c r="CM27" s="3"/>
+      <c r="CN27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO27" s="3"/>
+      <c r="CP27" s="3"/>
+      <c r="CQ27" s="3"/>
+      <c r="CR27" s="3"/>
+      <c r="CS27" s="3"/>
+      <c r="CT27" s="3"/>
+      <c r="CU27" s="3"/>
+      <c r="CV27" s="3"/>
+      <c r="CW27" s="3"/>
+      <c r="CX27" s="2"/>
     </row>
-    <row r="28" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2151,8 +3680,60 @@
       <c r="AV28" s="3"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="2"/>
+      <c r="BA28" s="2">
+        <v>27</v>
+      </c>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
+      <c r="BV28" s="2"/>
+      <c r="BW28" s="2"/>
+      <c r="BX28" s="3"/>
+      <c r="BY28" s="3"/>
+      <c r="BZ28" s="3"/>
+      <c r="CA28" s="2"/>
+      <c r="CB28" s="3"/>
+      <c r="CC28" s="3"/>
+      <c r="CD28" s="3"/>
+      <c r="CE28" s="3"/>
+      <c r="CF28" s="3"/>
+      <c r="CG28" s="3"/>
+      <c r="CH28" s="3"/>
+      <c r="CI28" s="3"/>
+      <c r="CJ28" s="2"/>
+      <c r="CK28" s="2"/>
+      <c r="CL28" s="2"/>
+      <c r="CM28" s="2"/>
+      <c r="CN28" s="2"/>
+      <c r="CO28" s="2"/>
+      <c r="CP28" s="2"/>
+      <c r="CQ28" s="2"/>
+      <c r="CR28" s="2"/>
+      <c r="CS28" s="3"/>
+      <c r="CT28" s="3"/>
+      <c r="CU28" s="3"/>
+      <c r="CV28" s="3"/>
+      <c r="CW28" s="6"/>
+      <c r="CX28" s="2"/>
     </row>
-    <row r="29" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2207,8 +3788,62 @@
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
+      <c r="BA29" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="3"/>
+      <c r="BR29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS29" s="3"/>
+      <c r="BT29" s="3"/>
+      <c r="BU29" s="3"/>
+      <c r="BV29" s="3"/>
+      <c r="BW29" s="2"/>
+      <c r="BX29" s="3"/>
+      <c r="BY29" s="3"/>
+      <c r="BZ29" s="3"/>
+      <c r="CA29" s="3"/>
+      <c r="CB29" s="3"/>
+      <c r="CC29" s="3"/>
+      <c r="CD29" s="3"/>
+      <c r="CE29" s="3"/>
+      <c r="CF29" s="2"/>
+      <c r="CG29" s="3"/>
+      <c r="CH29" s="3"/>
+      <c r="CI29" s="3"/>
+      <c r="CJ29" s="2"/>
+      <c r="CK29" s="3"/>
+      <c r="CL29" s="3"/>
+      <c r="CM29" s="3"/>
+      <c r="CN29" s="3"/>
+      <c r="CO29" s="3"/>
+      <c r="CP29" s="3"/>
+      <c r="CQ29" s="3"/>
+      <c r="CR29" s="3"/>
+      <c r="CS29" s="3"/>
+      <c r="CT29" s="3"/>
+      <c r="CU29" s="3"/>
+      <c r="CV29" s="2"/>
+      <c r="CW29" s="2"/>
+      <c r="CX29" s="2"/>
     </row>
-    <row r="30" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2261,8 +3896,60 @@
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
+      <c r="BA30" s="2">
+        <v>29</v>
+      </c>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="3"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="3"/>
+      <c r="BR30" s="3"/>
+      <c r="BS30" s="3"/>
+      <c r="BT30" s="3"/>
+      <c r="BU30" s="4"/>
+      <c r="BV30" s="3"/>
+      <c r="BW30" s="2"/>
+      <c r="BX30" s="3"/>
+      <c r="BY30" s="3"/>
+      <c r="BZ30" s="3"/>
+      <c r="CA30" s="3"/>
+      <c r="CB30" s="3"/>
+      <c r="CC30" s="3"/>
+      <c r="CD30" s="3"/>
+      <c r="CE30" s="3"/>
+      <c r="CF30" s="3"/>
+      <c r="CG30" s="3"/>
+      <c r="CH30" s="3"/>
+      <c r="CI30" s="3"/>
+      <c r="CJ30" s="2"/>
+      <c r="CK30" s="3"/>
+      <c r="CL30" s="3"/>
+      <c r="CM30" s="3"/>
+      <c r="CN30" s="3"/>
+      <c r="CO30" s="3"/>
+      <c r="CP30" s="3"/>
+      <c r="CQ30" s="3"/>
+      <c r="CR30" s="3"/>
+      <c r="CS30" s="3"/>
+      <c r="CT30" s="3"/>
+      <c r="CU30" s="3"/>
+      <c r="CV30" s="2"/>
+      <c r="CW30" s="2"/>
+      <c r="CX30" s="2"/>
     </row>
-    <row r="31" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2317,8 +4004,62 @@
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
+      <c r="BA31" s="2">
+        <v>30</v>
+      </c>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="3"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="3"/>
+      <c r="BR31" s="3"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
+      <c r="BU31" s="4"/>
+      <c r="BV31" s="3"/>
+      <c r="BW31" s="2"/>
+      <c r="BX31" s="8"/>
+      <c r="BY31" s="8"/>
+      <c r="BZ31" s="8"/>
+      <c r="CA31" s="8"/>
+      <c r="CB31" s="8"/>
+      <c r="CC31" s="8"/>
+      <c r="CD31" s="8"/>
+      <c r="CE31" s="8"/>
+      <c r="CF31" s="8"/>
+      <c r="CG31" s="8"/>
+      <c r="CH31" s="8"/>
+      <c r="CI31" s="8"/>
+      <c r="CJ31" s="2"/>
+      <c r="CK31" s="3"/>
+      <c r="CL31" s="3"/>
+      <c r="CM31" s="3"/>
+      <c r="CN31" s="2"/>
+      <c r="CO31" s="2"/>
+      <c r="CP31" s="2"/>
+      <c r="CQ31" s="2"/>
+      <c r="CR31" s="2"/>
+      <c r="CS31" s="2"/>
+      <c r="CT31" s="2"/>
+      <c r="CU31" s="2"/>
+      <c r="CV31" s="2"/>
+      <c r="CW31" s="2"/>
+      <c r="CX31" s="2"/>
     </row>
-    <row r="32" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2371,8 +4112,60 @@
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
+      <c r="BA32" s="2">
+        <v>31</v>
+      </c>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="2"/>
+      <c r="BM32" s="2"/>
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="2"/>
+      <c r="BQ32" s="3"/>
+      <c r="BR32" s="3"/>
+      <c r="BS32" s="2"/>
+      <c r="BT32" s="2"/>
+      <c r="BU32" s="4"/>
+      <c r="BV32" s="3"/>
+      <c r="BW32" s="2"/>
+      <c r="BX32" s="2"/>
+      <c r="BY32" s="2"/>
+      <c r="BZ32" s="2"/>
+      <c r="CA32" s="2"/>
+      <c r="CB32" s="2"/>
+      <c r="CC32" s="2"/>
+      <c r="CD32" s="2"/>
+      <c r="CE32" s="2"/>
+      <c r="CF32" s="2"/>
+      <c r="CG32" s="2"/>
+      <c r="CH32" s="2"/>
+      <c r="CI32" s="2"/>
+      <c r="CJ32" s="2"/>
+      <c r="CK32" s="3"/>
+      <c r="CL32" s="3"/>
+      <c r="CM32" s="3"/>
+      <c r="CN32" s="2"/>
+      <c r="CO32" s="2"/>
+      <c r="CP32" s="2"/>
+      <c r="CQ32" s="2"/>
+      <c r="CR32" s="2"/>
+      <c r="CS32" s="2"/>
+      <c r="CT32" s="2"/>
+      <c r="CU32" s="2"/>
+      <c r="CV32" s="2"/>
+      <c r="CW32" s="2"/>
+      <c r="CX32" s="2"/>
     </row>
-    <row r="33" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2427,8 +4220,62 @@
       <c r="AV33" s="3"/>
       <c r="AW33" s="3"/>
       <c r="AX33" s="2"/>
+      <c r="BA33" s="2">
+        <v>32</v>
+      </c>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
+      <c r="BK33" s="3"/>
+      <c r="BL33" s="3"/>
+      <c r="BM33" s="3"/>
+      <c r="BN33" s="3"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="BQ33" s="3"/>
+      <c r="BR33" s="3"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
+      <c r="BU33" s="4"/>
+      <c r="BV33" s="3"/>
+      <c r="BW33" s="3"/>
+      <c r="BX33" s="3"/>
+      <c r="BY33" s="3"/>
+      <c r="BZ33" s="3"/>
+      <c r="CA33" s="3"/>
+      <c r="CB33" s="3"/>
+      <c r="CC33" s="3"/>
+      <c r="CD33" s="3"/>
+      <c r="CE33" s="3"/>
+      <c r="CF33" s="3"/>
+      <c r="CG33" s="3"/>
+      <c r="CH33" s="3"/>
+      <c r="CI33" s="3"/>
+      <c r="CJ33" s="3"/>
+      <c r="CK33" s="3"/>
+      <c r="CL33" s="3"/>
+      <c r="CM33" s="3"/>
+      <c r="CN33" s="2"/>
+      <c r="CO33" s="2"/>
+      <c r="CP33" s="2"/>
+      <c r="CQ33" s="3"/>
+      <c r="CR33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS33" s="3"/>
+      <c r="CT33" s="3"/>
+      <c r="CU33" s="3"/>
+      <c r="CV33" s="3"/>
+      <c r="CW33" s="3"/>
+      <c r="CX33" s="2"/>
     </row>
-    <row r="34" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2481,8 +4328,60 @@
       <c r="AV34" s="3"/>
       <c r="AW34" s="6"/>
       <c r="AX34" s="2"/>
+      <c r="BA34" s="2">
+        <v>33</v>
+      </c>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="4"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="3"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
+      <c r="BQ34" s="3"/>
+      <c r="BR34" s="3"/>
+      <c r="BS34" s="2"/>
+      <c r="BT34" s="2"/>
+      <c r="BU34" s="4"/>
+      <c r="BV34" s="3"/>
+      <c r="BW34" s="3"/>
+      <c r="BX34" s="3"/>
+      <c r="BY34" s="3"/>
+      <c r="BZ34" s="3"/>
+      <c r="CA34" s="3"/>
+      <c r="CB34" s="3"/>
+      <c r="CC34" s="3"/>
+      <c r="CD34" s="3"/>
+      <c r="CE34" s="3"/>
+      <c r="CF34" s="3"/>
+      <c r="CG34" s="3"/>
+      <c r="CH34" s="3"/>
+      <c r="CI34" s="3"/>
+      <c r="CJ34" s="3"/>
+      <c r="CK34" s="3"/>
+      <c r="CL34" s="3"/>
+      <c r="CM34" s="3"/>
+      <c r="CN34" s="2"/>
+      <c r="CO34" s="2"/>
+      <c r="CP34" s="2"/>
+      <c r="CQ34" s="3"/>
+      <c r="CR34" s="3"/>
+      <c r="CS34" s="3"/>
+      <c r="CT34" s="3"/>
+      <c r="CU34" s="3"/>
+      <c r="CV34" s="3"/>
+      <c r="CW34" s="6"/>
+      <c r="CX34" s="2"/>
     </row>
-    <row r="35" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2535,8 +4434,60 @@
       <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
+      <c r="BA35" s="2">
+        <v>34</v>
+      </c>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="3"/>
+      <c r="BG35" s="3"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="3"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="3"/>
+      <c r="BN35" s="3"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+      <c r="BQ35" s="3"/>
+      <c r="BR35" s="3"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="4"/>
+      <c r="BV35" s="3"/>
+      <c r="BW35" s="3"/>
+      <c r="BX35" s="3"/>
+      <c r="BY35" s="3"/>
+      <c r="BZ35" s="3"/>
+      <c r="CA35" s="3"/>
+      <c r="CB35" s="3"/>
+      <c r="CC35" s="3"/>
+      <c r="CD35" s="3"/>
+      <c r="CE35" s="3"/>
+      <c r="CF35" s="3"/>
+      <c r="CG35" s="3"/>
+      <c r="CH35" s="3"/>
+      <c r="CI35" s="3"/>
+      <c r="CJ35" s="3"/>
+      <c r="CK35" s="3"/>
+      <c r="CL35" s="3"/>
+      <c r="CM35" s="3"/>
+      <c r="CN35" s="2"/>
+      <c r="CO35" s="2"/>
+      <c r="CP35" s="2"/>
+      <c r="CQ35" s="3"/>
+      <c r="CR35" s="3"/>
+      <c r="CS35" s="3"/>
+      <c r="CT35" s="3"/>
+      <c r="CU35" s="2"/>
+      <c r="CV35" s="2"/>
+      <c r="CW35" s="2"/>
+      <c r="CX35" s="2"/>
     </row>
-    <row r="36" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2589,8 +4540,60 @@
       <c r="AV36" s="3"/>
       <c r="AW36" s="3"/>
       <c r="AX36" s="2"/>
+      <c r="BA36" s="2">
+        <v>35</v>
+      </c>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="3"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
+      <c r="BQ36" s="3"/>
+      <c r="BR36" s="3"/>
+      <c r="BS36" s="2"/>
+      <c r="BT36" s="2"/>
+      <c r="BU36" s="2"/>
+      <c r="BV36" s="2"/>
+      <c r="BW36" s="2"/>
+      <c r="BX36" s="2"/>
+      <c r="BY36" s="2"/>
+      <c r="BZ36" s="2"/>
+      <c r="CA36" s="2"/>
+      <c r="CB36" s="2"/>
+      <c r="CC36" s="2"/>
+      <c r="CD36" s="2"/>
+      <c r="CE36" s="2"/>
+      <c r="CF36" s="2"/>
+      <c r="CG36" s="2"/>
+      <c r="CH36" s="2"/>
+      <c r="CI36" s="2"/>
+      <c r="CJ36" s="2"/>
+      <c r="CK36" s="2"/>
+      <c r="CL36" s="2"/>
+      <c r="CM36" s="2"/>
+      <c r="CN36" s="2"/>
+      <c r="CO36" s="2"/>
+      <c r="CP36" s="2"/>
+      <c r="CQ36" s="3"/>
+      <c r="CR36" s="3"/>
+      <c r="CS36" s="3"/>
+      <c r="CT36" s="3"/>
+      <c r="CU36" s="3"/>
+      <c r="CV36" s="3"/>
+      <c r="CW36" s="3"/>
+      <c r="CX36" s="2"/>
     </row>
-    <row r="37" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2643,8 +4646,60 @@
       <c r="AV37" s="3"/>
       <c r="AW37" s="3"/>
       <c r="AX37" s="2"/>
+      <c r="BA37" s="2">
+        <v>36</v>
+      </c>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="3"/>
+      <c r="BG37" s="3"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="3"/>
+      <c r="BJ37" s="4"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="3"/>
+      <c r="BN37" s="3"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="2"/>
+      <c r="BQ37" s="3"/>
+      <c r="BR37" s="3"/>
+      <c r="BS37" s="2"/>
+      <c r="BT37" s="2"/>
+      <c r="BU37" s="2"/>
+      <c r="BV37" s="3"/>
+      <c r="BW37" s="3"/>
+      <c r="BX37" s="3"/>
+      <c r="BY37" s="3"/>
+      <c r="BZ37" s="3"/>
+      <c r="CA37" s="3"/>
+      <c r="CB37" s="2"/>
+      <c r="CC37" s="2"/>
+      <c r="CD37" s="2"/>
+      <c r="CE37" s="2"/>
+      <c r="CF37" s="3"/>
+      <c r="CG37" s="3"/>
+      <c r="CH37" s="3"/>
+      <c r="CI37" s="3"/>
+      <c r="CJ37" s="3"/>
+      <c r="CK37" s="3"/>
+      <c r="CL37" s="3"/>
+      <c r="CM37" s="3"/>
+      <c r="CN37" s="3"/>
+      <c r="CO37" s="3"/>
+      <c r="CP37" s="3"/>
+      <c r="CQ37" s="3"/>
+      <c r="CR37" s="3"/>
+      <c r="CS37" s="3"/>
+      <c r="CT37" s="3"/>
+      <c r="CU37" s="3"/>
+      <c r="CV37" s="3"/>
+      <c r="CW37" s="3"/>
+      <c r="CX37" s="2"/>
     </row>
-    <row r="38" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2697,8 +4752,60 @@
       <c r="AV38" s="3"/>
       <c r="AW38" s="3"/>
       <c r="AX38" s="2"/>
+      <c r="BA38" s="2">
+        <v>37</v>
+      </c>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+      <c r="BE38" s="3"/>
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="3"/>
+      <c r="BJ38" s="4"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38" s="2"/>
+      <c r="BM38" s="3"/>
+      <c r="BN38" s="3"/>
+      <c r="BO38" s="2"/>
+      <c r="BP38" s="2"/>
+      <c r="BQ38" s="3"/>
+      <c r="BR38" s="3"/>
+      <c r="BS38" s="2"/>
+      <c r="BT38" s="2"/>
+      <c r="BU38" s="2"/>
+      <c r="BV38" s="3"/>
+      <c r="BW38" s="4"/>
+      <c r="BX38" s="3"/>
+      <c r="BY38" s="3"/>
+      <c r="BZ38" s="3"/>
+      <c r="CA38" s="3"/>
+      <c r="CB38" s="2"/>
+      <c r="CC38" s="2"/>
+      <c r="CD38" s="2"/>
+      <c r="CE38" s="2"/>
+      <c r="CF38" s="3"/>
+      <c r="CG38" s="3"/>
+      <c r="CH38" s="3"/>
+      <c r="CI38" s="3"/>
+      <c r="CJ38" s="3"/>
+      <c r="CK38" s="3"/>
+      <c r="CL38" s="3"/>
+      <c r="CM38" s="3"/>
+      <c r="CN38" s="3"/>
+      <c r="CO38" s="3"/>
+      <c r="CP38" s="3"/>
+      <c r="CQ38" s="3"/>
+      <c r="CR38" s="3"/>
+      <c r="CS38" s="3"/>
+      <c r="CT38" s="3"/>
+      <c r="CU38" s="3"/>
+      <c r="CV38" s="3"/>
+      <c r="CW38" s="3"/>
+      <c r="CX38" s="2"/>
     </row>
-    <row r="39" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2751,8 +4858,60 @@
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
       <c r="AX39" s="2"/>
+      <c r="BA39" s="2">
+        <v>38</v>
+      </c>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="3"/>
+      <c r="BJ39" s="4"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="3"/>
+      <c r="BN39" s="3"/>
+      <c r="BO39" s="3"/>
+      <c r="BP39" s="3"/>
+      <c r="BQ39" s="3"/>
+      <c r="BR39" s="3"/>
+      <c r="BS39" s="2"/>
+      <c r="BT39" s="2"/>
+      <c r="BU39" s="2"/>
+      <c r="BV39" s="3"/>
+      <c r="BW39" s="4"/>
+      <c r="BX39" s="2"/>
+      <c r="BY39" s="2"/>
+      <c r="BZ39" s="3"/>
+      <c r="CA39" s="3"/>
+      <c r="CB39" s="2"/>
+      <c r="CC39" s="2"/>
+      <c r="CD39" s="2"/>
+      <c r="CE39" s="2"/>
+      <c r="CF39" s="3"/>
+      <c r="CG39" s="3"/>
+      <c r="CH39" s="3"/>
+      <c r="CI39" s="3"/>
+      <c r="CJ39" s="3"/>
+      <c r="CK39" s="3"/>
+      <c r="CL39" s="3"/>
+      <c r="CM39" s="3"/>
+      <c r="CN39" s="3"/>
+      <c r="CO39" s="3"/>
+      <c r="CP39" s="3"/>
+      <c r="CQ39" s="3"/>
+      <c r="CR39" s="3"/>
+      <c r="CS39" s="3"/>
+      <c r="CT39" s="3"/>
+      <c r="CU39" s="3"/>
+      <c r="CV39" s="3"/>
+      <c r="CW39" s="3"/>
+      <c r="CX39" s="2"/>
     </row>
-    <row r="40" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2807,8 +4966,62 @@
       <c r="AV40" s="3"/>
       <c r="AW40" s="3"/>
       <c r="AX40" s="2"/>
+      <c r="BA40" s="2">
+        <v>39</v>
+      </c>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="4"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="3"/>
+      <c r="BN40" s="3"/>
+      <c r="BO40" s="3"/>
+      <c r="BP40" s="3"/>
+      <c r="BQ40" s="3"/>
+      <c r="BR40" s="3"/>
+      <c r="BS40" s="2"/>
+      <c r="BT40" s="2"/>
+      <c r="BU40" s="2"/>
+      <c r="BV40" s="3"/>
+      <c r="BW40" s="4"/>
+      <c r="BX40" s="2"/>
+      <c r="BY40" s="2"/>
+      <c r="BZ40" s="3"/>
+      <c r="CA40" s="3"/>
+      <c r="CB40" s="2"/>
+      <c r="CC40" s="2"/>
+      <c r="CD40" s="2"/>
+      <c r="CE40" s="2"/>
+      <c r="CF40" s="3"/>
+      <c r="CG40" s="3"/>
+      <c r="CH40" s="3"/>
+      <c r="CI40" s="3"/>
+      <c r="CJ40" s="3"/>
+      <c r="CK40" s="3"/>
+      <c r="CL40" s="3"/>
+      <c r="CM40" s="3"/>
+      <c r="CN40" s="3"/>
+      <c r="CO40" s="3"/>
+      <c r="CP40" s="3"/>
+      <c r="CQ40" s="3"/>
+      <c r="CR40" s="3"/>
+      <c r="CS40" s="3"/>
+      <c r="CT40" s="3"/>
+      <c r="CU40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CV40" s="3"/>
+      <c r="CW40" s="3"/>
+      <c r="CX40" s="2"/>
     </row>
-    <row r="41" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2861,8 +5074,60 @@
       <c r="AV41" s="2"/>
       <c r="AW41" s="2"/>
       <c r="AX41" s="2"/>
+      <c r="BA41" s="2">
+        <v>40</v>
+      </c>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+      <c r="BJ41" s="4"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41" s="2"/>
+      <c r="BM41" s="3"/>
+      <c r="BN41" s="3"/>
+      <c r="BO41" s="3"/>
+      <c r="BP41" s="3"/>
+      <c r="BQ41" s="3"/>
+      <c r="BR41" s="3"/>
+      <c r="BS41" s="3"/>
+      <c r="BT41" s="3"/>
+      <c r="BU41" s="3"/>
+      <c r="BV41" s="3"/>
+      <c r="BW41" s="4"/>
+      <c r="BX41" s="2"/>
+      <c r="BY41" s="2"/>
+      <c r="BZ41" s="3"/>
+      <c r="CA41" s="3"/>
+      <c r="CB41" s="2"/>
+      <c r="CC41" s="2"/>
+      <c r="CD41" s="2"/>
+      <c r="CE41" s="2"/>
+      <c r="CF41" s="3"/>
+      <c r="CG41" s="3"/>
+      <c r="CH41" s="3"/>
+      <c r="CI41" s="3"/>
+      <c r="CJ41" s="3"/>
+      <c r="CK41" s="3"/>
+      <c r="CL41" s="3"/>
+      <c r="CM41" s="3"/>
+      <c r="CN41" s="3"/>
+      <c r="CO41" s="3"/>
+      <c r="CP41" s="3"/>
+      <c r="CQ41" s="3"/>
+      <c r="CR41" s="2"/>
+      <c r="CS41" s="2"/>
+      <c r="CT41" s="2"/>
+      <c r="CU41" s="2"/>
+      <c r="CV41" s="2"/>
+      <c r="CW41" s="2"/>
+      <c r="CX41" s="2"/>
     </row>
-    <row r="42" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2917,8 +5182,62 @@
       <c r="AV42" s="2"/>
       <c r="AW42" s="2"/>
       <c r="AX42" s="2"/>
+      <c r="BA42" s="2">
+        <v>41</v>
+      </c>
+      <c r="BB42" s="3"/>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="3"/>
+      <c r="BE42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF42" s="3"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
+      <c r="BI42" s="3"/>
+      <c r="BJ42" s="3"/>
+      <c r="BK42" s="2"/>
+      <c r="BL42" s="2"/>
+      <c r="BM42" s="3"/>
+      <c r="BN42" s="3"/>
+      <c r="BO42" s="3"/>
+      <c r="BP42" s="3"/>
+      <c r="BQ42" s="3"/>
+      <c r="BR42" s="3"/>
+      <c r="BS42" s="3"/>
+      <c r="BT42" s="3"/>
+      <c r="BU42" s="3"/>
+      <c r="BV42" s="3"/>
+      <c r="BW42" s="4"/>
+      <c r="BX42" s="2"/>
+      <c r="BY42" s="2"/>
+      <c r="BZ42" s="3"/>
+      <c r="CA42" s="3"/>
+      <c r="CB42" s="3"/>
+      <c r="CC42" s="3"/>
+      <c r="CD42" s="3"/>
+      <c r="CE42" s="3"/>
+      <c r="CF42" s="3"/>
+      <c r="CG42" s="3"/>
+      <c r="CH42" s="3"/>
+      <c r="CI42" s="3"/>
+      <c r="CJ42" s="3"/>
+      <c r="CK42" s="3"/>
+      <c r="CL42" s="3"/>
+      <c r="CM42" s="3"/>
+      <c r="CN42" s="3"/>
+      <c r="CO42" s="3"/>
+      <c r="CP42" s="2"/>
+      <c r="CQ42" s="2"/>
+      <c r="CR42" s="2"/>
+      <c r="CS42" s="2"/>
+      <c r="CT42" s="2"/>
+      <c r="CU42" s="2"/>
+      <c r="CV42" s="2"/>
+      <c r="CW42" s="2"/>
+      <c r="CX42" s="2"/>
     </row>
-    <row r="43" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2971,8 +5290,60 @@
       <c r="AV43" s="2"/>
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
+      <c r="BA43" s="2">
+        <v>42</v>
+      </c>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="2"/>
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="2"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
+      <c r="BK43" s="2"/>
+      <c r="BL43" s="2"/>
+      <c r="BM43" s="2"/>
+      <c r="BN43" s="2"/>
+      <c r="BO43" s="2"/>
+      <c r="BP43" s="2"/>
+      <c r="BQ43" s="2"/>
+      <c r="BR43" s="2"/>
+      <c r="BS43" s="2"/>
+      <c r="BT43" s="2"/>
+      <c r="BU43" s="2"/>
+      <c r="BV43" s="2"/>
+      <c r="BW43" s="2"/>
+      <c r="BX43" s="2"/>
+      <c r="BY43" s="2"/>
+      <c r="BZ43" s="2"/>
+      <c r="CA43" s="2"/>
+      <c r="CB43" s="2"/>
+      <c r="CC43" s="2"/>
+      <c r="CD43" s="2"/>
+      <c r="CE43" s="2"/>
+      <c r="CF43" s="3"/>
+      <c r="CG43" s="3"/>
+      <c r="CH43" s="3"/>
+      <c r="CI43" s="2"/>
+      <c r="CJ43" s="2"/>
+      <c r="CK43" s="3"/>
+      <c r="CL43" s="3"/>
+      <c r="CM43" s="3"/>
+      <c r="CN43" s="2"/>
+      <c r="CO43" s="2"/>
+      <c r="CP43" s="2"/>
+      <c r="CQ43" s="2"/>
+      <c r="CR43" s="2"/>
+      <c r="CS43" s="2"/>
+      <c r="CT43" s="2"/>
+      <c r="CU43" s="2"/>
+      <c r="CV43" s="2"/>
+      <c r="CW43" s="2"/>
+      <c r="CX43" s="2"/>
     </row>
-    <row r="44" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3025,8 +5396,60 @@
       <c r="AV44" s="2"/>
       <c r="AW44" s="2"/>
       <c r="AX44" s="2"/>
+      <c r="BA44" s="2">
+        <v>43</v>
+      </c>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="2"/>
+      <c r="BD44" s="2"/>
+      <c r="BE44" s="2"/>
+      <c r="BF44" s="2"/>
+      <c r="BG44" s="2"/>
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="2"/>
+      <c r="BL44" s="2"/>
+      <c r="BM44" s="2"/>
+      <c r="BN44" s="2"/>
+      <c r="BO44" s="2"/>
+      <c r="BP44" s="2"/>
+      <c r="BQ44" s="2"/>
+      <c r="BR44" s="2"/>
+      <c r="BS44" s="2"/>
+      <c r="BT44" s="2"/>
+      <c r="BU44" s="2"/>
+      <c r="BV44" s="2"/>
+      <c r="BW44" s="2"/>
+      <c r="BX44" s="2"/>
+      <c r="BY44" s="2"/>
+      <c r="BZ44" s="2"/>
+      <c r="CA44" s="2"/>
+      <c r="CB44" s="2"/>
+      <c r="CC44" s="2"/>
+      <c r="CD44" s="2"/>
+      <c r="CE44" s="2"/>
+      <c r="CF44" s="3"/>
+      <c r="CG44" s="3"/>
+      <c r="CH44" s="3"/>
+      <c r="CI44" s="2"/>
+      <c r="CJ44" s="2"/>
+      <c r="CK44" s="3"/>
+      <c r="CL44" s="3"/>
+      <c r="CM44" s="3"/>
+      <c r="CN44" s="2"/>
+      <c r="CO44" s="2"/>
+      <c r="CP44" s="2"/>
+      <c r="CQ44" s="2"/>
+      <c r="CR44" s="2"/>
+      <c r="CS44" s="2"/>
+      <c r="CT44" s="2"/>
+      <c r="CU44" s="2"/>
+      <c r="CV44" s="2"/>
+      <c r="CW44" s="2"/>
+      <c r="CX44" s="2"/>
     </row>
-    <row r="45" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3083,8 +5506,64 @@
       <c r="AV45" s="3"/>
       <c r="AW45" s="3"/>
       <c r="AX45" s="2"/>
+      <c r="BA45" s="2">
+        <v>44</v>
+      </c>
+      <c r="BB45" s="3"/>
+      <c r="BC45" s="3"/>
+      <c r="BD45" s="3"/>
+      <c r="BE45" s="3"/>
+      <c r="BF45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG45" s="3"/>
+      <c r="BH45" s="3"/>
+      <c r="BI45" s="3"/>
+      <c r="BJ45" s="3"/>
+      <c r="BK45" s="2"/>
+      <c r="BL45" s="2"/>
+      <c r="BM45" s="2"/>
+      <c r="BN45" s="2"/>
+      <c r="BO45" s="2"/>
+      <c r="BP45" s="2"/>
+      <c r="BQ45" s="2"/>
+      <c r="BR45" s="2"/>
+      <c r="BS45" s="2"/>
+      <c r="BT45" s="2"/>
+      <c r="BU45" s="2"/>
+      <c r="BV45" s="3"/>
+      <c r="BW45" s="3"/>
+      <c r="BX45" s="3"/>
+      <c r="BY45" s="3"/>
+      <c r="BZ45" s="3"/>
+      <c r="CA45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB45" s="3"/>
+      <c r="CC45" s="3"/>
+      <c r="CD45" s="3"/>
+      <c r="CE45" s="3"/>
+      <c r="CF45" s="3"/>
+      <c r="CG45" s="3"/>
+      <c r="CH45" s="3"/>
+      <c r="CI45" s="3"/>
+      <c r="CJ45" s="3"/>
+      <c r="CK45" s="3"/>
+      <c r="CL45" s="3"/>
+      <c r="CM45" s="3"/>
+      <c r="CN45" s="2"/>
+      <c r="CO45" s="2"/>
+      <c r="CP45" s="2"/>
+      <c r="CQ45" s="3"/>
+      <c r="CR45" s="3"/>
+      <c r="CS45" s="3"/>
+      <c r="CT45" s="3"/>
+      <c r="CU45" s="3"/>
+      <c r="CV45" s="3"/>
+      <c r="CW45" s="3"/>
+      <c r="CX45" s="2"/>
     </row>
-    <row r="46" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3139,8 +5618,62 @@
       <c r="AV46" s="3"/>
       <c r="AW46" s="3"/>
       <c r="AX46" s="2"/>
+      <c r="BA46" s="2">
+        <v>45</v>
+      </c>
+      <c r="BB46" s="3"/>
+      <c r="BC46" s="3"/>
+      <c r="BD46" s="3"/>
+      <c r="BE46" s="3"/>
+      <c r="BF46" s="3"/>
+      <c r="BG46" s="3"/>
+      <c r="BH46" s="3"/>
+      <c r="BI46" s="3"/>
+      <c r="BJ46" s="3"/>
+      <c r="BK46" s="2"/>
+      <c r="BL46" s="2"/>
+      <c r="BM46" s="2"/>
+      <c r="BN46" s="3"/>
+      <c r="BO46" s="3"/>
+      <c r="BP46" s="3"/>
+      <c r="BQ46" s="3"/>
+      <c r="BR46" s="3"/>
+      <c r="BS46" s="3"/>
+      <c r="BT46" s="3"/>
+      <c r="BU46" s="3"/>
+      <c r="BV46" s="3"/>
+      <c r="BW46" s="3"/>
+      <c r="BX46" s="3"/>
+      <c r="BY46" s="3"/>
+      <c r="BZ46" s="3"/>
+      <c r="CA46" s="3"/>
+      <c r="CB46" s="3"/>
+      <c r="CC46" s="3"/>
+      <c r="CD46" s="3"/>
+      <c r="CE46" s="3"/>
+      <c r="CF46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG46" s="3"/>
+      <c r="CH46" s="3"/>
+      <c r="CI46" s="3"/>
+      <c r="CJ46" s="3"/>
+      <c r="CK46" s="3"/>
+      <c r="CL46" s="3"/>
+      <c r="CM46" s="3"/>
+      <c r="CN46" s="2"/>
+      <c r="CO46" s="2"/>
+      <c r="CP46" s="2"/>
+      <c r="CQ46" s="3"/>
+      <c r="CR46" s="3"/>
+      <c r="CS46" s="3"/>
+      <c r="CT46" s="3"/>
+      <c r="CU46" s="3"/>
+      <c r="CV46" s="3"/>
+      <c r="CW46" s="3"/>
+      <c r="CX46" s="2"/>
     </row>
-    <row r="47" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3195,8 +5728,62 @@
       <c r="AV47" s="9"/>
       <c r="AW47" s="9"/>
       <c r="AX47" s="2"/>
+      <c r="BA47" s="2">
+        <v>46</v>
+      </c>
+      <c r="BB47" s="3"/>
+      <c r="BC47" s="3"/>
+      <c r="BD47" s="2"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="3"/>
+      <c r="BH47" s="3"/>
+      <c r="BI47" s="3"/>
+      <c r="BJ47" s="3"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47" s="2"/>
+      <c r="BM47" s="2"/>
+      <c r="BN47" s="3"/>
+      <c r="BO47" s="3"/>
+      <c r="BP47" s="3"/>
+      <c r="BQ47" s="3"/>
+      <c r="BR47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS47" s="3"/>
+      <c r="BT47" s="3"/>
+      <c r="BU47" s="3"/>
+      <c r="BV47" s="3"/>
+      <c r="BW47" s="3"/>
+      <c r="BX47" s="2"/>
+      <c r="BY47" s="2"/>
+      <c r="BZ47" s="2"/>
+      <c r="CA47" s="2"/>
+      <c r="CB47" s="2"/>
+      <c r="CC47" s="2"/>
+      <c r="CD47" s="2"/>
+      <c r="CE47" s="2"/>
+      <c r="CF47" s="2"/>
+      <c r="CG47" s="2"/>
+      <c r="CH47" s="2"/>
+      <c r="CI47" s="2"/>
+      <c r="CJ47" s="2"/>
+      <c r="CK47" s="2"/>
+      <c r="CL47" s="2"/>
+      <c r="CM47" s="2"/>
+      <c r="CN47" s="2"/>
+      <c r="CO47" s="2"/>
+      <c r="CP47" s="2"/>
+      <c r="CQ47" s="3"/>
+      <c r="CR47" s="3"/>
+      <c r="CS47" s="3"/>
+      <c r="CT47" s="3"/>
+      <c r="CU47" s="9"/>
+      <c r="CV47" s="9"/>
+      <c r="CW47" s="9"/>
+      <c r="CX47" s="2"/>
     </row>
-    <row r="48" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3253,8 +5840,64 @@
       <c r="AV48" s="10"/>
       <c r="AW48" s="9"/>
       <c r="AX48" s="2"/>
+      <c r="BA48" s="2">
+        <v>47</v>
+      </c>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="2"/>
+      <c r="BE48" s="2"/>
+      <c r="BF48" s="2"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+      <c r="BI48" s="3"/>
+      <c r="BJ48" s="3"/>
+      <c r="BK48" s="3"/>
+      <c r="BL48" s="3"/>
+      <c r="BM48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN48" s="3"/>
+      <c r="BO48" s="3"/>
+      <c r="BP48" s="3"/>
+      <c r="BQ48" s="2"/>
+      <c r="BR48" s="2"/>
+      <c r="BS48" s="2"/>
+      <c r="BT48" s="2"/>
+      <c r="BU48" s="2"/>
+      <c r="BV48" s="3"/>
+      <c r="BW48" s="3"/>
+      <c r="BX48" s="3"/>
+      <c r="BY48" s="3"/>
+      <c r="BZ48" s="3"/>
+      <c r="CA48" s="3"/>
+      <c r="CB48" s="3"/>
+      <c r="CC48" s="3"/>
+      <c r="CD48" s="3"/>
+      <c r="CE48" s="3"/>
+      <c r="CF48" s="3"/>
+      <c r="CG48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH48" s="3"/>
+      <c r="CI48" s="3"/>
+      <c r="CJ48" s="3"/>
+      <c r="CK48" s="3"/>
+      <c r="CL48" s="3"/>
+      <c r="CM48" s="3"/>
+      <c r="CN48" s="3"/>
+      <c r="CO48" s="3"/>
+      <c r="CP48" s="3"/>
+      <c r="CQ48" s="3"/>
+      <c r="CR48" s="3"/>
+      <c r="CS48" s="3"/>
+      <c r="CT48" s="3"/>
+      <c r="CU48" s="9"/>
+      <c r="CV48" s="10"/>
+      <c r="CW48" s="9"/>
+      <c r="CX48" s="2"/>
     </row>
-    <row r="49" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3309,8 +5952,62 @@
       <c r="AV49" s="10"/>
       <c r="AW49" s="9"/>
       <c r="AX49" s="2"/>
+      <c r="BA49" s="2">
+        <v>48</v>
+      </c>
+      <c r="BB49" s="6"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+      <c r="BI49" s="3"/>
+      <c r="BJ49" s="3"/>
+      <c r="BK49" s="3"/>
+      <c r="BL49" s="3"/>
+      <c r="BM49" s="3"/>
+      <c r="BN49" s="3"/>
+      <c r="BO49" s="3"/>
+      <c r="BP49" s="3"/>
+      <c r="BQ49" s="2"/>
+      <c r="BR49" s="2"/>
+      <c r="BS49" s="2"/>
+      <c r="BT49" s="2"/>
+      <c r="BU49" s="2"/>
+      <c r="BV49" s="3"/>
+      <c r="BW49" s="3"/>
+      <c r="BX49" s="3"/>
+      <c r="BY49" s="3"/>
+      <c r="BZ49" s="3"/>
+      <c r="CA49" s="3"/>
+      <c r="CB49" s="3"/>
+      <c r="CC49" s="3"/>
+      <c r="CD49" s="3"/>
+      <c r="CE49" s="3"/>
+      <c r="CF49" s="3"/>
+      <c r="CG49" s="3"/>
+      <c r="CH49" s="3"/>
+      <c r="CI49" s="3"/>
+      <c r="CJ49" s="3"/>
+      <c r="CK49" s="3"/>
+      <c r="CL49" s="3"/>
+      <c r="CM49" s="3"/>
+      <c r="CN49" s="3"/>
+      <c r="CO49" s="3"/>
+      <c r="CP49" s="3"/>
+      <c r="CQ49" s="3"/>
+      <c r="CR49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CS49" s="3"/>
+      <c r="CT49" s="3"/>
+      <c r="CU49" s="9"/>
+      <c r="CV49" s="10"/>
+      <c r="CW49" s="9"/>
+      <c r="CX49" s="2"/>
     </row>
-    <row r="50" spans="1:50" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3363,6 +6060,58 @@
       <c r="AV50" s="2"/>
       <c r="AW50" s="2"/>
       <c r="AX50" s="2"/>
+      <c r="BA50" s="2">
+        <v>49</v>
+      </c>
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="2"/>
+      <c r="BD50" s="2"/>
+      <c r="BE50" s="2"/>
+      <c r="BF50" s="2"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="2"/>
+      <c r="BI50" s="2"/>
+      <c r="BJ50" s="2"/>
+      <c r="BK50" s="2"/>
+      <c r="BL50" s="2"/>
+      <c r="BM50" s="2"/>
+      <c r="BN50" s="2"/>
+      <c r="BO50" s="2"/>
+      <c r="BP50" s="2"/>
+      <c r="BQ50" s="2"/>
+      <c r="BR50" s="2"/>
+      <c r="BS50" s="2"/>
+      <c r="BT50" s="2"/>
+      <c r="BU50" s="2"/>
+      <c r="BV50" s="2"/>
+      <c r="BW50" s="2"/>
+      <c r="BX50" s="2"/>
+      <c r="BY50" s="2"/>
+      <c r="BZ50" s="2"/>
+      <c r="CA50" s="2"/>
+      <c r="CB50" s="2"/>
+      <c r="CC50" s="2"/>
+      <c r="CD50" s="2"/>
+      <c r="CE50" s="2"/>
+      <c r="CF50" s="2"/>
+      <c r="CG50" s="2"/>
+      <c r="CH50" s="2"/>
+      <c r="CI50" s="2"/>
+      <c r="CJ50" s="2"/>
+      <c r="CK50" s="2"/>
+      <c r="CL50" s="2"/>
+      <c r="CM50" s="2"/>
+      <c r="CN50" s="2"/>
+      <c r="CO50" s="2"/>
+      <c r="CP50" s="2"/>
+      <c r="CQ50" s="2"/>
+      <c r="CR50" s="2"/>
+      <c r="CS50" s="2"/>
+      <c r="CT50" s="2"/>
+      <c r="CU50" s="2"/>
+      <c r="CV50" s="2"/>
+      <c r="CW50" s="2"/>
+      <c r="CX50" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/map_draw.xlsx
+++ b/map_draw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckckf\OneDrive\Documents\GitHub\2DGP_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A49464-5EED-4E94-BE1A-4142BB3060CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5A0A9F-A001-43E8-8E7C-BA2710769DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="2710" windowWidth="24260" windowHeight="16610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7930" yWindow="4990" windowWidth="24260" windowHeight="16610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>박쥐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +101,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -186,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,6 +228,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,11 +515,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="CG19" sqref="CG19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="11" customWidth="1"/>
     <col min="2" max="17" width="9" style="11"/>
@@ -517,7 +527,7 @@
     <col min="19" max="50" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:102" ht="54.75" customHeight="1" thickBot="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -819,7 +829,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:102" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:102" ht="54.75" customHeight="1" thickBot="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -877,59 +887,57 @@
       <c r="BA2" s="2">
         <v>1</v>
       </c>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2"/>
-      <c r="BU2" s="2"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3"/>
-      <c r="CG2" s="3"/>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3"/>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="3"/>
-      <c r="CM2" s="3"/>
-      <c r="CN2" s="3"/>
-      <c r="CO2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="3"/>
-      <c r="CQ2" s="3"/>
-      <c r="CR2" s="2"/>
-      <c r="CS2" s="2"/>
-      <c r="CT2" s="3"/>
-      <c r="CU2" s="3"/>
-      <c r="CV2" s="3"/>
-      <c r="CW2" s="3"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5"/>
+      <c r="BR2" s="5"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="5"/>
+      <c r="BU2" s="5"/>
+      <c r="BV2" s="5"/>
+      <c r="BW2" s="5"/>
+      <c r="BX2" s="5"/>
+      <c r="BY2" s="5"/>
+      <c r="BZ2" s="5"/>
+      <c r="CA2" s="5"/>
+      <c r="CB2" s="5"/>
+      <c r="CC2" s="5"/>
+      <c r="CD2" s="5"/>
+      <c r="CE2" s="5"/>
+      <c r="CF2" s="5"/>
+      <c r="CG2" s="5"/>
+      <c r="CH2" s="5"/>
+      <c r="CI2" s="5"/>
+      <c r="CJ2" s="5"/>
+      <c r="CK2" s="5"/>
+      <c r="CL2" s="5"/>
+      <c r="CM2" s="5"/>
+      <c r="CN2" s="5"/>
+      <c r="CO2" s="5"/>
+      <c r="CP2" s="5"/>
+      <c r="CQ2" s="5"/>
+      <c r="CR2" s="5"/>
+      <c r="CS2" s="5"/>
+      <c r="CT2" s="5"/>
+      <c r="CU2" s="5"/>
+      <c r="CV2" s="5"/>
+      <c r="CW2" s="5"/>
       <c r="CX2" s="2"/>
     </row>
-    <row r="3" spans="1:102" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:102" ht="54" customHeight="1" thickBot="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -987,59 +995,57 @@
       <c r="BA3" s="2">
         <v>2</v>
       </c>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="3"/>
-      <c r="BT3" s="3"/>
-      <c r="BU3" s="3"/>
-      <c r="BV3" s="3"/>
-      <c r="BW3" s="3"/>
-      <c r="BX3" s="3"/>
-      <c r="BY3" s="3"/>
-      <c r="BZ3" s="3"/>
-      <c r="CA3" s="3"/>
-      <c r="CB3" s="3"/>
-      <c r="CC3" s="3"/>
-      <c r="CD3" s="3"/>
-      <c r="CE3" s="3"/>
-      <c r="CF3" s="3"/>
-      <c r="CG3" s="3"/>
-      <c r="CH3" s="3"/>
-      <c r="CI3" s="3"/>
-      <c r="CJ3" s="3"/>
-      <c r="CK3" s="4"/>
-      <c r="CL3" s="3"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5"/>
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
       <c r="CM3" s="5"/>
       <c r="CN3" s="5"/>
       <c r="CO3" s="5"/>
       <c r="CP3" s="5"/>
       <c r="CQ3" s="5"/>
-      <c r="CR3" s="2"/>
-      <c r="CS3" s="2"/>
-      <c r="CT3" s="3"/>
-      <c r="CU3" s="3"/>
-      <c r="CV3" s="3"/>
-      <c r="CW3" s="6"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="5"/>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5"/>
+      <c r="CW3" s="5"/>
       <c r="CX3" s="2"/>
     </row>
-    <row r="4" spans="1:102" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:102" ht="54" customHeight="1" thickBot="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1095,57 +1101,57 @@
       <c r="BA4" s="2">
         <v>3</v>
       </c>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
-      <c r="BV4" s="3"/>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="3"/>
-      <c r="BY4" s="3"/>
-      <c r="BZ4" s="3"/>
-      <c r="CA4" s="4"/>
-      <c r="CB4" s="3"/>
-      <c r="CC4" s="3"/>
-      <c r="CD4" s="3"/>
-      <c r="CE4" s="3"/>
-      <c r="CF4" s="3"/>
-      <c r="CG4" s="3"/>
-      <c r="CH4" s="3"/>
-      <c r="CI4" s="3"/>
-      <c r="CJ4" s="3"/>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="2"/>
-      <c r="CM4" s="2"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5"/>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
       <c r="CN4" s="5"/>
       <c r="CO4" s="5"/>
       <c r="CP4" s="5"/>
       <c r="CQ4" s="5"/>
-      <c r="CR4" s="2"/>
-      <c r="CS4" s="2"/>
-      <c r="CT4" s="3"/>
-      <c r="CU4" s="3"/>
-      <c r="CV4" s="2"/>
-      <c r="CW4" s="2"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5"/>
+      <c r="CW4" s="5"/>
       <c r="CX4" s="2"/>
     </row>
-    <row r="5" spans="1:102" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:102" ht="54" customHeight="1" thickBot="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1201,57 +1207,57 @@
       <c r="BA5" s="2">
         <v>4</v>
       </c>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
-      <c r="BM5" s="3"/>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2"/>
-      <c r="BP5" s="3"/>
-      <c r="BQ5" s="3"/>
-      <c r="BR5" s="3"/>
-      <c r="BS5" s="3"/>
-      <c r="BT5" s="3"/>
-      <c r="BU5" s="3"/>
-      <c r="BV5" s="3"/>
-      <c r="BW5" s="3"/>
-      <c r="BX5" s="3"/>
-      <c r="BY5" s="3"/>
-      <c r="BZ5" s="3"/>
-      <c r="CA5" s="4"/>
-      <c r="CB5" s="2"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5"/>
+      <c r="BQ5" s="5"/>
+      <c r="BR5" s="5"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="5"/>
+      <c r="BW5" s="5"/>
+      <c r="BX5" s="5"/>
+      <c r="BY5" s="5"/>
+      <c r="BZ5" s="5"/>
+      <c r="CA5" s="5"/>
+      <c r="CB5" s="5"/>
       <c r="CC5" s="5"/>
-      <c r="CD5" s="3"/>
-      <c r="CE5" s="3"/>
-      <c r="CF5" s="3"/>
-      <c r="CG5" s="3"/>
-      <c r="CH5" s="3"/>
-      <c r="CI5" s="3"/>
-      <c r="CJ5" s="3"/>
-      <c r="CK5" s="4"/>
-      <c r="CL5" s="2"/>
-      <c r="CM5" s="2"/>
+      <c r="CD5" s="5"/>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5"/>
+      <c r="CG5" s="5"/>
+      <c r="CH5" s="5"/>
+      <c r="CI5" s="5"/>
+      <c r="CJ5" s="5"/>
+      <c r="CK5" s="5"/>
+      <c r="CL5" s="5"/>
+      <c r="CM5" s="5"/>
       <c r="CN5" s="5"/>
       <c r="CO5" s="5"/>
       <c r="CP5" s="5"/>
       <c r="CQ5" s="5"/>
       <c r="CR5" s="5"/>
       <c r="CS5" s="5"/>
-      <c r="CT5" s="3"/>
-      <c r="CU5" s="3"/>
-      <c r="CV5" s="2"/>
-      <c r="CW5" s="2"/>
+      <c r="CT5" s="5"/>
+      <c r="CU5" s="5"/>
+      <c r="CV5" s="5"/>
+      <c r="CW5" s="5"/>
       <c r="CX5" s="2"/>
     </row>
-    <row r="6" spans="1:102" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:102" ht="54" customHeight="1" thickBot="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1307,57 +1313,57 @@
       <c r="BA6" s="2">
         <v>5</v>
       </c>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="3"/>
-      <c r="BK6" s="3"/>
-      <c r="BL6" s="3"/>
-      <c r="BM6" s="3"/>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2"/>
-      <c r="BP6" s="2"/>
-      <c r="BQ6" s="2"/>
-      <c r="BR6" s="3"/>
-      <c r="BS6" s="3"/>
-      <c r="BT6" s="3"/>
-      <c r="BU6" s="3"/>
-      <c r="BV6" s="2"/>
-      <c r="BW6" s="2"/>
-      <c r="BX6" s="3"/>
-      <c r="BY6" s="3"/>
-      <c r="BZ6" s="3"/>
-      <c r="CA6" s="4"/>
-      <c r="CB6" s="2"/>
-      <c r="CC6" s="2"/>
-      <c r="CD6" s="3"/>
-      <c r="CE6" s="3"/>
-      <c r="CF6" s="3"/>
-      <c r="CG6" s="3"/>
-      <c r="CH6" s="3"/>
-      <c r="CI6" s="3"/>
-      <c r="CJ6" s="3"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="5"/>
+      <c r="BN6" s="5"/>
+      <c r="BO6" s="5"/>
+      <c r="BP6" s="5"/>
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="5"/>
+      <c r="BS6" s="5"/>
+      <c r="BT6" s="5"/>
+      <c r="BU6" s="5"/>
+      <c r="BV6" s="5"/>
+      <c r="BW6" s="5"/>
+      <c r="BX6" s="5"/>
+      <c r="BY6" s="5"/>
+      <c r="BZ6" s="5"/>
+      <c r="CA6" s="5"/>
+      <c r="CB6" s="5"/>
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="5"/>
+      <c r="CE6" s="5"/>
+      <c r="CF6" s="5"/>
+      <c r="CG6" s="5"/>
+      <c r="CH6" s="5"/>
+      <c r="CI6" s="5"/>
+      <c r="CJ6" s="5"/>
       <c r="CK6" s="5"/>
-      <c r="CL6" s="2"/>
-      <c r="CM6" s="2"/>
+      <c r="CL6" s="5"/>
+      <c r="CM6" s="5"/>
       <c r="CN6" s="5"/>
       <c r="CO6" s="5"/>
       <c r="CP6" s="5"/>
       <c r="CQ6" s="5"/>
       <c r="CR6" s="5"/>
       <c r="CS6" s="5"/>
-      <c r="CT6" s="3"/>
-      <c r="CU6" s="3"/>
-      <c r="CV6" s="2"/>
-      <c r="CW6" s="2"/>
+      <c r="CT6" s="5"/>
+      <c r="CU6" s="5"/>
+      <c r="CV6" s="5"/>
+      <c r="CW6" s="5"/>
       <c r="CX6" s="2"/>
     </row>
-    <row r="7" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1413,57 +1419,57 @@
       <c r="BA7" s="2">
         <v>6</v>
       </c>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="7"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
-      <c r="BL7" s="3"/>
-      <c r="BM7" s="3"/>
-      <c r="BN7" s="3"/>
-      <c r="BO7" s="2"/>
-      <c r="BP7" s="2"/>
-      <c r="BQ7" s="3"/>
-      <c r="BR7" s="3"/>
-      <c r="BS7" s="3"/>
-      <c r="BT7" s="3"/>
-      <c r="BU7" s="2"/>
-      <c r="BV7" s="2"/>
-      <c r="BW7" s="2"/>
-      <c r="BX7" s="2"/>
-      <c r="BY7" s="3"/>
-      <c r="BZ7" s="3"/>
-      <c r="CA7" s="4"/>
-      <c r="CB7" s="2"/>
-      <c r="CC7" s="2"/>
-      <c r="CD7" s="2"/>
-      <c r="CE7" s="2"/>
-      <c r="CF7" s="2"/>
-      <c r="CG7" s="2"/>
-      <c r="CH7" s="2"/>
-      <c r="CI7" s="2"/>
-      <c r="CJ7" s="2"/>
-      <c r="CK7" s="2"/>
-      <c r="CL7" s="2"/>
-      <c r="CM7" s="2"/>
-      <c r="CN7" s="2"/>
-      <c r="CO7" s="2"/>
-      <c r="CP7" s="2"/>
-      <c r="CQ7" s="2"/>
-      <c r="CR7" s="2"/>
-      <c r="CS7" s="2"/>
-      <c r="CT7" s="3"/>
-      <c r="CU7" s="3"/>
-      <c r="CV7" s="2"/>
-      <c r="CW7" s="2"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="5"/>
+      <c r="BO7" s="5"/>
+      <c r="BP7" s="5"/>
+      <c r="BQ7" s="5"/>
+      <c r="BR7" s="5"/>
+      <c r="BS7" s="5"/>
+      <c r="BT7" s="5"/>
+      <c r="BU7" s="5"/>
+      <c r="BV7" s="5"/>
+      <c r="BW7" s="5"/>
+      <c r="BX7" s="5"/>
+      <c r="BY7" s="5"/>
+      <c r="BZ7" s="5"/>
+      <c r="CA7" s="5"/>
+      <c r="CB7" s="5"/>
+      <c r="CC7" s="5"/>
+      <c r="CD7" s="5"/>
+      <c r="CE7" s="5"/>
+      <c r="CF7" s="5"/>
+      <c r="CG7" s="5"/>
+      <c r="CH7" s="5"/>
+      <c r="CI7" s="5"/>
+      <c r="CJ7" s="5"/>
+      <c r="CK7" s="5"/>
+      <c r="CL7" s="5"/>
+      <c r="CM7" s="5"/>
+      <c r="CN7" s="5"/>
+      <c r="CO7" s="5"/>
+      <c r="CP7" s="5"/>
+      <c r="CQ7" s="5"/>
+      <c r="CR7" s="5"/>
+      <c r="CS7" s="5"/>
+      <c r="CT7" s="5"/>
+      <c r="CU7" s="5"/>
+      <c r="CV7" s="5"/>
+      <c r="CW7" s="5"/>
       <c r="CX7" s="2"/>
     </row>
-    <row r="8" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1521,59 +1527,57 @@
       <c r="BA8" s="2">
         <v>7</v>
       </c>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="7"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
       <c r="BD8" s="5"/>
-      <c r="BE8" s="7"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
-      <c r="BL8" s="3"/>
-      <c r="BM8" s="3"/>
-      <c r="BN8" s="3"/>
-      <c r="BO8" s="3"/>
-      <c r="BP8" s="3"/>
-      <c r="BQ8" s="3"/>
-      <c r="BR8" s="3"/>
-      <c r="BS8" s="3"/>
-      <c r="BT8" s="2"/>
-      <c r="BU8" s="2"/>
-      <c r="BV8" s="2"/>
-      <c r="BW8" s="2"/>
-      <c r="BX8" s="2"/>
-      <c r="BY8" s="2"/>
-      <c r="BZ8" s="3"/>
-      <c r="CA8" s="3"/>
-      <c r="CB8" s="2"/>
-      <c r="CC8" s="2"/>
-      <c r="CD8" s="2"/>
-      <c r="CE8" s="2"/>
-      <c r="CF8" s="2"/>
-      <c r="CG8" s="2"/>
-      <c r="CH8" s="2"/>
-      <c r="CI8" s="3"/>
-      <c r="CJ8" s="3"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
+      <c r="BP8" s="5"/>
+      <c r="BQ8" s="5"/>
+      <c r="BR8" s="5"/>
+      <c r="BS8" s="5"/>
+      <c r="BT8" s="5"/>
+      <c r="BU8" s="5"/>
+      <c r="BV8" s="5"/>
+      <c r="BW8" s="5"/>
+      <c r="BX8" s="5"/>
+      <c r="BY8" s="5"/>
+      <c r="BZ8" s="5"/>
+      <c r="CA8" s="5"/>
+      <c r="CB8" s="5"/>
+      <c r="CC8" s="5"/>
+      <c r="CD8" s="5"/>
+      <c r="CE8" s="5"/>
+      <c r="CF8" s="5"/>
+      <c r="CG8" s="5"/>
+      <c r="CH8" s="5"/>
+      <c r="CI8" s="5"/>
+      <c r="CJ8" s="5"/>
       <c r="CK8" s="5"/>
       <c r="CL8" s="5"/>
-      <c r="CM8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="CM8" s="5"/>
       <c r="CN8" s="5"/>
       <c r="CO8" s="5"/>
       <c r="CP8" s="5"/>
       <c r="CQ8" s="5"/>
       <c r="CR8" s="5"/>
       <c r="CS8" s="5"/>
-      <c r="CT8" s="3"/>
-      <c r="CU8" s="3"/>
-      <c r="CV8" s="2"/>
-      <c r="CW8" s="2"/>
+      <c r="CT8" s="5"/>
+      <c r="CU8" s="5"/>
+      <c r="CV8" s="5"/>
+      <c r="CW8" s="5"/>
       <c r="CX8" s="2"/>
     </row>
-    <row r="9" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1629,41 +1633,41 @@
       <c r="BA9" s="2">
         <v>8</v>
       </c>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="7"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
       <c r="BD9" s="5"/>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="3"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="3"/>
-      <c r="BK9" s="3"/>
-      <c r="BL9" s="3"/>
-      <c r="BM9" s="3"/>
-      <c r="BN9" s="3"/>
-      <c r="BO9" s="3"/>
-      <c r="BP9" s="3"/>
-      <c r="BQ9" s="3"/>
-      <c r="BR9" s="3"/>
-      <c r="BS9" s="2"/>
-      <c r="BT9" s="2"/>
-      <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
-      <c r="BW9" s="2"/>
-      <c r="BX9" s="2"/>
-      <c r="BY9" s="2"/>
-      <c r="BZ9" s="2"/>
-      <c r="CA9" s="2"/>
-      <c r="CB9" s="2"/>
-      <c r="CC9" s="2"/>
-      <c r="CD9" s="2"/>
-      <c r="CE9" s="3"/>
-      <c r="CF9" s="3"/>
-      <c r="CG9" s="3"/>
-      <c r="CH9" s="3"/>
-      <c r="CI9" s="3"/>
-      <c r="CJ9" s="3"/>
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="5"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="5"/>
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="5"/>
+      <c r="BK9" s="5"/>
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="5"/>
+      <c r="BO9" s="5"/>
+      <c r="BP9" s="5"/>
+      <c r="BQ9" s="5"/>
+      <c r="BR9" s="5"/>
+      <c r="BS9" s="5"/>
+      <c r="BT9" s="5"/>
+      <c r="BU9" s="5"/>
+      <c r="BV9" s="5"/>
+      <c r="BW9" s="5"/>
+      <c r="BX9" s="5"/>
+      <c r="BY9" s="5"/>
+      <c r="BZ9" s="5"/>
+      <c r="CA9" s="5"/>
+      <c r="CB9" s="5"/>
+      <c r="CC9" s="5"/>
+      <c r="CD9" s="5"/>
+      <c r="CE9" s="5"/>
+      <c r="CF9" s="5"/>
+      <c r="CG9" s="5"/>
+      <c r="CH9" s="5"/>
+      <c r="CI9" s="5"/>
+      <c r="CJ9" s="5"/>
       <c r="CK9" s="5"/>
       <c r="CL9" s="5"/>
       <c r="CM9" s="5"/>
@@ -1673,13 +1677,13 @@
       <c r="CQ9" s="5"/>
       <c r="CR9" s="5"/>
       <c r="CS9" s="5"/>
-      <c r="CT9" s="3"/>
-      <c r="CU9" s="3"/>
-      <c r="CV9" s="2"/>
-      <c r="CW9" s="2"/>
+      <c r="CT9" s="5"/>
+      <c r="CU9" s="5"/>
+      <c r="CV9" s="5"/>
+      <c r="CW9" s="5"/>
       <c r="CX9" s="2"/>
     </row>
-    <row r="10" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1735,57 +1739,57 @@
       <c r="BA10" s="2">
         <v>9</v>
       </c>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
-      <c r="BI10" s="2"/>
-      <c r="BJ10" s="2"/>
-      <c r="BK10" s="2"/>
-      <c r="BL10" s="3"/>
-      <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
-      <c r="BO10" s="2"/>
-      <c r="BP10" s="2"/>
-      <c r="BQ10" s="2"/>
-      <c r="BR10" s="2"/>
-      <c r="BS10" s="2"/>
-      <c r="BT10" s="2"/>
-      <c r="BU10" s="2"/>
-      <c r="BV10" s="2"/>
-      <c r="BW10" s="2"/>
-      <c r="BX10" s="2"/>
-      <c r="BY10" s="2"/>
-      <c r="BZ10" s="2"/>
-      <c r="CA10" s="2"/>
-      <c r="CB10" s="2"/>
-      <c r="CC10" s="2"/>
-      <c r="CD10" s="2"/>
-      <c r="CE10" s="3"/>
-      <c r="CF10" s="2"/>
-      <c r="CG10" s="2"/>
-      <c r="CH10" s="2"/>
-      <c r="CI10" s="2"/>
-      <c r="CJ10" s="2"/>
-      <c r="CK10" s="2"/>
-      <c r="CL10" s="2"/>
-      <c r="CM10" s="2"/>
-      <c r="CN10" s="2"/>
-      <c r="CO10" s="2"/>
-      <c r="CP10" s="2"/>
-      <c r="CQ10" s="2"/>
-      <c r="CR10" s="2"/>
-      <c r="CS10" s="2"/>
-      <c r="CT10" s="2"/>
-      <c r="CU10" s="2"/>
-      <c r="CV10" s="2"/>
-      <c r="CW10" s="2"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="5"/>
+      <c r="BI10" s="5"/>
+      <c r="BJ10" s="5"/>
+      <c r="BK10" s="5"/>
+      <c r="BL10" s="5"/>
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="5"/>
+      <c r="BP10" s="5"/>
+      <c r="BQ10" s="5"/>
+      <c r="BR10" s="5"/>
+      <c r="BS10" s="5"/>
+      <c r="BT10" s="5"/>
+      <c r="BU10" s="5"/>
+      <c r="BV10" s="5"/>
+      <c r="BW10" s="5"/>
+      <c r="BX10" s="5"/>
+      <c r="BY10" s="5"/>
+      <c r="BZ10" s="5"/>
+      <c r="CA10" s="5"/>
+      <c r="CB10" s="5"/>
+      <c r="CC10" s="5"/>
+      <c r="CD10" s="5"/>
+      <c r="CE10" s="5"/>
+      <c r="CF10" s="5"/>
+      <c r="CG10" s="5"/>
+      <c r="CH10" s="5"/>
+      <c r="CI10" s="5"/>
+      <c r="CJ10" s="5"/>
+      <c r="CK10" s="5"/>
+      <c r="CL10" s="5"/>
+      <c r="CM10" s="5"/>
+      <c r="CN10" s="5"/>
+      <c r="CO10" s="5"/>
+      <c r="CP10" s="5"/>
+      <c r="CQ10" s="5"/>
+      <c r="CR10" s="5"/>
+      <c r="CS10" s="5"/>
+      <c r="CT10" s="5"/>
+      <c r="CU10" s="5"/>
+      <c r="CV10" s="5"/>
+      <c r="CW10" s="5"/>
       <c r="CX10" s="2"/>
     </row>
-    <row r="11" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1841,57 +1845,57 @@
       <c r="BA11" s="2">
         <v>10</v>
       </c>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-      <c r="BH11" s="2"/>
-      <c r="BI11" s="2"/>
-      <c r="BJ11" s="2"/>
-      <c r="BK11" s="2"/>
-      <c r="BL11" s="3"/>
-      <c r="BM11" s="3"/>
-      <c r="BN11" s="3"/>
-      <c r="BO11" s="2"/>
-      <c r="BP11" s="2"/>
-      <c r="BQ11" s="2"/>
-      <c r="BR11" s="2"/>
-      <c r="BS11" s="2"/>
-      <c r="BT11" s="2"/>
-      <c r="BU11" s="2"/>
-      <c r="BV11" s="6"/>
-      <c r="BW11" s="3"/>
-      <c r="BX11" s="3"/>
-      <c r="BY11" s="2"/>
-      <c r="BZ11" s="2"/>
-      <c r="CA11" s="3"/>
-      <c r="CB11" s="3"/>
-      <c r="CC11" s="3"/>
-      <c r="CD11" s="3"/>
-      <c r="CE11" s="3"/>
-      <c r="CF11" s="2"/>
-      <c r="CG11" s="2"/>
-      <c r="CH11" s="2"/>
-      <c r="CI11" s="2"/>
-      <c r="CJ11" s="2"/>
-      <c r="CK11" s="2"/>
-      <c r="CL11" s="2"/>
-      <c r="CM11" s="2"/>
-      <c r="CN11" s="2"/>
-      <c r="CO11" s="2"/>
-      <c r="CP11" s="2"/>
-      <c r="CQ11" s="2"/>
-      <c r="CR11" s="2"/>
-      <c r="CS11" s="2"/>
-      <c r="CT11" s="2"/>
-      <c r="CU11" s="2"/>
-      <c r="CV11" s="2"/>
-      <c r="CW11" s="2"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="5"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="5"/>
+      <c r="BP11" s="5"/>
+      <c r="BQ11" s="5"/>
+      <c r="BR11" s="5"/>
+      <c r="BS11" s="5"/>
+      <c r="BT11" s="5"/>
+      <c r="BU11" s="5"/>
+      <c r="BV11" s="5"/>
+      <c r="BW11" s="5"/>
+      <c r="BX11" s="5"/>
+      <c r="BY11" s="5"/>
+      <c r="BZ11" s="5"/>
+      <c r="CA11" s="5"/>
+      <c r="CB11" s="5"/>
+      <c r="CC11" s="5"/>
+      <c r="CD11" s="5"/>
+      <c r="CE11" s="5"/>
+      <c r="CF11" s="5"/>
+      <c r="CG11" s="5"/>
+      <c r="CH11" s="5"/>
+      <c r="CI11" s="5"/>
+      <c r="CJ11" s="5"/>
+      <c r="CK11" s="5"/>
+      <c r="CL11" s="5"/>
+      <c r="CM11" s="5"/>
+      <c r="CN11" s="5"/>
+      <c r="CO11" s="5"/>
+      <c r="CP11" s="5"/>
+      <c r="CQ11" s="5"/>
+      <c r="CR11" s="5"/>
+      <c r="CS11" s="5"/>
+      <c r="CT11" s="5"/>
+      <c r="CU11" s="5"/>
+      <c r="CV11" s="5"/>
+      <c r="CW11" s="5"/>
       <c r="CX11" s="2"/>
     </row>
-    <row r="12" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1947,57 +1951,57 @@
       <c r="BA12" s="2">
         <v>11</v>
       </c>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="2"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="2"/>
-      <c r="BP12" s="2"/>
-      <c r="BQ12" s="2"/>
-      <c r="BR12" s="2"/>
-      <c r="BS12" s="2"/>
-      <c r="BT12" s="2"/>
-      <c r="BU12" s="2"/>
-      <c r="BV12" s="2"/>
-      <c r="BW12" s="3"/>
-      <c r="BX12" s="3"/>
-      <c r="BY12" s="2"/>
-      <c r="BZ12" s="2"/>
-      <c r="CA12" s="3"/>
-      <c r="CB12" s="3"/>
-      <c r="CC12" s="3"/>
-      <c r="CD12" s="3"/>
-      <c r="CE12" s="3"/>
-      <c r="CF12" s="3"/>
-      <c r="CG12" s="3"/>
-      <c r="CH12" s="3"/>
-      <c r="CI12" s="3"/>
-      <c r="CJ12" s="3"/>
-      <c r="CK12" s="3"/>
-      <c r="CL12" s="3"/>
-      <c r="CM12" s="3"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="5"/>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="5"/>
+      <c r="BK12" s="5"/>
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
+      <c r="BN12" s="5"/>
+      <c r="BO12" s="5"/>
+      <c r="BP12" s="5"/>
+      <c r="BQ12" s="5"/>
+      <c r="BR12" s="5"/>
+      <c r="BS12" s="5"/>
+      <c r="BT12" s="5"/>
+      <c r="BU12" s="5"/>
+      <c r="BV12" s="5"/>
+      <c r="BW12" s="5"/>
+      <c r="BX12" s="5"/>
+      <c r="BY12" s="5"/>
+      <c r="BZ12" s="5"/>
+      <c r="CA12" s="5"/>
+      <c r="CB12" s="5"/>
+      <c r="CC12" s="5"/>
+      <c r="CD12" s="5"/>
+      <c r="CE12" s="5"/>
+      <c r="CF12" s="5"/>
+      <c r="CG12" s="5"/>
+      <c r="CH12" s="5"/>
+      <c r="CI12" s="5"/>
+      <c r="CJ12" s="5"/>
+      <c r="CK12" s="5"/>
+      <c r="CL12" s="5"/>
+      <c r="CM12" s="5"/>
       <c r="CN12" s="5"/>
-      <c r="CO12" s="3"/>
-      <c r="CP12" s="3"/>
-      <c r="CQ12" s="3"/>
-      <c r="CR12" s="3"/>
-      <c r="CS12" s="3"/>
-      <c r="CT12" s="3"/>
-      <c r="CU12" s="3"/>
-      <c r="CV12" s="3"/>
-      <c r="CW12" s="3"/>
+      <c r="CO12" s="5"/>
+      <c r="CP12" s="5"/>
+      <c r="CQ12" s="5"/>
+      <c r="CR12" s="5"/>
+      <c r="CS12" s="5"/>
+      <c r="CT12" s="5"/>
+      <c r="CU12" s="5"/>
+      <c r="CV12" s="5"/>
+      <c r="CW12" s="5"/>
       <c r="CX12" s="2"/>
     </row>
-    <row r="13" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2055,59 +2059,57 @@
       <c r="BA13" s="2">
         <v>12</v>
       </c>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="6"/>
-      <c r="BK13" s="2"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="2"/>
-      <c r="BS13" s="2"/>
-      <c r="BT13" s="2"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="5"/>
+      <c r="BO13" s="5"/>
+      <c r="BP13" s="5"/>
+      <c r="BQ13" s="5"/>
+      <c r="BR13" s="5"/>
+      <c r="BS13" s="5"/>
+      <c r="BT13" s="5"/>
       <c r="BU13" s="5"/>
-      <c r="BV13" s="3"/>
-      <c r="BW13" s="3"/>
-      <c r="BX13" s="3"/>
-      <c r="BY13" s="2"/>
-      <c r="BZ13" s="2"/>
-      <c r="CA13" s="3"/>
-      <c r="CB13" s="3"/>
-      <c r="CC13" s="3"/>
-      <c r="CD13" s="3"/>
-      <c r="CE13" s="3"/>
-      <c r="CF13" s="3"/>
-      <c r="CG13" s="3"/>
-      <c r="CH13" s="3"/>
-      <c r="CI13" s="4"/>
-      <c r="CJ13" s="3"/>
-      <c r="CK13" s="3"/>
-      <c r="CL13" s="3"/>
-      <c r="CM13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="CN13" s="3"/>
-      <c r="CO13" s="3"/>
-      <c r="CP13" s="3"/>
-      <c r="CQ13" s="3"/>
-      <c r="CR13" s="3"/>
-      <c r="CS13" s="3"/>
-      <c r="CT13" s="3"/>
-      <c r="CU13" s="3"/>
-      <c r="CV13" s="3"/>
-      <c r="CW13" s="3"/>
+      <c r="BV13" s="5"/>
+      <c r="BW13" s="5"/>
+      <c r="BX13" s="5"/>
+      <c r="BY13" s="5"/>
+      <c r="BZ13" s="5"/>
+      <c r="CA13" s="5"/>
+      <c r="CB13" s="5"/>
+      <c r="CC13" s="5"/>
+      <c r="CD13" s="5"/>
+      <c r="CE13" s="5"/>
+      <c r="CF13" s="5"/>
+      <c r="CG13" s="5"/>
+      <c r="CH13" s="5"/>
+      <c r="CI13" s="5"/>
+      <c r="CJ13" s="5"/>
+      <c r="CK13" s="5"/>
+      <c r="CL13" s="5"/>
+      <c r="CM13" s="5"/>
+      <c r="CN13" s="5"/>
+      <c r="CO13" s="5"/>
+      <c r="CP13" s="5"/>
+      <c r="CQ13" s="5"/>
+      <c r="CR13" s="5"/>
+      <c r="CS13" s="5"/>
+      <c r="CT13" s="5"/>
+      <c r="CU13" s="5"/>
+      <c r="CV13" s="5"/>
+      <c r="CW13" s="5"/>
       <c r="CX13" s="2"/>
     </row>
-    <row r="14" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2163,57 +2165,57 @@
       <c r="BA14" s="2">
         <v>13</v>
       </c>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
-      <c r="BH14" s="2"/>
-      <c r="BI14" s="2"/>
-      <c r="BJ14" s="2"/>
-      <c r="BK14" s="2"/>
-      <c r="BL14" s="3"/>
-      <c r="BM14" s="3"/>
-      <c r="BN14" s="3"/>
-      <c r="BO14" s="3"/>
-      <c r="BP14" s="3"/>
-      <c r="BQ14" s="3"/>
-      <c r="BR14" s="2"/>
-      <c r="BS14" s="2"/>
-      <c r="BT14" s="2"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
+      <c r="BK14" s="5"/>
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="5"/>
+      <c r="BN14" s="5"/>
+      <c r="BO14" s="5"/>
+      <c r="BP14" s="5"/>
+      <c r="BQ14" s="5"/>
+      <c r="BR14" s="5"/>
+      <c r="BS14" s="5"/>
+      <c r="BT14" s="5"/>
       <c r="BU14" s="5"/>
-      <c r="BV14" s="3"/>
-      <c r="BW14" s="3"/>
-      <c r="BX14" s="2"/>
-      <c r="BY14" s="2"/>
-      <c r="BZ14" s="2"/>
-      <c r="CA14" s="3"/>
-      <c r="CB14" s="3"/>
-      <c r="CC14" s="2"/>
-      <c r="CD14" s="2"/>
-      <c r="CE14" s="2"/>
-      <c r="CF14" s="2"/>
-      <c r="CG14" s="3"/>
-      <c r="CH14" s="3"/>
-      <c r="CI14" s="4"/>
-      <c r="CJ14" s="2"/>
-      <c r="CK14" s="2"/>
-      <c r="CL14" s="2"/>
-      <c r="CM14" s="2"/>
-      <c r="CN14" s="2"/>
-      <c r="CO14" s="2"/>
-      <c r="CP14" s="2"/>
-      <c r="CQ14" s="3"/>
-      <c r="CR14" s="3"/>
-      <c r="CS14" s="3"/>
-      <c r="CT14" s="3"/>
-      <c r="CU14" s="3"/>
-      <c r="CV14" s="3"/>
-      <c r="CW14" s="3"/>
+      <c r="BV14" s="5"/>
+      <c r="BW14" s="5"/>
+      <c r="BX14" s="5"/>
+      <c r="BY14" s="5"/>
+      <c r="BZ14" s="5"/>
+      <c r="CA14" s="5"/>
+      <c r="CB14" s="5"/>
+      <c r="CC14" s="5"/>
+      <c r="CD14" s="5"/>
+      <c r="CE14" s="5"/>
+      <c r="CF14" s="5"/>
+      <c r="CG14" s="5"/>
+      <c r="CH14" s="5"/>
+      <c r="CI14" s="5"/>
+      <c r="CJ14" s="5"/>
+      <c r="CK14" s="5"/>
+      <c r="CL14" s="5"/>
+      <c r="CM14" s="5"/>
+      <c r="CN14" s="5"/>
+      <c r="CO14" s="5"/>
+      <c r="CP14" s="5"/>
+      <c r="CQ14" s="5"/>
+      <c r="CR14" s="5"/>
+      <c r="CS14" s="5"/>
+      <c r="CT14" s="5"/>
+      <c r="CU14" s="5"/>
+      <c r="CV14" s="5"/>
+      <c r="CW14" s="5"/>
       <c r="CX14" s="2"/>
     </row>
-    <row r="15" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2269,57 +2271,57 @@
       <c r="BA15" s="2">
         <v>14</v>
       </c>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="2"/>
-      <c r="BF15" s="2"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3"/>
-      <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
-      <c r="BQ15" s="3"/>
-      <c r="BR15" s="2"/>
-      <c r="BS15" s="2"/>
-      <c r="BT15" s="2"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
+      <c r="BK15" s="5"/>
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="5"/>
+      <c r="BN15" s="5"/>
+      <c r="BO15" s="5"/>
+      <c r="BP15" s="5"/>
+      <c r="BQ15" s="5"/>
+      <c r="BR15" s="5"/>
+      <c r="BS15" s="5"/>
+      <c r="BT15" s="5"/>
       <c r="BU15" s="5"/>
-      <c r="BV15" s="3"/>
-      <c r="BW15" s="2"/>
-      <c r="BX15" s="2"/>
-      <c r="BY15" s="2"/>
-      <c r="BZ15" s="2"/>
-      <c r="CA15" s="3"/>
-      <c r="CB15" s="3"/>
-      <c r="CC15" s="2"/>
-      <c r="CD15" s="2"/>
-      <c r="CE15" s="2"/>
-      <c r="CF15" s="2"/>
-      <c r="CG15" s="3"/>
-      <c r="CH15" s="3"/>
-      <c r="CI15" s="4"/>
-      <c r="CJ15" s="2"/>
-      <c r="CK15" s="2"/>
-      <c r="CL15" s="2"/>
-      <c r="CM15" s="2"/>
-      <c r="CN15" s="2"/>
-      <c r="CO15" s="2"/>
-      <c r="CP15" s="2"/>
-      <c r="CQ15" s="3"/>
-      <c r="CR15" s="3"/>
-      <c r="CS15" s="3"/>
-      <c r="CT15" s="3"/>
-      <c r="CU15" s="3"/>
-      <c r="CV15" s="3"/>
-      <c r="CW15" s="3"/>
+      <c r="BV15" s="5"/>
+      <c r="BW15" s="5"/>
+      <c r="BX15" s="5"/>
+      <c r="BY15" s="5"/>
+      <c r="BZ15" s="5"/>
+      <c r="CA15" s="5"/>
+      <c r="CB15" s="5"/>
+      <c r="CC15" s="5"/>
+      <c r="CD15" s="5"/>
+      <c r="CE15" s="5"/>
+      <c r="CF15" s="5"/>
+      <c r="CG15" s="5"/>
+      <c r="CH15" s="5"/>
+      <c r="CI15" s="5"/>
+      <c r="CJ15" s="5"/>
+      <c r="CK15" s="5"/>
+      <c r="CL15" s="5"/>
+      <c r="CM15" s="5"/>
+      <c r="CN15" s="5"/>
+      <c r="CO15" s="5"/>
+      <c r="CP15" s="5"/>
+      <c r="CQ15" s="5"/>
+      <c r="CR15" s="5"/>
+      <c r="CS15" s="5"/>
+      <c r="CT15" s="5"/>
+      <c r="CU15" s="5"/>
+      <c r="CV15" s="5"/>
+      <c r="CW15" s="5"/>
       <c r="CX15" s="2"/>
     </row>
-    <row r="16" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2377,59 +2379,57 @@
       <c r="BA16" s="2">
         <v>15</v>
       </c>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-      <c r="BJ16" s="3"/>
-      <c r="BK16" s="3"/>
-      <c r="BL16" s="3"/>
-      <c r="BM16" s="3"/>
-      <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3"/>
-      <c r="BR16" s="2"/>
-      <c r="BS16" s="2"/>
-      <c r="BT16" s="2"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="5"/>
+      <c r="BG16" s="5"/>
+      <c r="BH16" s="5"/>
+      <c r="BI16" s="5"/>
+      <c r="BJ16" s="5"/>
+      <c r="BK16" s="5"/>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
+      <c r="BN16" s="5"/>
+      <c r="BO16" s="5"/>
+      <c r="BP16" s="5"/>
+      <c r="BQ16" s="5"/>
+      <c r="BR16" s="5"/>
+      <c r="BS16" s="5"/>
+      <c r="BT16" s="5"/>
       <c r="BU16" s="5"/>
-      <c r="BV16" s="3"/>
-      <c r="BW16" s="2"/>
-      <c r="BX16" s="2"/>
-      <c r="BY16" s="2"/>
-      <c r="BZ16" s="2"/>
-      <c r="CA16" s="3"/>
-      <c r="CB16" s="3"/>
-      <c r="CC16" s="2"/>
-      <c r="CD16" s="2"/>
-      <c r="CE16" s="2"/>
-      <c r="CF16" s="2"/>
-      <c r="CG16" s="3"/>
-      <c r="CH16" s="3"/>
-      <c r="CI16" s="4"/>
-      <c r="CJ16" s="2"/>
-      <c r="CK16" s="2"/>
-      <c r="CL16" s="2"/>
-      <c r="CM16" s="3"/>
-      <c r="CN16" s="3"/>
-      <c r="CO16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP16" s="3"/>
-      <c r="CQ16" s="3"/>
-      <c r="CR16" s="3"/>
-      <c r="CS16" s="3"/>
-      <c r="CT16" s="3"/>
-      <c r="CU16" s="3"/>
-      <c r="CV16" s="3"/>
-      <c r="CW16" s="3"/>
+      <c r="BV16" s="5"/>
+      <c r="BW16" s="5"/>
+      <c r="BX16" s="5"/>
+      <c r="BY16" s="5"/>
+      <c r="BZ16" s="5"/>
+      <c r="CA16" s="5"/>
+      <c r="CB16" s="5"/>
+      <c r="CC16" s="5"/>
+      <c r="CD16" s="5"/>
+      <c r="CE16" s="5"/>
+      <c r="CF16" s="5"/>
+      <c r="CG16" s="5"/>
+      <c r="CH16" s="5"/>
+      <c r="CI16" s="5"/>
+      <c r="CJ16" s="5"/>
+      <c r="CK16" s="5"/>
+      <c r="CL16" s="5"/>
+      <c r="CM16" s="5"/>
+      <c r="CN16" s="5"/>
+      <c r="CO16" s="5"/>
+      <c r="CP16" s="5"/>
+      <c r="CQ16" s="5"/>
+      <c r="CR16" s="5"/>
+      <c r="CS16" s="5"/>
+      <c r="CT16" s="5"/>
+      <c r="CU16" s="5"/>
+      <c r="CV16" s="5"/>
+      <c r="CW16" s="5"/>
       <c r="CX16" s="2"/>
     </row>
-    <row r="17" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2487,59 +2487,57 @@
       <c r="BA17" s="2">
         <v>16</v>
       </c>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="3"/>
-      <c r="BO17" s="3"/>
-      <c r="BP17" s="3"/>
-      <c r="BQ17" s="3"/>
-      <c r="BR17" s="3"/>
-      <c r="BS17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT17" s="3"/>
-      <c r="BU17" s="3"/>
-      <c r="BV17" s="3"/>
-      <c r="BW17" s="2"/>
-      <c r="BX17" s="2"/>
-      <c r="BY17" s="2"/>
-      <c r="BZ17" s="2"/>
-      <c r="CA17" s="3"/>
-      <c r="CB17" s="3"/>
-      <c r="CC17" s="2"/>
-      <c r="CD17" s="2"/>
-      <c r="CE17" s="2"/>
-      <c r="CF17" s="2"/>
-      <c r="CG17" s="3"/>
-      <c r="CH17" s="3"/>
-      <c r="CI17" s="4"/>
-      <c r="CJ17" s="2"/>
-      <c r="CK17" s="2"/>
-      <c r="CL17" s="2"/>
-      <c r="CM17" s="3"/>
-      <c r="CN17" s="3"/>
-      <c r="CO17" s="3"/>
-      <c r="CP17" s="3"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
+      <c r="BE17" s="5"/>
+      <c r="BF17" s="5"/>
+      <c r="BG17" s="5"/>
+      <c r="BH17" s="5"/>
+      <c r="BI17" s="5"/>
+      <c r="BJ17" s="5"/>
+      <c r="BK17" s="5"/>
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="5"/>
+      <c r="BN17" s="5"/>
+      <c r="BO17" s="5"/>
+      <c r="BP17" s="5"/>
+      <c r="BQ17" s="5"/>
+      <c r="BR17" s="5"/>
+      <c r="BS17" s="5"/>
+      <c r="BT17" s="5"/>
+      <c r="BU17" s="5"/>
+      <c r="BV17" s="5"/>
+      <c r="BW17" s="5"/>
+      <c r="BX17" s="5"/>
+      <c r="BY17" s="5"/>
+      <c r="BZ17" s="5"/>
+      <c r="CA17" s="5"/>
+      <c r="CB17" s="5"/>
+      <c r="CC17" s="5"/>
+      <c r="CD17" s="5"/>
+      <c r="CE17" s="5"/>
+      <c r="CF17" s="5"/>
+      <c r="CG17" s="5"/>
+      <c r="CH17" s="5"/>
+      <c r="CI17" s="5"/>
+      <c r="CJ17" s="5"/>
+      <c r="CK17" s="5"/>
+      <c r="CL17" s="5"/>
+      <c r="CM17" s="5"/>
+      <c r="CN17" s="5"/>
+      <c r="CO17" s="5"/>
+      <c r="CP17" s="5"/>
       <c r="CQ17" s="5"/>
       <c r="CR17" s="5"/>
-      <c r="CS17" s="2"/>
-      <c r="CT17" s="2"/>
-      <c r="CU17" s="2"/>
-      <c r="CV17" s="2"/>
-      <c r="CW17" s="2"/>
+      <c r="CS17" s="5"/>
+      <c r="CT17" s="5"/>
+      <c r="CU17" s="5"/>
+      <c r="CV17" s="5"/>
+      <c r="CW17" s="5"/>
       <c r="CX17" s="2"/>
     </row>
-    <row r="18" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2597,59 +2595,57 @@
       <c r="BA18" s="2">
         <v>17</v>
       </c>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
-      <c r="BD18" s="2"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
-      <c r="BN18" s="3"/>
-      <c r="BO18" s="3"/>
-      <c r="BP18" s="3"/>
-      <c r="BQ18" s="3"/>
-      <c r="BR18" s="3"/>
-      <c r="BS18" s="3"/>
-      <c r="BT18" s="3"/>
-      <c r="BU18" s="3"/>
-      <c r="BV18" s="3"/>
-      <c r="BW18" s="2"/>
-      <c r="BX18" s="2"/>
-      <c r="BY18" s="2"/>
-      <c r="BZ18" s="2"/>
-      <c r="CA18" s="3"/>
-      <c r="CB18" s="3"/>
-      <c r="CC18" s="2"/>
-      <c r="CD18" s="2"/>
-      <c r="CE18" s="2"/>
-      <c r="CF18" s="2"/>
-      <c r="CG18" s="3"/>
-      <c r="CH18" s="3"/>
-      <c r="CI18" s="4"/>
-      <c r="CJ18" s="2"/>
-      <c r="CK18" s="2"/>
-      <c r="CL18" s="2"/>
-      <c r="CM18" s="3"/>
-      <c r="CN18" s="3"/>
-      <c r="CO18" s="3"/>
-      <c r="CP18" s="3"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
+      <c r="BF18" s="5"/>
+      <c r="BG18" s="5"/>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="5"/>
+      <c r="BK18" s="5"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="5"/>
+      <c r="BO18" s="5"/>
+      <c r="BP18" s="5"/>
+      <c r="BQ18" s="5"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="5"/>
+      <c r="BT18" s="5"/>
+      <c r="BU18" s="5"/>
+      <c r="BV18" s="5"/>
+      <c r="BW18" s="5"/>
+      <c r="BX18" s="5"/>
+      <c r="BY18" s="5"/>
+      <c r="BZ18" s="5"/>
+      <c r="CA18" s="5"/>
+      <c r="CB18" s="5"/>
+      <c r="CC18" s="5"/>
+      <c r="CD18" s="5"/>
+      <c r="CE18" s="5"/>
+      <c r="CF18" s="5"/>
+      <c r="CG18" s="5"/>
+      <c r="CH18" s="5"/>
+      <c r="CI18" s="5"/>
+      <c r="CJ18" s="5"/>
+      <c r="CK18" s="5"/>
+      <c r="CL18" s="5"/>
+      <c r="CM18" s="5"/>
+      <c r="CN18" s="5"/>
+      <c r="CO18" s="5"/>
+      <c r="CP18" s="5"/>
       <c r="CQ18" s="5"/>
       <c r="CR18" s="5"/>
-      <c r="CS18" s="2"/>
-      <c r="CT18" s="2"/>
-      <c r="CU18" s="2"/>
-      <c r="CV18" s="2"/>
-      <c r="CW18" s="2"/>
+      <c r="CS18" s="5"/>
+      <c r="CT18" s="5"/>
+      <c r="CU18" s="5"/>
+      <c r="CV18" s="5"/>
+      <c r="CW18" s="5"/>
       <c r="CX18" s="2"/>
     </row>
-    <row r="19" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2707,59 +2703,57 @@
       <c r="BA19" s="2">
         <v>18</v>
       </c>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="2"/>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2"/>
-      <c r="BH19" s="2"/>
-      <c r="BI19" s="2"/>
-      <c r="BJ19" s="2"/>
-      <c r="BK19" s="2"/>
-      <c r="BL19" s="2"/>
-      <c r="BM19" s="2"/>
-      <c r="BN19" s="2"/>
-      <c r="BO19" s="2"/>
-      <c r="BP19" s="3"/>
-      <c r="BQ19" s="3"/>
-      <c r="BR19" s="2"/>
-      <c r="BS19" s="2"/>
-      <c r="BT19" s="2"/>
-      <c r="BU19" s="2"/>
-      <c r="BV19" s="2"/>
-      <c r="BW19" s="2"/>
-      <c r="BX19" s="2"/>
-      <c r="BY19" s="2"/>
-      <c r="BZ19" s="2"/>
-      <c r="CA19" s="3"/>
-      <c r="CB19" s="3"/>
-      <c r="CC19" s="2"/>
-      <c r="CD19" s="2"/>
-      <c r="CE19" s="2"/>
-      <c r="CF19" s="2"/>
-      <c r="CG19" s="6"/>
-      <c r="CH19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI19" s="4"/>
-      <c r="CJ19" s="2"/>
-      <c r="CK19" s="2"/>
-      <c r="CL19" s="2"/>
-      <c r="CM19" s="3"/>
-      <c r="CN19" s="3"/>
-      <c r="CO19" s="3"/>
-      <c r="CP19" s="3"/>
-      <c r="CQ19" s="3"/>
-      <c r="CR19" s="3"/>
-      <c r="CS19" s="3"/>
-      <c r="CT19" s="3"/>
-      <c r="CU19" s="3"/>
-      <c r="CV19" s="3"/>
-      <c r="CW19" s="3"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="5"/>
+      <c r="BG19" s="5"/>
+      <c r="BH19" s="5"/>
+      <c r="BI19" s="5"/>
+      <c r="BJ19" s="5"/>
+      <c r="BK19" s="5"/>
+      <c r="BL19" s="5"/>
+      <c r="BM19" s="5"/>
+      <c r="BN19" s="5"/>
+      <c r="BO19" s="5"/>
+      <c r="BP19" s="5"/>
+      <c r="BQ19" s="5"/>
+      <c r="BR19" s="5"/>
+      <c r="BS19" s="5"/>
+      <c r="BT19" s="5"/>
+      <c r="BU19" s="5"/>
+      <c r="BV19" s="5"/>
+      <c r="BW19" s="5"/>
+      <c r="BX19" s="5"/>
+      <c r="BY19" s="5"/>
+      <c r="BZ19" s="5"/>
+      <c r="CA19" s="5"/>
+      <c r="CB19" s="5"/>
+      <c r="CC19" s="5"/>
+      <c r="CD19" s="5"/>
+      <c r="CE19" s="5"/>
+      <c r="CF19" s="5"/>
+      <c r="CG19" s="5"/>
+      <c r="CH19" s="5"/>
+      <c r="CI19" s="5"/>
+      <c r="CJ19" s="5"/>
+      <c r="CK19" s="5"/>
+      <c r="CL19" s="5"/>
+      <c r="CM19" s="5"/>
+      <c r="CN19" s="5"/>
+      <c r="CO19" s="5"/>
+      <c r="CP19" s="5"/>
+      <c r="CQ19" s="5"/>
+      <c r="CR19" s="5"/>
+      <c r="CS19" s="5"/>
+      <c r="CT19" s="5"/>
+      <c r="CU19" s="5"/>
+      <c r="CV19" s="5"/>
+      <c r="CW19" s="5"/>
       <c r="CX19" s="2"/>
     </row>
-    <row r="20" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2815,57 +2809,57 @@
       <c r="BA20" s="2">
         <v>19</v>
       </c>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
-      <c r="BE20" s="2"/>
-      <c r="BF20" s="2"/>
-      <c r="BG20" s="2"/>
-      <c r="BH20" s="2"/>
-      <c r="BI20" s="2"/>
-      <c r="BJ20" s="2"/>
-      <c r="BK20" s="2"/>
-      <c r="BL20" s="2"/>
-      <c r="BM20" s="2"/>
-      <c r="BN20" s="2"/>
-      <c r="BO20" s="2"/>
-      <c r="BP20" s="3"/>
-      <c r="BQ20" s="3"/>
-      <c r="BR20" s="2"/>
-      <c r="BS20" s="2"/>
-      <c r="BT20" s="2"/>
-      <c r="BU20" s="2"/>
-      <c r="BV20" s="2"/>
-      <c r="BW20" s="2"/>
-      <c r="BX20" s="2"/>
-      <c r="BY20" s="2"/>
-      <c r="BZ20" s="2"/>
-      <c r="CA20" s="3"/>
-      <c r="CB20" s="3"/>
-      <c r="CC20" s="2"/>
-      <c r="CD20" s="2"/>
-      <c r="CE20" s="2"/>
-      <c r="CF20" s="2"/>
-      <c r="CG20" s="2"/>
-      <c r="CH20" s="2"/>
-      <c r="CI20" s="2"/>
-      <c r="CJ20" s="2"/>
-      <c r="CK20" s="2"/>
-      <c r="CL20" s="2"/>
-      <c r="CM20" s="3"/>
-      <c r="CN20" s="3"/>
-      <c r="CO20" s="3"/>
-      <c r="CP20" s="3"/>
-      <c r="CQ20" s="3"/>
-      <c r="CR20" s="3"/>
-      <c r="CS20" s="3"/>
-      <c r="CT20" s="3"/>
-      <c r="CU20" s="3"/>
-      <c r="CV20" s="3"/>
-      <c r="CW20" s="3"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
+      <c r="BF20" s="5"/>
+      <c r="BG20" s="5"/>
+      <c r="BH20" s="5"/>
+      <c r="BI20" s="5"/>
+      <c r="BJ20" s="5"/>
+      <c r="BK20" s="5"/>
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
+      <c r="BN20" s="5"/>
+      <c r="BO20" s="5"/>
+      <c r="BP20" s="5"/>
+      <c r="BQ20" s="5"/>
+      <c r="BR20" s="5"/>
+      <c r="BS20" s="5"/>
+      <c r="BT20" s="5"/>
+      <c r="BU20" s="5"/>
+      <c r="BV20" s="5"/>
+      <c r="BW20" s="5"/>
+      <c r="BX20" s="5"/>
+      <c r="BY20" s="5"/>
+      <c r="BZ20" s="5"/>
+      <c r="CA20" s="5"/>
+      <c r="CB20" s="5"/>
+      <c r="CC20" s="5"/>
+      <c r="CD20" s="5"/>
+      <c r="CE20" s="5"/>
+      <c r="CF20" s="5"/>
+      <c r="CG20" s="5"/>
+      <c r="CH20" s="5"/>
+      <c r="CI20" s="5"/>
+      <c r="CJ20" s="5"/>
+      <c r="CK20" s="5"/>
+      <c r="CL20" s="5"/>
+      <c r="CM20" s="5"/>
+      <c r="CN20" s="5"/>
+      <c r="CO20" s="5"/>
+      <c r="CP20" s="5"/>
+      <c r="CQ20" s="5"/>
+      <c r="CR20" s="5"/>
+      <c r="CS20" s="5"/>
+      <c r="CT20" s="5"/>
+      <c r="CU20" s="5"/>
+      <c r="CV20" s="5"/>
+      <c r="CW20" s="5"/>
       <c r="CX20" s="2"/>
     </row>
-    <row r="21" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2921,57 +2915,57 @@
       <c r="BA21" s="2">
         <v>20</v>
       </c>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
-      <c r="BI21" s="3"/>
-      <c r="BJ21" s="3"/>
-      <c r="BK21" s="3"/>
-      <c r="BL21" s="3"/>
-      <c r="BM21" s="3"/>
-      <c r="BN21" s="3"/>
-      <c r="BO21" s="3"/>
-      <c r="BP21" s="3"/>
-      <c r="BQ21" s="3"/>
-      <c r="BR21" s="2"/>
-      <c r="BS21" s="3"/>
-      <c r="BT21" s="3"/>
-      <c r="BU21" s="3"/>
-      <c r="BV21" s="3"/>
-      <c r="BW21" s="3"/>
-      <c r="BX21" s="3"/>
-      <c r="BY21" s="3"/>
-      <c r="BZ21" s="3"/>
-      <c r="CA21" s="3"/>
-      <c r="CB21" s="3"/>
-      <c r="CC21" s="2"/>
-      <c r="CD21" s="2"/>
-      <c r="CE21" s="2"/>
-      <c r="CF21" s="2"/>
-      <c r="CG21" s="2"/>
-      <c r="CH21" s="2"/>
-      <c r="CI21" s="2"/>
-      <c r="CJ21" s="2"/>
-      <c r="CK21" s="2"/>
-      <c r="CL21" s="2"/>
-      <c r="CM21" s="2"/>
-      <c r="CN21" s="2"/>
-      <c r="CO21" s="2"/>
-      <c r="CP21" s="2"/>
-      <c r="CQ21" s="2"/>
-      <c r="CR21" s="2"/>
-      <c r="CS21" s="2"/>
-      <c r="CT21" s="2"/>
-      <c r="CU21" s="3"/>
-      <c r="CV21" s="3"/>
-      <c r="CW21" s="3"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
+      <c r="BF21" s="5"/>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="5"/>
+      <c r="BJ21" s="5"/>
+      <c r="BK21" s="5"/>
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
+      <c r="BN21" s="5"/>
+      <c r="BO21" s="5"/>
+      <c r="BP21" s="5"/>
+      <c r="BQ21" s="5"/>
+      <c r="BR21" s="5"/>
+      <c r="BS21" s="5"/>
+      <c r="BT21" s="5"/>
+      <c r="BU21" s="5"/>
+      <c r="BV21" s="5"/>
+      <c r="BW21" s="5"/>
+      <c r="BX21" s="5"/>
+      <c r="BY21" s="5"/>
+      <c r="BZ21" s="5"/>
+      <c r="CA21" s="5"/>
+      <c r="CB21" s="5"/>
+      <c r="CC21" s="5"/>
+      <c r="CD21" s="5"/>
+      <c r="CE21" s="5"/>
+      <c r="CF21" s="5"/>
+      <c r="CG21" s="5"/>
+      <c r="CH21" s="5"/>
+      <c r="CI21" s="5"/>
+      <c r="CJ21" s="5"/>
+      <c r="CK21" s="5"/>
+      <c r="CL21" s="5"/>
+      <c r="CM21" s="5"/>
+      <c r="CN21" s="5"/>
+      <c r="CO21" s="5"/>
+      <c r="CP21" s="5"/>
+      <c r="CQ21" s="5"/>
+      <c r="CR21" s="5"/>
+      <c r="CS21" s="5"/>
+      <c r="CT21" s="5"/>
+      <c r="CU21" s="5"/>
+      <c r="CV21" s="5"/>
+      <c r="CW21" s="5"/>
       <c r="CX21" s="2"/>
     </row>
-    <row r="22" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3029,59 +3023,57 @@
       <c r="BA22" s="2">
         <v>21</v>
       </c>
-      <c r="BB22" s="2"/>
-      <c r="BC22" s="2"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
-      <c r="BL22" s="3"/>
-      <c r="BM22" s="3"/>
-      <c r="BN22" s="3"/>
-      <c r="BO22" s="3"/>
-      <c r="BP22" s="3"/>
-      <c r="BQ22" s="2"/>
-      <c r="BR22" s="2"/>
-      <c r="BS22" s="3"/>
-      <c r="BT22" s="3"/>
-      <c r="BU22" s="3"/>
-      <c r="BV22" s="3"/>
-      <c r="BW22" s="3"/>
-      <c r="BX22" s="3"/>
-      <c r="BY22" s="3"/>
-      <c r="BZ22" s="3"/>
-      <c r="CA22" s="3"/>
-      <c r="CB22" s="3"/>
-      <c r="CC22" s="3"/>
-      <c r="CD22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE22" s="3"/>
-      <c r="CF22" s="3"/>
-      <c r="CG22" s="2"/>
-      <c r="CH22" s="2"/>
-      <c r="CI22" s="2"/>
-      <c r="CJ22" s="2"/>
-      <c r="CK22" s="2"/>
-      <c r="CL22" s="2"/>
-      <c r="CM22" s="2"/>
-      <c r="CN22" s="2"/>
-      <c r="CO22" s="2"/>
-      <c r="CP22" s="2"/>
-      <c r="CQ22" s="2"/>
-      <c r="CR22" s="2"/>
-      <c r="CS22" s="2"/>
-      <c r="CT22" s="2"/>
-      <c r="CU22" s="3"/>
-      <c r="CV22" s="3"/>
-      <c r="CW22" s="3"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="5"/>
+      <c r="BJ22" s="5"/>
+      <c r="BK22" s="5"/>
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
+      <c r="BO22" s="5"/>
+      <c r="BP22" s="5"/>
+      <c r="BQ22" s="5"/>
+      <c r="BR22" s="5"/>
+      <c r="BS22" s="5"/>
+      <c r="BT22" s="5"/>
+      <c r="BU22" s="5"/>
+      <c r="BV22" s="5"/>
+      <c r="BW22" s="5"/>
+      <c r="BX22" s="5"/>
+      <c r="BY22" s="5"/>
+      <c r="BZ22" s="5"/>
+      <c r="CA22" s="5"/>
+      <c r="CB22" s="5"/>
+      <c r="CC22" s="5"/>
+      <c r="CD22" s="5"/>
+      <c r="CE22" s="5"/>
+      <c r="CF22" s="5"/>
+      <c r="CG22" s="5"/>
+      <c r="CH22" s="5"/>
+      <c r="CI22" s="5"/>
+      <c r="CJ22" s="5"/>
+      <c r="CK22" s="5"/>
+      <c r="CL22" s="5"/>
+      <c r="CM22" s="5"/>
+      <c r="CN22" s="5"/>
+      <c r="CO22" s="5"/>
+      <c r="CP22" s="5"/>
+      <c r="CQ22" s="5"/>
+      <c r="CR22" s="5"/>
+      <c r="CS22" s="5"/>
+      <c r="CT22" s="5"/>
+      <c r="CU22" s="5"/>
+      <c r="CV22" s="5"/>
+      <c r="CW22" s="5"/>
       <c r="CX22" s="2"/>
     </row>
-    <row r="23" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3137,57 +3129,57 @@
       <c r="BA23" s="2">
         <v>22</v>
       </c>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="3"/>
-      <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
-      <c r="BK23" s="3"/>
-      <c r="BL23" s="3"/>
-      <c r="BM23" s="3"/>
-      <c r="BN23" s="3"/>
-      <c r="BO23" s="3"/>
-      <c r="BP23" s="2"/>
-      <c r="BQ23" s="2"/>
-      <c r="BR23" s="2"/>
-      <c r="BS23" s="3"/>
-      <c r="BT23" s="3"/>
-      <c r="BU23" s="3"/>
-      <c r="BV23" s="3"/>
-      <c r="BW23" s="3"/>
-      <c r="BX23" s="3"/>
-      <c r="BY23" s="3"/>
-      <c r="BZ23" s="3"/>
-      <c r="CA23" s="3"/>
-      <c r="CB23" s="3"/>
-      <c r="CC23" s="3"/>
-      <c r="CD23" s="3"/>
-      <c r="CE23" s="3"/>
-      <c r="CF23" s="3"/>
-      <c r="CG23" s="3"/>
-      <c r="CH23" s="3"/>
-      <c r="CI23" s="3"/>
-      <c r="CJ23" s="3"/>
-      <c r="CK23" s="3"/>
-      <c r="CL23" s="3"/>
-      <c r="CM23" s="3"/>
-      <c r="CN23" s="3"/>
-      <c r="CO23" s="3"/>
-      <c r="CP23" s="3"/>
-      <c r="CQ23" s="3"/>
-      <c r="CR23" s="3"/>
-      <c r="CS23" s="3"/>
-      <c r="CT23" s="3"/>
-      <c r="CU23" s="3"/>
-      <c r="CV23" s="3"/>
-      <c r="CW23" s="3"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
+      <c r="BK23" s="5"/>
+      <c r="BL23" s="5"/>
+      <c r="BM23" s="5"/>
+      <c r="BN23" s="5"/>
+      <c r="BO23" s="5"/>
+      <c r="BP23" s="5"/>
+      <c r="BQ23" s="5"/>
+      <c r="BR23" s="5"/>
+      <c r="BS23" s="5"/>
+      <c r="BT23" s="5"/>
+      <c r="BU23" s="5"/>
+      <c r="BV23" s="5"/>
+      <c r="BW23" s="5"/>
+      <c r="BX23" s="5"/>
+      <c r="BY23" s="5"/>
+      <c r="BZ23" s="5"/>
+      <c r="CA23" s="5"/>
+      <c r="CB23" s="5"/>
+      <c r="CC23" s="5"/>
+      <c r="CD23" s="5"/>
+      <c r="CE23" s="5"/>
+      <c r="CF23" s="5"/>
+      <c r="CG23" s="5"/>
+      <c r="CH23" s="5"/>
+      <c r="CI23" s="5"/>
+      <c r="CJ23" s="5"/>
+      <c r="CK23" s="5"/>
+      <c r="CL23" s="5"/>
+      <c r="CM23" s="5"/>
+      <c r="CN23" s="5"/>
+      <c r="CO23" s="5"/>
+      <c r="CP23" s="5"/>
+      <c r="CQ23" s="5"/>
+      <c r="CR23" s="5"/>
+      <c r="CS23" s="5"/>
+      <c r="CT23" s="5"/>
+      <c r="CU23" s="5"/>
+      <c r="CV23" s="5"/>
+      <c r="CW23" s="5"/>
       <c r="CX23" s="2"/>
     </row>
-    <row r="24" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3247,61 +3239,57 @@
       <c r="BA24" s="2">
         <v>23</v>
       </c>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ24" s="3"/>
-      <c r="BK24" s="3"/>
-      <c r="BL24" s="3"/>
-      <c r="BM24" s="3"/>
-      <c r="BN24" s="3"/>
-      <c r="BO24" s="2"/>
-      <c r="BP24" s="2"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
+      <c r="BK24" s="5"/>
+      <c r="BL24" s="5"/>
+      <c r="BM24" s="5"/>
+      <c r="BN24" s="5"/>
+      <c r="BO24" s="5"/>
+      <c r="BP24" s="5"/>
       <c r="BQ24" s="2"/>
       <c r="BR24" s="2"/>
-      <c r="BS24" s="3"/>
-      <c r="BT24" s="3"/>
-      <c r="BU24" s="3"/>
-      <c r="BV24" s="3"/>
-      <c r="BW24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX24" s="3"/>
-      <c r="BY24" s="3"/>
-      <c r="BZ24" s="3"/>
-      <c r="CA24" s="3"/>
-      <c r="CB24" s="3"/>
-      <c r="CC24" s="3"/>
-      <c r="CD24" s="3"/>
-      <c r="CE24" s="3"/>
-      <c r="CF24" s="3"/>
-      <c r="CG24" s="3"/>
-      <c r="CH24" s="3"/>
-      <c r="CI24" s="3"/>
-      <c r="CJ24" s="3"/>
-      <c r="CK24" s="3"/>
-      <c r="CL24" s="3"/>
-      <c r="CM24" s="3"/>
-      <c r="CN24" s="3"/>
-      <c r="CO24" s="3"/>
-      <c r="CP24" s="3"/>
-      <c r="CQ24" s="3"/>
-      <c r="CR24" s="3"/>
-      <c r="CS24" s="3"/>
-      <c r="CT24" s="3"/>
-      <c r="CU24" s="3"/>
-      <c r="CV24" s="3"/>
-      <c r="CW24" s="3"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="5"/>
+      <c r="BV24" s="5"/>
+      <c r="BW24" s="5"/>
+      <c r="BX24" s="5"/>
+      <c r="BY24" s="12"/>
+      <c r="BZ24" s="7"/>
+      <c r="CA24" s="7"/>
+      <c r="CB24" s="5"/>
+      <c r="CC24" s="5"/>
+      <c r="CD24" s="5"/>
+      <c r="CE24" s="5"/>
+      <c r="CF24" s="2"/>
+      <c r="CG24" s="2"/>
+      <c r="CH24" s="2"/>
+      <c r="CI24" s="2"/>
+      <c r="CJ24" s="5"/>
+      <c r="CK24" s="5"/>
+      <c r="CL24" s="5"/>
+      <c r="CM24" s="5"/>
+      <c r="CN24" s="5"/>
+      <c r="CO24" s="5"/>
+      <c r="CP24" s="5"/>
+      <c r="CQ24" s="5"/>
+      <c r="CR24" s="5"/>
+      <c r="CS24" s="5"/>
+      <c r="CT24" s="5"/>
+      <c r="CU24" s="5"/>
+      <c r="CV24" s="5"/>
+      <c r="CW24" s="5"/>
       <c r="CX24" s="2"/>
     </row>
-    <row r="25" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3357,57 +3345,57 @@
       <c r="BA25" s="2">
         <v>24</v>
       </c>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="3"/>
-      <c r="BE25" s="3"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2"/>
-      <c r="BH25" s="2"/>
-      <c r="BI25" s="2"/>
-      <c r="BJ25" s="2"/>
-      <c r="BK25" s="2"/>
-      <c r="BL25" s="2"/>
-      <c r="BM25" s="2"/>
-      <c r="BN25" s="2"/>
-      <c r="BO25" s="2"/>
-      <c r="BP25" s="2"/>
-      <c r="BQ25" s="2"/>
-      <c r="BR25" s="2"/>
-      <c r="BS25" s="3"/>
-      <c r="BT25" s="3"/>
-      <c r="BU25" s="2"/>
-      <c r="BV25" s="2"/>
-      <c r="BW25" s="2"/>
-      <c r="BX25" s="2"/>
-      <c r="BY25" s="2"/>
-      <c r="BZ25" s="2"/>
-      <c r="CA25" s="2"/>
-      <c r="CB25" s="2"/>
-      <c r="CC25" s="2"/>
-      <c r="CD25" s="2"/>
-      <c r="CE25" s="2"/>
-      <c r="CF25" s="2"/>
-      <c r="CG25" s="2"/>
-      <c r="CH25" s="2"/>
-      <c r="CI25" s="2"/>
-      <c r="CJ25" s="2"/>
-      <c r="CK25" s="2"/>
-      <c r="CL25" s="2"/>
-      <c r="CM25" s="2"/>
-      <c r="CN25" s="2"/>
-      <c r="CO25" s="2"/>
-      <c r="CP25" s="2"/>
-      <c r="CQ25" s="2"/>
-      <c r="CR25" s="2"/>
-      <c r="CS25" s="2"/>
-      <c r="CT25" s="2"/>
-      <c r="CU25" s="2"/>
-      <c r="CV25" s="2"/>
-      <c r="CW25" s="2"/>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="5"/>
+      <c r="BD25" s="5"/>
+      <c r="BE25" s="5"/>
+      <c r="BF25" s="5"/>
+      <c r="BG25" s="5"/>
+      <c r="BH25" s="5"/>
+      <c r="BI25" s="5"/>
+      <c r="BJ25" s="5"/>
+      <c r="BK25" s="5"/>
+      <c r="BL25" s="5"/>
+      <c r="BM25" s="5"/>
+      <c r="BN25" s="5"/>
+      <c r="BO25" s="5"/>
+      <c r="BP25" s="5"/>
+      <c r="BQ25" s="5"/>
+      <c r="BR25" s="5"/>
+      <c r="BS25" s="5"/>
+      <c r="BT25" s="5"/>
+      <c r="BU25" s="5"/>
+      <c r="BV25" s="5"/>
+      <c r="BW25" s="5"/>
+      <c r="BX25" s="5"/>
+      <c r="BY25" s="12"/>
+      <c r="BZ25" s="5"/>
+      <c r="CA25" s="7"/>
+      <c r="CB25" s="5"/>
+      <c r="CC25" s="5"/>
+      <c r="CD25" s="5"/>
+      <c r="CE25" s="5"/>
+      <c r="CF25" s="5"/>
+      <c r="CG25" s="5"/>
+      <c r="CH25" s="5"/>
+      <c r="CI25" s="5"/>
+      <c r="CJ25" s="5"/>
+      <c r="CK25" s="5"/>
+      <c r="CL25" s="5"/>
+      <c r="CM25" s="5"/>
+      <c r="CN25" s="5"/>
+      <c r="CO25" s="5"/>
+      <c r="CP25" s="5"/>
+      <c r="CQ25" s="5"/>
+      <c r="CR25" s="5"/>
+      <c r="CS25" s="5"/>
+      <c r="CT25" s="5"/>
+      <c r="CU25" s="5"/>
+      <c r="CV25" s="5"/>
+      <c r="CW25" s="5"/>
       <c r="CX25" s="2"/>
     </row>
-    <row r="26" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3465,59 +3453,57 @@
       <c r="BA26" s="2">
         <v>25</v>
       </c>
-      <c r="BB26" s="3"/>
-      <c r="BC26" s="3"/>
-      <c r="BD26" s="3"/>
-      <c r="BE26" s="3"/>
-      <c r="BF26" s="3"/>
-      <c r="BG26" s="3"/>
-      <c r="BH26" s="3"/>
-      <c r="BI26" s="3"/>
-      <c r="BJ26" s="3"/>
-      <c r="BK26" s="3"/>
-      <c r="BL26" s="3"/>
-      <c r="BM26" s="3"/>
-      <c r="BN26" s="3"/>
-      <c r="BO26" s="3"/>
-      <c r="BP26" s="3"/>
-      <c r="BQ26" s="3"/>
-      <c r="BR26" s="3"/>
-      <c r="BS26" s="3"/>
-      <c r="BT26" s="3"/>
-      <c r="BU26" s="3"/>
-      <c r="BV26" s="3"/>
-      <c r="BW26" s="3"/>
-      <c r="BX26" s="3"/>
-      <c r="BY26" s="3"/>
-      <c r="BZ26" s="3"/>
-      <c r="CA26" s="3"/>
-      <c r="CB26" s="3"/>
-      <c r="CC26" s="3"/>
-      <c r="CD26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE26" s="3"/>
-      <c r="CF26" s="3"/>
-      <c r="CG26" s="3"/>
-      <c r="CH26" s="3"/>
-      <c r="CI26" s="3"/>
-      <c r="CJ26" s="3"/>
-      <c r="CK26" s="3"/>
-      <c r="CL26" s="3"/>
-      <c r="CM26" s="3"/>
-      <c r="CN26" s="3"/>
-      <c r="CO26" s="3"/>
-      <c r="CP26" s="3"/>
-      <c r="CQ26" s="3"/>
-      <c r="CR26" s="3"/>
-      <c r="CS26" s="3"/>
-      <c r="CT26" s="3"/>
-      <c r="CU26" s="3"/>
-      <c r="CV26" s="3"/>
-      <c r="CW26" s="3"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
+      <c r="BF26" s="5"/>
+      <c r="BG26" s="5"/>
+      <c r="BH26" s="5"/>
+      <c r="BI26" s="5"/>
+      <c r="BJ26" s="5"/>
+      <c r="BK26" s="5"/>
+      <c r="BL26" s="5"/>
+      <c r="BM26" s="5"/>
+      <c r="BN26" s="5"/>
+      <c r="BO26" s="5"/>
+      <c r="BP26" s="5"/>
+      <c r="BQ26" s="5"/>
+      <c r="BR26" s="5"/>
+      <c r="BS26" s="5"/>
+      <c r="BT26" s="5"/>
+      <c r="BU26" s="5"/>
+      <c r="BV26" s="5"/>
+      <c r="BW26" s="5"/>
+      <c r="BX26" s="5"/>
+      <c r="BY26" s="12"/>
+      <c r="BZ26" s="5"/>
+      <c r="CA26" s="7"/>
+      <c r="CB26" s="5"/>
+      <c r="CC26" s="5"/>
+      <c r="CD26" s="5"/>
+      <c r="CE26" s="5"/>
+      <c r="CF26" s="5"/>
+      <c r="CG26" s="5"/>
+      <c r="CH26" s="5"/>
+      <c r="CI26" s="5"/>
+      <c r="CJ26" s="5"/>
+      <c r="CK26" s="5"/>
+      <c r="CL26" s="5"/>
+      <c r="CM26" s="5"/>
+      <c r="CN26" s="5"/>
+      <c r="CO26" s="5"/>
+      <c r="CP26" s="5"/>
+      <c r="CQ26" s="5"/>
+      <c r="CR26" s="5"/>
+      <c r="CS26" s="5"/>
+      <c r="CT26" s="5"/>
+      <c r="CU26" s="5"/>
+      <c r="CV26" s="5"/>
+      <c r="CW26" s="5"/>
       <c r="CX26" s="2"/>
     </row>
-    <row r="27" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3575,59 +3561,57 @@
       <c r="BA27" s="2">
         <v>26</v>
       </c>
-      <c r="BB27" s="3"/>
-      <c r="BC27" s="3"/>
-      <c r="BD27" s="3"/>
-      <c r="BE27" s="3"/>
-      <c r="BF27" s="3"/>
-      <c r="BG27" s="3"/>
-      <c r="BH27" s="3"/>
-      <c r="BI27" s="3"/>
-      <c r="BJ27" s="3"/>
-      <c r="BK27" s="3"/>
-      <c r="BL27" s="3"/>
-      <c r="BM27" s="3"/>
-      <c r="BN27" s="3"/>
-      <c r="BO27" s="3"/>
-      <c r="BP27" s="3"/>
-      <c r="BQ27" s="3"/>
-      <c r="BR27" s="3"/>
-      <c r="BS27" s="3"/>
-      <c r="BT27" s="3"/>
-      <c r="BU27" s="3"/>
-      <c r="BV27" s="3"/>
-      <c r="BW27" s="3"/>
-      <c r="BX27" s="3"/>
-      <c r="BY27" s="3"/>
-      <c r="BZ27" s="3"/>
-      <c r="CA27" s="3"/>
-      <c r="CB27" s="3"/>
-      <c r="CC27" s="3"/>
-      <c r="CD27" s="3"/>
-      <c r="CE27" s="3"/>
-      <c r="CF27" s="3"/>
-      <c r="CG27" s="3"/>
-      <c r="CH27" s="3"/>
-      <c r="CI27" s="3"/>
-      <c r="CJ27" s="3"/>
-      <c r="CK27" s="3"/>
-      <c r="CL27" s="3"/>
-      <c r="CM27" s="3"/>
-      <c r="CN27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO27" s="3"/>
-      <c r="CP27" s="3"/>
-      <c r="CQ27" s="3"/>
-      <c r="CR27" s="3"/>
-      <c r="CS27" s="3"/>
-      <c r="CT27" s="3"/>
-      <c r="CU27" s="3"/>
-      <c r="CV27" s="3"/>
-      <c r="CW27" s="3"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
+      <c r="BF27" s="5"/>
+      <c r="BG27" s="5"/>
+      <c r="BH27" s="5"/>
+      <c r="BI27" s="5"/>
+      <c r="BJ27" s="5"/>
+      <c r="BK27" s="5"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
+      <c r="BN27" s="5"/>
+      <c r="BO27" s="5"/>
+      <c r="BP27" s="5"/>
+      <c r="BQ27" s="5"/>
+      <c r="BR27" s="5"/>
+      <c r="BS27" s="5"/>
+      <c r="BT27" s="5"/>
+      <c r="BU27" s="5"/>
+      <c r="BV27" s="5"/>
+      <c r="BW27" s="2"/>
+      <c r="BX27" s="2"/>
+      <c r="BY27" s="2"/>
+      <c r="BZ27" s="2"/>
+      <c r="CA27" s="2"/>
+      <c r="CB27" s="2"/>
+      <c r="CC27" s="2"/>
+      <c r="CD27" s="5"/>
+      <c r="CE27" s="5"/>
+      <c r="CF27" s="5"/>
+      <c r="CG27" s="5"/>
+      <c r="CH27" s="5"/>
+      <c r="CI27" s="5"/>
+      <c r="CJ27" s="5"/>
+      <c r="CK27" s="5"/>
+      <c r="CL27" s="5"/>
+      <c r="CM27" s="5"/>
+      <c r="CN27" s="5"/>
+      <c r="CO27" s="5"/>
+      <c r="CP27" s="5"/>
+      <c r="CQ27" s="5"/>
+      <c r="CR27" s="5"/>
+      <c r="CS27" s="5"/>
+      <c r="CT27" s="5"/>
+      <c r="CU27" s="5"/>
+      <c r="CV27" s="5"/>
+      <c r="CW27" s="5"/>
       <c r="CX27" s="2"/>
     </row>
-    <row r="28" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3683,57 +3667,57 @@
       <c r="BA28" s="2">
         <v>27</v>
       </c>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
-      <c r="BE28" s="2"/>
-      <c r="BF28" s="2"/>
-      <c r="BG28" s="2"/>
-      <c r="BH28" s="2"/>
-      <c r="BI28" s="3"/>
-      <c r="BJ28" s="3"/>
-      <c r="BK28" s="3"/>
-      <c r="BL28" s="3"/>
-      <c r="BM28" s="3"/>
-      <c r="BN28" s="3"/>
-      <c r="BO28" s="2"/>
-      <c r="BP28" s="2"/>
-      <c r="BQ28" s="2"/>
-      <c r="BR28" s="2"/>
-      <c r="BS28" s="2"/>
-      <c r="BT28" s="2"/>
-      <c r="BU28" s="2"/>
-      <c r="BV28" s="2"/>
-      <c r="BW28" s="2"/>
-      <c r="BX28" s="3"/>
-      <c r="BY28" s="3"/>
-      <c r="BZ28" s="3"/>
-      <c r="CA28" s="2"/>
-      <c r="CB28" s="3"/>
-      <c r="CC28" s="3"/>
-      <c r="CD28" s="3"/>
-      <c r="CE28" s="3"/>
-      <c r="CF28" s="3"/>
-      <c r="CG28" s="3"/>
-      <c r="CH28" s="3"/>
-      <c r="CI28" s="3"/>
-      <c r="CJ28" s="2"/>
-      <c r="CK28" s="2"/>
-      <c r="CL28" s="2"/>
-      <c r="CM28" s="2"/>
-      <c r="CN28" s="2"/>
-      <c r="CO28" s="2"/>
-      <c r="CP28" s="2"/>
-      <c r="CQ28" s="2"/>
-      <c r="CR28" s="2"/>
-      <c r="CS28" s="3"/>
-      <c r="CT28" s="3"/>
-      <c r="CU28" s="3"/>
-      <c r="CV28" s="3"/>
-      <c r="CW28" s="6"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
+      <c r="BK28" s="5"/>
+      <c r="BL28" s="5"/>
+      <c r="BM28" s="5"/>
+      <c r="BN28" s="5"/>
+      <c r="BO28" s="5"/>
+      <c r="BP28" s="5"/>
+      <c r="BQ28" s="5"/>
+      <c r="BR28" s="5"/>
+      <c r="BS28" s="5"/>
+      <c r="BT28" s="5"/>
+      <c r="BU28" s="5"/>
+      <c r="BV28" s="5"/>
+      <c r="BW28" s="5"/>
+      <c r="BX28" s="5"/>
+      <c r="BY28" s="5"/>
+      <c r="BZ28" s="5"/>
+      <c r="CA28" s="5"/>
+      <c r="CB28" s="5"/>
+      <c r="CC28" s="5"/>
+      <c r="CD28" s="5"/>
+      <c r="CE28" s="5"/>
+      <c r="CF28" s="5"/>
+      <c r="CG28" s="5"/>
+      <c r="CH28" s="5"/>
+      <c r="CI28" s="5"/>
+      <c r="CJ28" s="5"/>
+      <c r="CK28" s="5"/>
+      <c r="CL28" s="5"/>
+      <c r="CM28" s="5"/>
+      <c r="CN28" s="5"/>
+      <c r="CO28" s="5"/>
+      <c r="CP28" s="5"/>
+      <c r="CQ28" s="5"/>
+      <c r="CR28" s="5"/>
+      <c r="CS28" s="5"/>
+      <c r="CT28" s="5"/>
+      <c r="CU28" s="5"/>
+      <c r="CV28" s="5"/>
+      <c r="CW28" s="5"/>
       <c r="CX28" s="2"/>
     </row>
-    <row r="29" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3791,59 +3775,57 @@
       <c r="BA29" s="2">
         <v>28</v>
       </c>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="3"/>
-      <c r="BE29" s="2"/>
-      <c r="BF29" s="3"/>
-      <c r="BG29" s="3"/>
-      <c r="BH29" s="3"/>
-      <c r="BI29" s="3"/>
-      <c r="BJ29" s="3"/>
-      <c r="BK29" s="3"/>
-      <c r="BL29" s="3"/>
-      <c r="BM29" s="3"/>
-      <c r="BN29" s="3"/>
-      <c r="BO29" s="2"/>
-      <c r="BP29" s="2"/>
-      <c r="BQ29" s="3"/>
-      <c r="BR29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS29" s="3"/>
-      <c r="BT29" s="3"/>
-      <c r="BU29" s="3"/>
-      <c r="BV29" s="3"/>
-      <c r="BW29" s="2"/>
-      <c r="BX29" s="3"/>
-      <c r="BY29" s="3"/>
-      <c r="BZ29" s="3"/>
-      <c r="CA29" s="3"/>
-      <c r="CB29" s="3"/>
-      <c r="CC29" s="3"/>
-      <c r="CD29" s="3"/>
-      <c r="CE29" s="3"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
+      <c r="BK29" s="5"/>
+      <c r="BL29" s="5"/>
+      <c r="BM29" s="5"/>
+      <c r="BN29" s="5"/>
+      <c r="BO29" s="5"/>
+      <c r="BP29" s="5"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="5"/>
+      <c r="BV29" s="5"/>
+      <c r="BW29" s="5"/>
+      <c r="BX29" s="5"/>
+      <c r="BY29" s="5"/>
+      <c r="BZ29" s="5"/>
+      <c r="CA29" s="5"/>
+      <c r="CB29" s="5"/>
+      <c r="CC29" s="5"/>
+      <c r="CD29" s="5"/>
+      <c r="CE29" s="5"/>
       <c r="CF29" s="2"/>
-      <c r="CG29" s="3"/>
-      <c r="CH29" s="3"/>
-      <c r="CI29" s="3"/>
-      <c r="CJ29" s="2"/>
-      <c r="CK29" s="3"/>
-      <c r="CL29" s="3"/>
-      <c r="CM29" s="3"/>
-      <c r="CN29" s="3"/>
-      <c r="CO29" s="3"/>
-      <c r="CP29" s="3"/>
-      <c r="CQ29" s="3"/>
-      <c r="CR29" s="3"/>
-      <c r="CS29" s="3"/>
-      <c r="CT29" s="3"/>
-      <c r="CU29" s="3"/>
-      <c r="CV29" s="2"/>
-      <c r="CW29" s="2"/>
+      <c r="CG29" s="2"/>
+      <c r="CH29" s="2"/>
+      <c r="CI29" s="2"/>
+      <c r="CJ29" s="5"/>
+      <c r="CK29" s="5"/>
+      <c r="CL29" s="5"/>
+      <c r="CM29" s="5"/>
+      <c r="CN29" s="5"/>
+      <c r="CO29" s="5"/>
+      <c r="CP29" s="5"/>
+      <c r="CQ29" s="5"/>
+      <c r="CR29" s="5"/>
+      <c r="CS29" s="5"/>
+      <c r="CT29" s="5"/>
+      <c r="CU29" s="5"/>
+      <c r="CV29" s="5"/>
+      <c r="CW29" s="5"/>
       <c r="CX29" s="2"/>
     </row>
-    <row r="30" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3899,57 +3881,57 @@
       <c r="BA30" s="2">
         <v>29</v>
       </c>
-      <c r="BB30" s="3"/>
-      <c r="BC30" s="3"/>
-      <c r="BD30" s="6"/>
-      <c r="BE30" s="2"/>
-      <c r="BF30" s="3"/>
-      <c r="BG30" s="3"/>
-      <c r="BH30" s="3"/>
-      <c r="BI30" s="3"/>
-      <c r="BJ30" s="3"/>
-      <c r="BK30" s="3"/>
-      <c r="BL30" s="3"/>
-      <c r="BM30" s="3"/>
-      <c r="BN30" s="3"/>
-      <c r="BO30" s="2"/>
-      <c r="BP30" s="2"/>
-      <c r="BQ30" s="3"/>
-      <c r="BR30" s="3"/>
-      <c r="BS30" s="3"/>
-      <c r="BT30" s="3"/>
-      <c r="BU30" s="4"/>
-      <c r="BV30" s="3"/>
-      <c r="BW30" s="2"/>
-      <c r="BX30" s="3"/>
-      <c r="BY30" s="3"/>
-      <c r="BZ30" s="3"/>
-      <c r="CA30" s="3"/>
-      <c r="CB30" s="3"/>
-      <c r="CC30" s="3"/>
-      <c r="CD30" s="3"/>
-      <c r="CE30" s="3"/>
-      <c r="CF30" s="3"/>
-      <c r="CG30" s="3"/>
-      <c r="CH30" s="3"/>
-      <c r="CI30" s="3"/>
-      <c r="CJ30" s="2"/>
-      <c r="CK30" s="3"/>
-      <c r="CL30" s="3"/>
-      <c r="CM30" s="3"/>
-      <c r="CN30" s="3"/>
-      <c r="CO30" s="3"/>
-      <c r="CP30" s="3"/>
-      <c r="CQ30" s="3"/>
-      <c r="CR30" s="3"/>
-      <c r="CS30" s="3"/>
-      <c r="CT30" s="3"/>
-      <c r="CU30" s="3"/>
-      <c r="CV30" s="2"/>
-      <c r="CW30" s="2"/>
+      <c r="BB30" s="5"/>
+      <c r="BC30" s="5"/>
+      <c r="BD30" s="5"/>
+      <c r="BE30" s="5"/>
+      <c r="BF30" s="5"/>
+      <c r="BG30" s="5"/>
+      <c r="BH30" s="5"/>
+      <c r="BI30" s="5"/>
+      <c r="BJ30" s="5"/>
+      <c r="BK30" s="5"/>
+      <c r="BL30" s="5"/>
+      <c r="BM30" s="5"/>
+      <c r="BN30" s="5"/>
+      <c r="BO30" s="5"/>
+      <c r="BP30" s="5"/>
+      <c r="BQ30" s="5"/>
+      <c r="BR30" s="5"/>
+      <c r="BS30" s="5"/>
+      <c r="BT30" s="5"/>
+      <c r="BU30" s="5"/>
+      <c r="BV30" s="5"/>
+      <c r="BW30" s="5"/>
+      <c r="BX30" s="5"/>
+      <c r="BY30" s="5"/>
+      <c r="BZ30" s="5"/>
+      <c r="CA30" s="5"/>
+      <c r="CB30" s="5"/>
+      <c r="CC30" s="5"/>
+      <c r="CD30" s="5"/>
+      <c r="CE30" s="5"/>
+      <c r="CF30" s="5"/>
+      <c r="CG30" s="5"/>
+      <c r="CH30" s="5"/>
+      <c r="CI30" s="5"/>
+      <c r="CJ30" s="5"/>
+      <c r="CK30" s="5"/>
+      <c r="CL30" s="5"/>
+      <c r="CM30" s="5"/>
+      <c r="CN30" s="5"/>
+      <c r="CO30" s="5"/>
+      <c r="CP30" s="5"/>
+      <c r="CQ30" s="5"/>
+      <c r="CR30" s="5"/>
+      <c r="CS30" s="5"/>
+      <c r="CT30" s="5"/>
+      <c r="CU30" s="5"/>
+      <c r="CV30" s="5"/>
+      <c r="CW30" s="5"/>
       <c r="CX30" s="2"/>
     </row>
-    <row r="31" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4007,59 +3989,57 @@
       <c r="BA31" s="2">
         <v>30</v>
       </c>
-      <c r="BB31" s="3"/>
-      <c r="BC31" s="3"/>
-      <c r="BD31" s="2"/>
-      <c r="BE31" s="2"/>
-      <c r="BF31" s="3"/>
-      <c r="BG31" s="3"/>
-      <c r="BH31" s="3"/>
-      <c r="BI31" s="3"/>
-      <c r="BJ31" s="3"/>
-      <c r="BK31" s="3"/>
-      <c r="BL31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM31" s="3"/>
-      <c r="BN31" s="3"/>
-      <c r="BO31" s="2"/>
-      <c r="BP31" s="2"/>
-      <c r="BQ31" s="3"/>
-      <c r="BR31" s="3"/>
-      <c r="BS31" s="2"/>
-      <c r="BT31" s="2"/>
-      <c r="BU31" s="4"/>
-      <c r="BV31" s="3"/>
-      <c r="BW31" s="2"/>
-      <c r="BX31" s="8"/>
-      <c r="BY31" s="8"/>
-      <c r="BZ31" s="8"/>
-      <c r="CA31" s="8"/>
-      <c r="CB31" s="8"/>
-      <c r="CC31" s="8"/>
-      <c r="CD31" s="8"/>
-      <c r="CE31" s="8"/>
-      <c r="CF31" s="8"/>
-      <c r="CG31" s="8"/>
-      <c r="CH31" s="8"/>
-      <c r="CI31" s="8"/>
-      <c r="CJ31" s="2"/>
-      <c r="CK31" s="3"/>
-      <c r="CL31" s="3"/>
-      <c r="CM31" s="3"/>
-      <c r="CN31" s="2"/>
-      <c r="CO31" s="2"/>
-      <c r="CP31" s="2"/>
-      <c r="CQ31" s="2"/>
-      <c r="CR31" s="2"/>
-      <c r="CS31" s="2"/>
-      <c r="CT31" s="2"/>
-      <c r="CU31" s="2"/>
-      <c r="CV31" s="2"/>
-      <c r="CW31" s="2"/>
+      <c r="BB31" s="5"/>
+      <c r="BC31" s="5"/>
+      <c r="BD31" s="5"/>
+      <c r="BE31" s="5"/>
+      <c r="BF31" s="5"/>
+      <c r="BG31" s="5"/>
+      <c r="BH31" s="5"/>
+      <c r="BI31" s="5"/>
+      <c r="BJ31" s="5"/>
+      <c r="BK31" s="5"/>
+      <c r="BL31" s="5"/>
+      <c r="BM31" s="5"/>
+      <c r="BN31" s="5"/>
+      <c r="BO31" s="5"/>
+      <c r="BP31" s="5"/>
+      <c r="BQ31" s="5"/>
+      <c r="BR31" s="5"/>
+      <c r="BS31" s="5"/>
+      <c r="BT31" s="5"/>
+      <c r="BU31" s="5"/>
+      <c r="BV31" s="5"/>
+      <c r="BW31" s="5"/>
+      <c r="BX31" s="5"/>
+      <c r="BY31" s="5"/>
+      <c r="BZ31" s="5"/>
+      <c r="CA31" s="5"/>
+      <c r="CB31" s="5"/>
+      <c r="CC31" s="5"/>
+      <c r="CD31" s="5"/>
+      <c r="CE31" s="5"/>
+      <c r="CF31" s="5"/>
+      <c r="CG31" s="5"/>
+      <c r="CH31" s="5"/>
+      <c r="CI31" s="5"/>
+      <c r="CJ31" s="5"/>
+      <c r="CK31" s="5"/>
+      <c r="CL31" s="5"/>
+      <c r="CM31" s="5"/>
+      <c r="CN31" s="5"/>
+      <c r="CO31" s="5"/>
+      <c r="CP31" s="5"/>
+      <c r="CQ31" s="5"/>
+      <c r="CR31" s="5"/>
+      <c r="CS31" s="5"/>
+      <c r="CT31" s="5"/>
+      <c r="CU31" s="5"/>
+      <c r="CV31" s="5"/>
+      <c r="CW31" s="5"/>
       <c r="CX31" s="2"/>
     </row>
-    <row r="32" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4115,57 +4095,57 @@
       <c r="BA32" s="2">
         <v>31</v>
       </c>
-      <c r="BB32" s="3"/>
-      <c r="BC32" s="3"/>
-      <c r="BD32" s="3"/>
-      <c r="BE32" s="2"/>
-      <c r="BF32" s="3"/>
-      <c r="BG32" s="3"/>
-      <c r="BH32" s="2"/>
-      <c r="BI32" s="2"/>
-      <c r="BJ32" s="2"/>
-      <c r="BK32" s="2"/>
-      <c r="BL32" s="2"/>
-      <c r="BM32" s="2"/>
-      <c r="BN32" s="2"/>
-      <c r="BO32" s="2"/>
-      <c r="BP32" s="2"/>
-      <c r="BQ32" s="3"/>
-      <c r="BR32" s="3"/>
-      <c r="BS32" s="2"/>
-      <c r="BT32" s="2"/>
-      <c r="BU32" s="4"/>
-      <c r="BV32" s="3"/>
-      <c r="BW32" s="2"/>
-      <c r="BX32" s="2"/>
-      <c r="BY32" s="2"/>
-      <c r="BZ32" s="2"/>
-      <c r="CA32" s="2"/>
-      <c r="CB32" s="2"/>
-      <c r="CC32" s="2"/>
-      <c r="CD32" s="2"/>
-      <c r="CE32" s="2"/>
-      <c r="CF32" s="2"/>
-      <c r="CG32" s="2"/>
-      <c r="CH32" s="2"/>
-      <c r="CI32" s="2"/>
-      <c r="CJ32" s="2"/>
-      <c r="CK32" s="3"/>
-      <c r="CL32" s="3"/>
-      <c r="CM32" s="3"/>
-      <c r="CN32" s="2"/>
-      <c r="CO32" s="2"/>
-      <c r="CP32" s="2"/>
-      <c r="CQ32" s="2"/>
-      <c r="CR32" s="2"/>
-      <c r="CS32" s="2"/>
-      <c r="CT32" s="2"/>
-      <c r="CU32" s="2"/>
-      <c r="CV32" s="2"/>
-      <c r="CW32" s="2"/>
+      <c r="BB32" s="5"/>
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
+      <c r="BF32" s="5"/>
+      <c r="BG32" s="5"/>
+      <c r="BH32" s="5"/>
+      <c r="BI32" s="5"/>
+      <c r="BJ32" s="5"/>
+      <c r="BK32" s="5"/>
+      <c r="BL32" s="5"/>
+      <c r="BM32" s="5"/>
+      <c r="BN32" s="5"/>
+      <c r="BO32" s="5"/>
+      <c r="BP32" s="5"/>
+      <c r="BQ32" s="5"/>
+      <c r="BR32" s="5"/>
+      <c r="BS32" s="5"/>
+      <c r="BT32" s="5"/>
+      <c r="BU32" s="5"/>
+      <c r="BV32" s="5"/>
+      <c r="BW32" s="5"/>
+      <c r="BX32" s="5"/>
+      <c r="BY32" s="5"/>
+      <c r="BZ32" s="5"/>
+      <c r="CA32" s="5"/>
+      <c r="CB32" s="5"/>
+      <c r="CC32" s="5"/>
+      <c r="CD32" s="5"/>
+      <c r="CE32" s="5"/>
+      <c r="CF32" s="5"/>
+      <c r="CG32" s="5"/>
+      <c r="CH32" s="5"/>
+      <c r="CI32" s="5"/>
+      <c r="CJ32" s="5"/>
+      <c r="CK32" s="5"/>
+      <c r="CL32" s="5"/>
+      <c r="CM32" s="5"/>
+      <c r="CN32" s="5"/>
+      <c r="CO32" s="5"/>
+      <c r="CP32" s="5"/>
+      <c r="CQ32" s="5"/>
+      <c r="CR32" s="5"/>
+      <c r="CS32" s="5"/>
+      <c r="CT32" s="5"/>
+      <c r="CU32" s="5"/>
+      <c r="CV32" s="5"/>
+      <c r="CW32" s="5"/>
       <c r="CX32" s="2"/>
     </row>
-    <row r="33" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4223,59 +4203,57 @@
       <c r="BA33" s="2">
         <v>32</v>
       </c>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="2"/>
-      <c r="BF33" s="3"/>
-      <c r="BG33" s="3"/>
-      <c r="BH33" s="2"/>
-      <c r="BI33" s="3"/>
-      <c r="BJ33" s="3"/>
-      <c r="BK33" s="3"/>
-      <c r="BL33" s="3"/>
-      <c r="BM33" s="3"/>
-      <c r="BN33" s="3"/>
-      <c r="BO33" s="2"/>
-      <c r="BP33" s="2"/>
-      <c r="BQ33" s="3"/>
-      <c r="BR33" s="3"/>
-      <c r="BS33" s="2"/>
-      <c r="BT33" s="2"/>
-      <c r="BU33" s="4"/>
-      <c r="BV33" s="3"/>
-      <c r="BW33" s="3"/>
-      <c r="BX33" s="3"/>
-      <c r="BY33" s="3"/>
-      <c r="BZ33" s="3"/>
-      <c r="CA33" s="3"/>
-      <c r="CB33" s="3"/>
-      <c r="CC33" s="3"/>
-      <c r="CD33" s="3"/>
-      <c r="CE33" s="3"/>
-      <c r="CF33" s="3"/>
-      <c r="CG33" s="3"/>
-      <c r="CH33" s="3"/>
-      <c r="CI33" s="3"/>
-      <c r="CJ33" s="3"/>
-      <c r="CK33" s="3"/>
-      <c r="CL33" s="3"/>
-      <c r="CM33" s="3"/>
-      <c r="CN33" s="2"/>
-      <c r="CO33" s="2"/>
-      <c r="CP33" s="2"/>
-      <c r="CQ33" s="3"/>
-      <c r="CR33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS33" s="3"/>
-      <c r="CT33" s="3"/>
-      <c r="CU33" s="3"/>
-      <c r="CV33" s="3"/>
-      <c r="CW33" s="3"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
+      <c r="BK33" s="5"/>
+      <c r="BL33" s="5"/>
+      <c r="BM33" s="5"/>
+      <c r="BN33" s="5"/>
+      <c r="BO33" s="5"/>
+      <c r="BP33" s="5"/>
+      <c r="BQ33" s="5"/>
+      <c r="BR33" s="5"/>
+      <c r="BS33" s="5"/>
+      <c r="BT33" s="5"/>
+      <c r="BU33" s="5"/>
+      <c r="BV33" s="5"/>
+      <c r="BW33" s="5"/>
+      <c r="BX33" s="5"/>
+      <c r="BY33" s="5"/>
+      <c r="BZ33" s="5"/>
+      <c r="CA33" s="5"/>
+      <c r="CB33" s="5"/>
+      <c r="CC33" s="5"/>
+      <c r="CD33" s="5"/>
+      <c r="CE33" s="5"/>
+      <c r="CF33" s="5"/>
+      <c r="CG33" s="5"/>
+      <c r="CH33" s="5"/>
+      <c r="CI33" s="5"/>
+      <c r="CJ33" s="5"/>
+      <c r="CK33" s="5"/>
+      <c r="CL33" s="5"/>
+      <c r="CM33" s="5"/>
+      <c r="CN33" s="5"/>
+      <c r="CO33" s="5"/>
+      <c r="CP33" s="5"/>
+      <c r="CQ33" s="5"/>
+      <c r="CR33" s="5"/>
+      <c r="CS33" s="5"/>
+      <c r="CT33" s="5"/>
+      <c r="CU33" s="5"/>
+      <c r="CV33" s="5"/>
+      <c r="CW33" s="5"/>
       <c r="CX33" s="2"/>
     </row>
-    <row r="34" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4331,57 +4309,57 @@
       <c r="BA34" s="2">
         <v>33</v>
       </c>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BE34" s="2"/>
-      <c r="BF34" s="3"/>
-      <c r="BG34" s="3"/>
-      <c r="BH34" s="2"/>
-      <c r="BI34" s="3"/>
-      <c r="BJ34" s="4"/>
-      <c r="BK34" s="3"/>
-      <c r="BL34" s="3"/>
-      <c r="BM34" s="3"/>
-      <c r="BN34" s="3"/>
-      <c r="BO34" s="2"/>
-      <c r="BP34" s="2"/>
-      <c r="BQ34" s="3"/>
-      <c r="BR34" s="3"/>
-      <c r="BS34" s="2"/>
-      <c r="BT34" s="2"/>
-      <c r="BU34" s="4"/>
-      <c r="BV34" s="3"/>
-      <c r="BW34" s="3"/>
-      <c r="BX34" s="3"/>
-      <c r="BY34" s="3"/>
-      <c r="BZ34" s="3"/>
-      <c r="CA34" s="3"/>
-      <c r="CB34" s="3"/>
-      <c r="CC34" s="3"/>
-      <c r="CD34" s="3"/>
-      <c r="CE34" s="3"/>
-      <c r="CF34" s="3"/>
-      <c r="CG34" s="3"/>
-      <c r="CH34" s="3"/>
-      <c r="CI34" s="3"/>
-      <c r="CJ34" s="3"/>
-      <c r="CK34" s="3"/>
-      <c r="CL34" s="3"/>
-      <c r="CM34" s="3"/>
-      <c r="CN34" s="2"/>
-      <c r="CO34" s="2"/>
-      <c r="CP34" s="2"/>
-      <c r="CQ34" s="3"/>
-      <c r="CR34" s="3"/>
-      <c r="CS34" s="3"/>
-      <c r="CT34" s="3"/>
-      <c r="CU34" s="3"/>
-      <c r="CV34" s="3"/>
-      <c r="CW34" s="6"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
+      <c r="BK34" s="5"/>
+      <c r="BL34" s="5"/>
+      <c r="BM34" s="5"/>
+      <c r="BN34" s="5"/>
+      <c r="BO34" s="5"/>
+      <c r="BP34" s="5"/>
+      <c r="BQ34" s="5"/>
+      <c r="BR34" s="5"/>
+      <c r="BS34" s="5"/>
+      <c r="BT34" s="5"/>
+      <c r="BU34" s="5"/>
+      <c r="BV34" s="5"/>
+      <c r="BW34" s="5"/>
+      <c r="BX34" s="5"/>
+      <c r="BY34" s="5"/>
+      <c r="BZ34" s="5"/>
+      <c r="CA34" s="5"/>
+      <c r="CB34" s="5"/>
+      <c r="CC34" s="5"/>
+      <c r="CD34" s="5"/>
+      <c r="CE34" s="5"/>
+      <c r="CF34" s="5"/>
+      <c r="CG34" s="5"/>
+      <c r="CH34" s="5"/>
+      <c r="CI34" s="5"/>
+      <c r="CJ34" s="5"/>
+      <c r="CK34" s="5"/>
+      <c r="CL34" s="5"/>
+      <c r="CM34" s="5"/>
+      <c r="CN34" s="5"/>
+      <c r="CO34" s="5"/>
+      <c r="CP34" s="5"/>
+      <c r="CQ34" s="5"/>
+      <c r="CR34" s="5"/>
+      <c r="CS34" s="5"/>
+      <c r="CT34" s="5"/>
+      <c r="CU34" s="5"/>
+      <c r="CV34" s="5"/>
+      <c r="CW34" s="5"/>
       <c r="CX34" s="2"/>
     </row>
-    <row r="35" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4437,57 +4415,57 @@
       <c r="BA35" s="2">
         <v>34</v>
       </c>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
-      <c r="BD35" s="2"/>
-      <c r="BE35" s="2"/>
-      <c r="BF35" s="3"/>
-      <c r="BG35" s="3"/>
-      <c r="BH35" s="2"/>
-      <c r="BI35" s="3"/>
-      <c r="BJ35" s="4"/>
-      <c r="BK35" s="2"/>
-      <c r="BL35" s="2"/>
-      <c r="BM35" s="3"/>
-      <c r="BN35" s="3"/>
-      <c r="BO35" s="2"/>
-      <c r="BP35" s="2"/>
-      <c r="BQ35" s="3"/>
-      <c r="BR35" s="3"/>
-      <c r="BS35" s="2"/>
-      <c r="BT35" s="2"/>
-      <c r="BU35" s="4"/>
-      <c r="BV35" s="3"/>
-      <c r="BW35" s="3"/>
-      <c r="BX35" s="3"/>
-      <c r="BY35" s="3"/>
-      <c r="BZ35" s="3"/>
-      <c r="CA35" s="3"/>
-      <c r="CB35" s="3"/>
-      <c r="CC35" s="3"/>
-      <c r="CD35" s="3"/>
-      <c r="CE35" s="3"/>
-      <c r="CF35" s="3"/>
-      <c r="CG35" s="3"/>
-      <c r="CH35" s="3"/>
-      <c r="CI35" s="3"/>
-      <c r="CJ35" s="3"/>
-      <c r="CK35" s="3"/>
-      <c r="CL35" s="3"/>
-      <c r="CM35" s="3"/>
-      <c r="CN35" s="2"/>
-      <c r="CO35" s="2"/>
-      <c r="CP35" s="2"/>
-      <c r="CQ35" s="3"/>
-      <c r="CR35" s="3"/>
-      <c r="CS35" s="3"/>
-      <c r="CT35" s="3"/>
-      <c r="CU35" s="2"/>
-      <c r="CV35" s="2"/>
-      <c r="CW35" s="2"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="5"/>
+      <c r="BJ35" s="5"/>
+      <c r="BK35" s="5"/>
+      <c r="BL35" s="5"/>
+      <c r="BM35" s="5"/>
+      <c r="BN35" s="5"/>
+      <c r="BO35" s="5"/>
+      <c r="BP35" s="5"/>
+      <c r="BQ35" s="5"/>
+      <c r="BR35" s="5"/>
+      <c r="BS35" s="5"/>
+      <c r="BT35" s="5"/>
+      <c r="BU35" s="5"/>
+      <c r="BV35" s="5"/>
+      <c r="BW35" s="5"/>
+      <c r="BX35" s="5"/>
+      <c r="BY35" s="5"/>
+      <c r="BZ35" s="5"/>
+      <c r="CA35" s="5"/>
+      <c r="CB35" s="5"/>
+      <c r="CC35" s="5"/>
+      <c r="CD35" s="5"/>
+      <c r="CE35" s="5"/>
+      <c r="CF35" s="5"/>
+      <c r="CG35" s="5"/>
+      <c r="CH35" s="5"/>
+      <c r="CI35" s="5"/>
+      <c r="CJ35" s="5"/>
+      <c r="CK35" s="5"/>
+      <c r="CL35" s="5"/>
+      <c r="CM35" s="5"/>
+      <c r="CN35" s="5"/>
+      <c r="CO35" s="5"/>
+      <c r="CP35" s="5"/>
+      <c r="CQ35" s="5"/>
+      <c r="CR35" s="5"/>
+      <c r="CS35" s="5"/>
+      <c r="CT35" s="5"/>
+      <c r="CU35" s="5"/>
+      <c r="CV35" s="5"/>
+      <c r="CW35" s="5"/>
       <c r="CX35" s="2"/>
     </row>
-    <row r="36" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4543,57 +4521,57 @@
       <c r="BA36" s="2">
         <v>35</v>
       </c>
-      <c r="BB36" s="3"/>
-      <c r="BC36" s="3"/>
-      <c r="BD36" s="3"/>
-      <c r="BE36" s="2"/>
-      <c r="BF36" s="3"/>
-      <c r="BG36" s="3"/>
-      <c r="BH36" s="2"/>
-      <c r="BI36" s="3"/>
-      <c r="BJ36" s="4"/>
-      <c r="BK36" s="2"/>
-      <c r="BL36" s="2"/>
-      <c r="BM36" s="3"/>
-      <c r="BN36" s="3"/>
-      <c r="BO36" s="2"/>
-      <c r="BP36" s="2"/>
-      <c r="BQ36" s="3"/>
-      <c r="BR36" s="3"/>
-      <c r="BS36" s="2"/>
-      <c r="BT36" s="2"/>
-      <c r="BU36" s="2"/>
-      <c r="BV36" s="2"/>
-      <c r="BW36" s="2"/>
-      <c r="BX36" s="2"/>
-      <c r="BY36" s="2"/>
-      <c r="BZ36" s="2"/>
-      <c r="CA36" s="2"/>
-      <c r="CB36" s="2"/>
-      <c r="CC36" s="2"/>
-      <c r="CD36" s="2"/>
-      <c r="CE36" s="2"/>
-      <c r="CF36" s="2"/>
-      <c r="CG36" s="2"/>
-      <c r="CH36" s="2"/>
-      <c r="CI36" s="2"/>
-      <c r="CJ36" s="2"/>
-      <c r="CK36" s="2"/>
-      <c r="CL36" s="2"/>
-      <c r="CM36" s="2"/>
-      <c r="CN36" s="2"/>
-      <c r="CO36" s="2"/>
-      <c r="CP36" s="2"/>
-      <c r="CQ36" s="3"/>
-      <c r="CR36" s="3"/>
-      <c r="CS36" s="3"/>
-      <c r="CT36" s="3"/>
-      <c r="CU36" s="3"/>
-      <c r="CV36" s="3"/>
-      <c r="CW36" s="3"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="5"/>
+      <c r="BI36" s="5"/>
+      <c r="BJ36" s="5"/>
+      <c r="BK36" s="5"/>
+      <c r="BL36" s="5"/>
+      <c r="BM36" s="5"/>
+      <c r="BN36" s="5"/>
+      <c r="BO36" s="5"/>
+      <c r="BP36" s="5"/>
+      <c r="BQ36" s="5"/>
+      <c r="BR36" s="5"/>
+      <c r="BS36" s="5"/>
+      <c r="BT36" s="5"/>
+      <c r="BU36" s="5"/>
+      <c r="BV36" s="5"/>
+      <c r="BW36" s="5"/>
+      <c r="BX36" s="5"/>
+      <c r="BY36" s="5"/>
+      <c r="BZ36" s="5"/>
+      <c r="CA36" s="5"/>
+      <c r="CB36" s="5"/>
+      <c r="CC36" s="5"/>
+      <c r="CD36" s="5"/>
+      <c r="CE36" s="5"/>
+      <c r="CF36" s="5"/>
+      <c r="CG36" s="5"/>
+      <c r="CH36" s="5"/>
+      <c r="CI36" s="5"/>
+      <c r="CJ36" s="5"/>
+      <c r="CK36" s="5"/>
+      <c r="CL36" s="5"/>
+      <c r="CM36" s="5"/>
+      <c r="CN36" s="5"/>
+      <c r="CO36" s="5"/>
+      <c r="CP36" s="5"/>
+      <c r="CQ36" s="5"/>
+      <c r="CR36" s="5"/>
+      <c r="CS36" s="5"/>
+      <c r="CT36" s="5"/>
+      <c r="CU36" s="5"/>
+      <c r="CV36" s="5"/>
+      <c r="CW36" s="5"/>
       <c r="CX36" s="2"/>
     </row>
-    <row r="37" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4649,57 +4627,57 @@
       <c r="BA37" s="2">
         <v>36</v>
       </c>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="3"/>
-      <c r="BD37" s="3"/>
-      <c r="BE37" s="2"/>
-      <c r="BF37" s="3"/>
-      <c r="BG37" s="3"/>
-      <c r="BH37" s="2"/>
-      <c r="BI37" s="3"/>
-      <c r="BJ37" s="4"/>
-      <c r="BK37" s="2"/>
-      <c r="BL37" s="2"/>
-      <c r="BM37" s="3"/>
-      <c r="BN37" s="3"/>
-      <c r="BO37" s="2"/>
-      <c r="BP37" s="2"/>
-      <c r="BQ37" s="3"/>
-      <c r="BR37" s="3"/>
-      <c r="BS37" s="2"/>
-      <c r="BT37" s="2"/>
-      <c r="BU37" s="2"/>
-      <c r="BV37" s="3"/>
-      <c r="BW37" s="3"/>
-      <c r="BX37" s="3"/>
-      <c r="BY37" s="3"/>
-      <c r="BZ37" s="3"/>
-      <c r="CA37" s="3"/>
-      <c r="CB37" s="2"/>
-      <c r="CC37" s="2"/>
-      <c r="CD37" s="2"/>
-      <c r="CE37" s="2"/>
-      <c r="CF37" s="3"/>
-      <c r="CG37" s="3"/>
-      <c r="CH37" s="3"/>
-      <c r="CI37" s="3"/>
-      <c r="CJ37" s="3"/>
-      <c r="CK37" s="3"/>
-      <c r="CL37" s="3"/>
-      <c r="CM37" s="3"/>
-      <c r="CN37" s="3"/>
-      <c r="CO37" s="3"/>
-      <c r="CP37" s="3"/>
-      <c r="CQ37" s="3"/>
-      <c r="CR37" s="3"/>
-      <c r="CS37" s="3"/>
-      <c r="CT37" s="3"/>
-      <c r="CU37" s="3"/>
-      <c r="CV37" s="3"/>
-      <c r="CW37" s="3"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
+      <c r="BF37" s="5"/>
+      <c r="BG37" s="5"/>
+      <c r="BH37" s="5"/>
+      <c r="BI37" s="5"/>
+      <c r="BJ37" s="5"/>
+      <c r="BK37" s="5"/>
+      <c r="BL37" s="5"/>
+      <c r="BM37" s="5"/>
+      <c r="BN37" s="5"/>
+      <c r="BO37" s="5"/>
+      <c r="BP37" s="5"/>
+      <c r="BQ37" s="5"/>
+      <c r="BR37" s="5"/>
+      <c r="BS37" s="5"/>
+      <c r="BT37" s="5"/>
+      <c r="BU37" s="5"/>
+      <c r="BV37" s="5"/>
+      <c r="BW37" s="5"/>
+      <c r="BX37" s="5"/>
+      <c r="BY37" s="5"/>
+      <c r="BZ37" s="5"/>
+      <c r="CA37" s="5"/>
+      <c r="CB37" s="5"/>
+      <c r="CC37" s="5"/>
+      <c r="CD37" s="5"/>
+      <c r="CE37" s="5"/>
+      <c r="CF37" s="5"/>
+      <c r="CG37" s="5"/>
+      <c r="CH37" s="5"/>
+      <c r="CI37" s="5"/>
+      <c r="CJ37" s="5"/>
+      <c r="CK37" s="5"/>
+      <c r="CL37" s="5"/>
+      <c r="CM37" s="5"/>
+      <c r="CN37" s="5"/>
+      <c r="CO37" s="5"/>
+      <c r="CP37" s="5"/>
+      <c r="CQ37" s="5"/>
+      <c r="CR37" s="5"/>
+      <c r="CS37" s="5"/>
+      <c r="CT37" s="5"/>
+      <c r="CU37" s="5"/>
+      <c r="CV37" s="5"/>
+      <c r="CW37" s="5"/>
       <c r="CX37" s="2"/>
     </row>
-    <row r="38" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4756,56 +4734,56 @@
         <v>37</v>
       </c>
       <c r="BB38" s="5"/>
-      <c r="BC38" s="3"/>
-      <c r="BD38" s="3"/>
-      <c r="BE38" s="3"/>
-      <c r="BF38" s="3"/>
-      <c r="BG38" s="3"/>
-      <c r="BH38" s="2"/>
-      <c r="BI38" s="3"/>
-      <c r="BJ38" s="4"/>
-      <c r="BK38" s="2"/>
-      <c r="BL38" s="2"/>
-      <c r="BM38" s="3"/>
-      <c r="BN38" s="3"/>
-      <c r="BO38" s="2"/>
-      <c r="BP38" s="2"/>
-      <c r="BQ38" s="3"/>
-      <c r="BR38" s="3"/>
-      <c r="BS38" s="2"/>
-      <c r="BT38" s="2"/>
-      <c r="BU38" s="2"/>
-      <c r="BV38" s="3"/>
-      <c r="BW38" s="4"/>
-      <c r="BX38" s="3"/>
-      <c r="BY38" s="3"/>
-      <c r="BZ38" s="3"/>
-      <c r="CA38" s="3"/>
-      <c r="CB38" s="2"/>
-      <c r="CC38" s="2"/>
-      <c r="CD38" s="2"/>
-      <c r="CE38" s="2"/>
-      <c r="CF38" s="3"/>
-      <c r="CG38" s="3"/>
-      <c r="CH38" s="3"/>
-      <c r="CI38" s="3"/>
-      <c r="CJ38" s="3"/>
-      <c r="CK38" s="3"/>
-      <c r="CL38" s="3"/>
-      <c r="CM38" s="3"/>
-      <c r="CN38" s="3"/>
-      <c r="CO38" s="3"/>
-      <c r="CP38" s="3"/>
-      <c r="CQ38" s="3"/>
-      <c r="CR38" s="3"/>
-      <c r="CS38" s="3"/>
-      <c r="CT38" s="3"/>
-      <c r="CU38" s="3"/>
-      <c r="CV38" s="3"/>
-      <c r="CW38" s="3"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="5"/>
+      <c r="BG38" s="5"/>
+      <c r="BH38" s="5"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="5"/>
+      <c r="BK38" s="5"/>
+      <c r="BL38" s="5"/>
+      <c r="BM38" s="5"/>
+      <c r="BN38" s="5"/>
+      <c r="BO38" s="5"/>
+      <c r="BP38" s="5"/>
+      <c r="BQ38" s="5"/>
+      <c r="BR38" s="5"/>
+      <c r="BS38" s="5"/>
+      <c r="BT38" s="5"/>
+      <c r="BU38" s="5"/>
+      <c r="BV38" s="5"/>
+      <c r="BW38" s="5"/>
+      <c r="BX38" s="5"/>
+      <c r="BY38" s="5"/>
+      <c r="BZ38" s="5"/>
+      <c r="CA38" s="5"/>
+      <c r="CB38" s="5"/>
+      <c r="CC38" s="5"/>
+      <c r="CD38" s="5"/>
+      <c r="CE38" s="5"/>
+      <c r="CF38" s="5"/>
+      <c r="CG38" s="5"/>
+      <c r="CH38" s="5"/>
+      <c r="CI38" s="5"/>
+      <c r="CJ38" s="5"/>
+      <c r="CK38" s="5"/>
+      <c r="CL38" s="5"/>
+      <c r="CM38" s="5"/>
+      <c r="CN38" s="5"/>
+      <c r="CO38" s="5"/>
+      <c r="CP38" s="5"/>
+      <c r="CQ38" s="5"/>
+      <c r="CR38" s="5"/>
+      <c r="CS38" s="5"/>
+      <c r="CT38" s="5"/>
+      <c r="CU38" s="5"/>
+      <c r="CV38" s="5"/>
+      <c r="CW38" s="5"/>
       <c r="CX38" s="2"/>
     </row>
-    <row r="39" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4862,56 +4840,56 @@
         <v>38</v>
       </c>
       <c r="BB39" s="5"/>
-      <c r="BC39" s="2"/>
-      <c r="BD39" s="2"/>
-      <c r="BE39" s="2"/>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="2"/>
-      <c r="BH39" s="2"/>
-      <c r="BI39" s="3"/>
-      <c r="BJ39" s="4"/>
-      <c r="BK39" s="2"/>
-      <c r="BL39" s="2"/>
-      <c r="BM39" s="3"/>
-      <c r="BN39" s="3"/>
-      <c r="BO39" s="3"/>
-      <c r="BP39" s="3"/>
-      <c r="BQ39" s="3"/>
-      <c r="BR39" s="3"/>
-      <c r="BS39" s="2"/>
-      <c r="BT39" s="2"/>
-      <c r="BU39" s="2"/>
-      <c r="BV39" s="3"/>
-      <c r="BW39" s="4"/>
-      <c r="BX39" s="2"/>
-      <c r="BY39" s="2"/>
-      <c r="BZ39" s="3"/>
-      <c r="CA39" s="3"/>
-      <c r="CB39" s="2"/>
-      <c r="CC39" s="2"/>
-      <c r="CD39" s="2"/>
-      <c r="CE39" s="2"/>
-      <c r="CF39" s="3"/>
-      <c r="CG39" s="3"/>
-      <c r="CH39" s="3"/>
-      <c r="CI39" s="3"/>
-      <c r="CJ39" s="3"/>
-      <c r="CK39" s="3"/>
-      <c r="CL39" s="3"/>
-      <c r="CM39" s="3"/>
-      <c r="CN39" s="3"/>
-      <c r="CO39" s="3"/>
-      <c r="CP39" s="3"/>
-      <c r="CQ39" s="3"/>
-      <c r="CR39" s="3"/>
-      <c r="CS39" s="3"/>
-      <c r="CT39" s="3"/>
-      <c r="CU39" s="3"/>
-      <c r="CV39" s="3"/>
-      <c r="CW39" s="3"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
+      <c r="BK39" s="5"/>
+      <c r="BL39" s="5"/>
+      <c r="BM39" s="5"/>
+      <c r="BN39" s="5"/>
+      <c r="BO39" s="5"/>
+      <c r="BP39" s="5"/>
+      <c r="BQ39" s="5"/>
+      <c r="BR39" s="5"/>
+      <c r="BS39" s="5"/>
+      <c r="BT39" s="5"/>
+      <c r="BU39" s="5"/>
+      <c r="BV39" s="5"/>
+      <c r="BW39" s="5"/>
+      <c r="BX39" s="5"/>
+      <c r="BY39" s="5"/>
+      <c r="BZ39" s="5"/>
+      <c r="CA39" s="5"/>
+      <c r="CB39" s="5"/>
+      <c r="CC39" s="5"/>
+      <c r="CD39" s="5"/>
+      <c r="CE39" s="5"/>
+      <c r="CF39" s="5"/>
+      <c r="CG39" s="5"/>
+      <c r="CH39" s="5"/>
+      <c r="CI39" s="5"/>
+      <c r="CJ39" s="5"/>
+      <c r="CK39" s="5"/>
+      <c r="CL39" s="5"/>
+      <c r="CM39" s="5"/>
+      <c r="CN39" s="5"/>
+      <c r="CO39" s="5"/>
+      <c r="CP39" s="5"/>
+      <c r="CQ39" s="5"/>
+      <c r="CR39" s="5"/>
+      <c r="CS39" s="5"/>
+      <c r="CT39" s="5"/>
+      <c r="CU39" s="5"/>
+      <c r="CV39" s="5"/>
+      <c r="CW39" s="5"/>
       <c r="CX39" s="2"/>
     </row>
-    <row r="40" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4970,58 +4948,56 @@
         <v>39</v>
       </c>
       <c r="BB40" s="5"/>
-      <c r="BC40" s="3"/>
-      <c r="BD40" s="3"/>
-      <c r="BE40" s="3"/>
-      <c r="BF40" s="3"/>
-      <c r="BG40" s="3"/>
-      <c r="BH40" s="3"/>
-      <c r="BI40" s="3"/>
-      <c r="BJ40" s="4"/>
-      <c r="BK40" s="2"/>
-      <c r="BL40" s="2"/>
-      <c r="BM40" s="3"/>
-      <c r="BN40" s="3"/>
-      <c r="BO40" s="3"/>
-      <c r="BP40" s="3"/>
-      <c r="BQ40" s="3"/>
-      <c r="BR40" s="3"/>
-      <c r="BS40" s="2"/>
-      <c r="BT40" s="2"/>
-      <c r="BU40" s="2"/>
-      <c r="BV40" s="3"/>
-      <c r="BW40" s="4"/>
-      <c r="BX40" s="2"/>
-      <c r="BY40" s="2"/>
-      <c r="BZ40" s="3"/>
-      <c r="CA40" s="3"/>
-      <c r="CB40" s="2"/>
-      <c r="CC40" s="2"/>
-      <c r="CD40" s="2"/>
-      <c r="CE40" s="2"/>
-      <c r="CF40" s="3"/>
-      <c r="CG40" s="3"/>
-      <c r="CH40" s="3"/>
-      <c r="CI40" s="3"/>
-      <c r="CJ40" s="3"/>
-      <c r="CK40" s="3"/>
-      <c r="CL40" s="3"/>
-      <c r="CM40" s="3"/>
-      <c r="CN40" s="3"/>
-      <c r="CO40" s="3"/>
-      <c r="CP40" s="3"/>
-      <c r="CQ40" s="3"/>
-      <c r="CR40" s="3"/>
-      <c r="CS40" s="3"/>
-      <c r="CT40" s="3"/>
-      <c r="CU40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="CV40" s="3"/>
-      <c r="CW40" s="3"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
+      <c r="BK40" s="5"/>
+      <c r="BL40" s="5"/>
+      <c r="BM40" s="5"/>
+      <c r="BN40" s="5"/>
+      <c r="BO40" s="5"/>
+      <c r="BP40" s="5"/>
+      <c r="BQ40" s="5"/>
+      <c r="BR40" s="5"/>
+      <c r="BS40" s="5"/>
+      <c r="BT40" s="5"/>
+      <c r="BU40" s="5"/>
+      <c r="BV40" s="5"/>
+      <c r="BW40" s="5"/>
+      <c r="BX40" s="5"/>
+      <c r="BY40" s="5"/>
+      <c r="BZ40" s="5"/>
+      <c r="CA40" s="5"/>
+      <c r="CB40" s="5"/>
+      <c r="CC40" s="5"/>
+      <c r="CD40" s="5"/>
+      <c r="CE40" s="5"/>
+      <c r="CF40" s="5"/>
+      <c r="CG40" s="5"/>
+      <c r="CH40" s="5"/>
+      <c r="CI40" s="5"/>
+      <c r="CJ40" s="5"/>
+      <c r="CK40" s="5"/>
+      <c r="CL40" s="5"/>
+      <c r="CM40" s="5"/>
+      <c r="CN40" s="5"/>
+      <c r="CO40" s="5"/>
+      <c r="CP40" s="5"/>
+      <c r="CQ40" s="5"/>
+      <c r="CR40" s="5"/>
+      <c r="CS40" s="5"/>
+      <c r="CT40" s="5"/>
+      <c r="CU40" s="5"/>
+      <c r="CV40" s="5"/>
+      <c r="CW40" s="5"/>
       <c r="CX40" s="2"/>
     </row>
-    <row r="41" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5077,57 +5053,57 @@
       <c r="BA41" s="2">
         <v>40</v>
       </c>
-      <c r="BB41" s="3"/>
-      <c r="BC41" s="3"/>
-      <c r="BD41" s="3"/>
-      <c r="BE41" s="3"/>
-      <c r="BF41" s="3"/>
-      <c r="BG41" s="3"/>
-      <c r="BH41" s="3"/>
-      <c r="BI41" s="3"/>
-      <c r="BJ41" s="4"/>
-      <c r="BK41" s="2"/>
-      <c r="BL41" s="2"/>
-      <c r="BM41" s="3"/>
-      <c r="BN41" s="3"/>
-      <c r="BO41" s="3"/>
-      <c r="BP41" s="3"/>
-      <c r="BQ41" s="3"/>
-      <c r="BR41" s="3"/>
-      <c r="BS41" s="3"/>
-      <c r="BT41" s="3"/>
-      <c r="BU41" s="3"/>
-      <c r="BV41" s="3"/>
-      <c r="BW41" s="4"/>
-      <c r="BX41" s="2"/>
-      <c r="BY41" s="2"/>
-      <c r="BZ41" s="3"/>
-      <c r="CA41" s="3"/>
-      <c r="CB41" s="2"/>
-      <c r="CC41" s="2"/>
-      <c r="CD41" s="2"/>
-      <c r="CE41" s="2"/>
-      <c r="CF41" s="3"/>
-      <c r="CG41" s="3"/>
-      <c r="CH41" s="3"/>
-      <c r="CI41" s="3"/>
-      <c r="CJ41" s="3"/>
-      <c r="CK41" s="3"/>
-      <c r="CL41" s="3"/>
-      <c r="CM41" s="3"/>
-      <c r="CN41" s="3"/>
-      <c r="CO41" s="3"/>
-      <c r="CP41" s="3"/>
-      <c r="CQ41" s="3"/>
-      <c r="CR41" s="2"/>
-      <c r="CS41" s="2"/>
-      <c r="CT41" s="2"/>
-      <c r="CU41" s="2"/>
-      <c r="CV41" s="2"/>
-      <c r="CW41" s="2"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
+      <c r="BK41" s="5"/>
+      <c r="BL41" s="5"/>
+      <c r="BM41" s="5"/>
+      <c r="BN41" s="5"/>
+      <c r="BO41" s="5"/>
+      <c r="BP41" s="5"/>
+      <c r="BQ41" s="5"/>
+      <c r="BR41" s="5"/>
+      <c r="BS41" s="5"/>
+      <c r="BT41" s="5"/>
+      <c r="BU41" s="5"/>
+      <c r="BV41" s="5"/>
+      <c r="BW41" s="5"/>
+      <c r="BX41" s="5"/>
+      <c r="BY41" s="5"/>
+      <c r="BZ41" s="5"/>
+      <c r="CA41" s="5"/>
+      <c r="CB41" s="5"/>
+      <c r="CC41" s="5"/>
+      <c r="CD41" s="5"/>
+      <c r="CE41" s="5"/>
+      <c r="CF41" s="5"/>
+      <c r="CG41" s="5"/>
+      <c r="CH41" s="5"/>
+      <c r="CI41" s="5"/>
+      <c r="CJ41" s="5"/>
+      <c r="CK41" s="5"/>
+      <c r="CL41" s="5"/>
+      <c r="CM41" s="5"/>
+      <c r="CN41" s="5"/>
+      <c r="CO41" s="5"/>
+      <c r="CP41" s="5"/>
+      <c r="CQ41" s="5"/>
+      <c r="CR41" s="5"/>
+      <c r="CS41" s="5"/>
+      <c r="CT41" s="5"/>
+      <c r="CU41" s="5"/>
+      <c r="CV41" s="5"/>
+      <c r="CW41" s="5"/>
       <c r="CX41" s="2"/>
     </row>
-    <row r="42" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5185,59 +5161,57 @@
       <c r="BA42" s="2">
         <v>41</v>
       </c>
-      <c r="BB42" s="3"/>
-      <c r="BC42" s="3"/>
-      <c r="BD42" s="3"/>
-      <c r="BE42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF42" s="3"/>
-      <c r="BG42" s="3"/>
-      <c r="BH42" s="3"/>
-      <c r="BI42" s="3"/>
-      <c r="BJ42" s="3"/>
-      <c r="BK42" s="2"/>
-      <c r="BL42" s="2"/>
-      <c r="BM42" s="3"/>
-      <c r="BN42" s="3"/>
-      <c r="BO42" s="3"/>
-      <c r="BP42" s="3"/>
-      <c r="BQ42" s="3"/>
-      <c r="BR42" s="3"/>
-      <c r="BS42" s="3"/>
-      <c r="BT42" s="3"/>
-      <c r="BU42" s="3"/>
-      <c r="BV42" s="3"/>
-      <c r="BW42" s="4"/>
-      <c r="BX42" s="2"/>
-      <c r="BY42" s="2"/>
-      <c r="BZ42" s="3"/>
-      <c r="CA42" s="3"/>
-      <c r="CB42" s="3"/>
-      <c r="CC42" s="3"/>
-      <c r="CD42" s="3"/>
-      <c r="CE42" s="3"/>
-      <c r="CF42" s="3"/>
-      <c r="CG42" s="3"/>
-      <c r="CH42" s="3"/>
-      <c r="CI42" s="3"/>
-      <c r="CJ42" s="3"/>
-      <c r="CK42" s="3"/>
-      <c r="CL42" s="3"/>
-      <c r="CM42" s="3"/>
-      <c r="CN42" s="3"/>
-      <c r="CO42" s="3"/>
-      <c r="CP42" s="2"/>
-      <c r="CQ42" s="2"/>
-      <c r="CR42" s="2"/>
-      <c r="CS42" s="2"/>
-      <c r="CT42" s="2"/>
-      <c r="CU42" s="2"/>
-      <c r="CV42" s="2"/>
-      <c r="CW42" s="2"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="5"/>
+      <c r="BK42" s="5"/>
+      <c r="BL42" s="5"/>
+      <c r="BM42" s="5"/>
+      <c r="BN42" s="5"/>
+      <c r="BO42" s="5"/>
+      <c r="BP42" s="5"/>
+      <c r="BQ42" s="5"/>
+      <c r="BR42" s="5"/>
+      <c r="BS42" s="5"/>
+      <c r="BT42" s="5"/>
+      <c r="BU42" s="5"/>
+      <c r="BV42" s="5"/>
+      <c r="BW42" s="5"/>
+      <c r="BX42" s="5"/>
+      <c r="BY42" s="5"/>
+      <c r="BZ42" s="5"/>
+      <c r="CA42" s="5"/>
+      <c r="CB42" s="5"/>
+      <c r="CC42" s="5"/>
+      <c r="CD42" s="5"/>
+      <c r="CE42" s="5"/>
+      <c r="CF42" s="5"/>
+      <c r="CG42" s="5"/>
+      <c r="CH42" s="5"/>
+      <c r="CI42" s="5"/>
+      <c r="CJ42" s="5"/>
+      <c r="CK42" s="5"/>
+      <c r="CL42" s="5"/>
+      <c r="CM42" s="5"/>
+      <c r="CN42" s="5"/>
+      <c r="CO42" s="5"/>
+      <c r="CP42" s="5"/>
+      <c r="CQ42" s="5"/>
+      <c r="CR42" s="5"/>
+      <c r="CS42" s="5"/>
+      <c r="CT42" s="5"/>
+      <c r="CU42" s="5"/>
+      <c r="CV42" s="5"/>
+      <c r="CW42" s="5"/>
       <c r="CX42" s="2"/>
     </row>
-    <row r="43" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5293,57 +5267,57 @@
       <c r="BA43" s="2">
         <v>42</v>
       </c>
-      <c r="BB43" s="2"/>
-      <c r="BC43" s="2"/>
-      <c r="BD43" s="2"/>
-      <c r="BE43" s="2"/>
-      <c r="BF43" s="2"/>
-      <c r="BG43" s="2"/>
-      <c r="BH43" s="2"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
       <c r="BI43" s="5"/>
       <c r="BJ43" s="5"/>
-      <c r="BK43" s="2"/>
-      <c r="BL43" s="2"/>
-      <c r="BM43" s="2"/>
-      <c r="BN43" s="2"/>
-      <c r="BO43" s="2"/>
-      <c r="BP43" s="2"/>
-      <c r="BQ43" s="2"/>
-      <c r="BR43" s="2"/>
-      <c r="BS43" s="2"/>
-      <c r="BT43" s="2"/>
-      <c r="BU43" s="2"/>
-      <c r="BV43" s="2"/>
-      <c r="BW43" s="2"/>
-      <c r="BX43" s="2"/>
-      <c r="BY43" s="2"/>
-      <c r="BZ43" s="2"/>
-      <c r="CA43" s="2"/>
-      <c r="CB43" s="2"/>
-      <c r="CC43" s="2"/>
-      <c r="CD43" s="2"/>
-      <c r="CE43" s="2"/>
-      <c r="CF43" s="3"/>
-      <c r="CG43" s="3"/>
-      <c r="CH43" s="3"/>
-      <c r="CI43" s="2"/>
-      <c r="CJ43" s="2"/>
-      <c r="CK43" s="3"/>
-      <c r="CL43" s="3"/>
-      <c r="CM43" s="3"/>
-      <c r="CN43" s="2"/>
-      <c r="CO43" s="2"/>
-      <c r="CP43" s="2"/>
-      <c r="CQ43" s="2"/>
-      <c r="CR43" s="2"/>
-      <c r="CS43" s="2"/>
-      <c r="CT43" s="2"/>
-      <c r="CU43" s="2"/>
-      <c r="CV43" s="2"/>
-      <c r="CW43" s="2"/>
+      <c r="BK43" s="5"/>
+      <c r="BL43" s="5"/>
+      <c r="BM43" s="5"/>
+      <c r="BN43" s="5"/>
+      <c r="BO43" s="5"/>
+      <c r="BP43" s="5"/>
+      <c r="BQ43" s="5"/>
+      <c r="BR43" s="5"/>
+      <c r="BS43" s="5"/>
+      <c r="BT43" s="5"/>
+      <c r="BU43" s="5"/>
+      <c r="BV43" s="5"/>
+      <c r="BW43" s="5"/>
+      <c r="BX43" s="5"/>
+      <c r="BY43" s="5"/>
+      <c r="BZ43" s="5"/>
+      <c r="CA43" s="5"/>
+      <c r="CB43" s="5"/>
+      <c r="CC43" s="5"/>
+      <c r="CD43" s="5"/>
+      <c r="CE43" s="5"/>
+      <c r="CF43" s="5"/>
+      <c r="CG43" s="5"/>
+      <c r="CH43" s="5"/>
+      <c r="CI43" s="5"/>
+      <c r="CJ43" s="5"/>
+      <c r="CK43" s="5"/>
+      <c r="CL43" s="5"/>
+      <c r="CM43" s="5"/>
+      <c r="CN43" s="5"/>
+      <c r="CO43" s="5"/>
+      <c r="CP43" s="5"/>
+      <c r="CQ43" s="5"/>
+      <c r="CR43" s="5"/>
+      <c r="CS43" s="5"/>
+      <c r="CT43" s="5"/>
+      <c r="CU43" s="5"/>
+      <c r="CV43" s="5"/>
+      <c r="CW43" s="5"/>
       <c r="CX43" s="2"/>
     </row>
-    <row r="44" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5399,57 +5373,57 @@
       <c r="BA44" s="2">
         <v>43</v>
       </c>
-      <c r="BB44" s="2"/>
-      <c r="BC44" s="2"/>
-      <c r="BD44" s="2"/>
-      <c r="BE44" s="2"/>
-      <c r="BF44" s="2"/>
-      <c r="BG44" s="2"/>
-      <c r="BH44" s="2"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
       <c r="BI44" s="5"/>
       <c r="BJ44" s="5"/>
-      <c r="BK44" s="2"/>
-      <c r="BL44" s="2"/>
-      <c r="BM44" s="2"/>
-      <c r="BN44" s="2"/>
-      <c r="BO44" s="2"/>
-      <c r="BP44" s="2"/>
-      <c r="BQ44" s="2"/>
-      <c r="BR44" s="2"/>
-      <c r="BS44" s="2"/>
-      <c r="BT44" s="2"/>
-      <c r="BU44" s="2"/>
-      <c r="BV44" s="2"/>
-      <c r="BW44" s="2"/>
-      <c r="BX44" s="2"/>
-      <c r="BY44" s="2"/>
-      <c r="BZ44" s="2"/>
-      <c r="CA44" s="2"/>
-      <c r="CB44" s="2"/>
-      <c r="CC44" s="2"/>
-      <c r="CD44" s="2"/>
-      <c r="CE44" s="2"/>
-      <c r="CF44" s="3"/>
-      <c r="CG44" s="3"/>
-      <c r="CH44" s="3"/>
-      <c r="CI44" s="2"/>
-      <c r="CJ44" s="2"/>
-      <c r="CK44" s="3"/>
-      <c r="CL44" s="3"/>
-      <c r="CM44" s="3"/>
-      <c r="CN44" s="2"/>
-      <c r="CO44" s="2"/>
-      <c r="CP44" s="2"/>
-      <c r="CQ44" s="2"/>
-      <c r="CR44" s="2"/>
-      <c r="CS44" s="2"/>
-      <c r="CT44" s="2"/>
-      <c r="CU44" s="2"/>
-      <c r="CV44" s="2"/>
-      <c r="CW44" s="2"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="5"/>
+      <c r="BM44" s="5"/>
+      <c r="BN44" s="5"/>
+      <c r="BO44" s="5"/>
+      <c r="BP44" s="5"/>
+      <c r="BQ44" s="5"/>
+      <c r="BR44" s="5"/>
+      <c r="BS44" s="5"/>
+      <c r="BT44" s="5"/>
+      <c r="BU44" s="5"/>
+      <c r="BV44" s="5"/>
+      <c r="BW44" s="5"/>
+      <c r="BX44" s="5"/>
+      <c r="BY44" s="5"/>
+      <c r="BZ44" s="5"/>
+      <c r="CA44" s="5"/>
+      <c r="CB44" s="5"/>
+      <c r="CC44" s="5"/>
+      <c r="CD44" s="5"/>
+      <c r="CE44" s="5"/>
+      <c r="CF44" s="5"/>
+      <c r="CG44" s="5"/>
+      <c r="CH44" s="5"/>
+      <c r="CI44" s="5"/>
+      <c r="CJ44" s="5"/>
+      <c r="CK44" s="5"/>
+      <c r="CL44" s="5"/>
+      <c r="CM44" s="5"/>
+      <c r="CN44" s="5"/>
+      <c r="CO44" s="5"/>
+      <c r="CP44" s="5"/>
+      <c r="CQ44" s="5"/>
+      <c r="CR44" s="5"/>
+      <c r="CS44" s="5"/>
+      <c r="CT44" s="5"/>
+      <c r="CU44" s="5"/>
+      <c r="CV44" s="5"/>
+      <c r="CW44" s="5"/>
       <c r="CX44" s="2"/>
     </row>
-    <row r="45" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5509,61 +5483,57 @@
       <c r="BA45" s="2">
         <v>44</v>
       </c>
-      <c r="BB45" s="3"/>
-      <c r="BC45" s="3"/>
-      <c r="BD45" s="3"/>
-      <c r="BE45" s="3"/>
-      <c r="BF45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG45" s="3"/>
-      <c r="BH45" s="3"/>
-      <c r="BI45" s="3"/>
-      <c r="BJ45" s="3"/>
-      <c r="BK45" s="2"/>
-      <c r="BL45" s="2"/>
-      <c r="BM45" s="2"/>
-      <c r="BN45" s="2"/>
-      <c r="BO45" s="2"/>
-      <c r="BP45" s="2"/>
-      <c r="BQ45" s="2"/>
-      <c r="BR45" s="2"/>
-      <c r="BS45" s="2"/>
-      <c r="BT45" s="2"/>
-      <c r="BU45" s="2"/>
-      <c r="BV45" s="3"/>
-      <c r="BW45" s="3"/>
-      <c r="BX45" s="3"/>
-      <c r="BY45" s="3"/>
-      <c r="BZ45" s="3"/>
-      <c r="CA45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB45" s="3"/>
-      <c r="CC45" s="3"/>
-      <c r="CD45" s="3"/>
-      <c r="CE45" s="3"/>
-      <c r="CF45" s="3"/>
-      <c r="CG45" s="3"/>
-      <c r="CH45" s="3"/>
-      <c r="CI45" s="3"/>
-      <c r="CJ45" s="3"/>
-      <c r="CK45" s="3"/>
-      <c r="CL45" s="3"/>
-      <c r="CM45" s="3"/>
-      <c r="CN45" s="2"/>
-      <c r="CO45" s="2"/>
-      <c r="CP45" s="2"/>
-      <c r="CQ45" s="3"/>
-      <c r="CR45" s="3"/>
-      <c r="CS45" s="3"/>
-      <c r="CT45" s="3"/>
-      <c r="CU45" s="3"/>
-      <c r="CV45" s="3"/>
-      <c r="CW45" s="3"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+      <c r="BM45" s="5"/>
+      <c r="BN45" s="5"/>
+      <c r="BO45" s="5"/>
+      <c r="BP45" s="5"/>
+      <c r="BQ45" s="5"/>
+      <c r="BR45" s="5"/>
+      <c r="BS45" s="5"/>
+      <c r="BT45" s="5"/>
+      <c r="BU45" s="5"/>
+      <c r="BV45" s="5"/>
+      <c r="BW45" s="5"/>
+      <c r="BX45" s="5"/>
+      <c r="BY45" s="5"/>
+      <c r="BZ45" s="5"/>
+      <c r="CA45" s="5"/>
+      <c r="CB45" s="5"/>
+      <c r="CC45" s="5"/>
+      <c r="CD45" s="5"/>
+      <c r="CE45" s="5"/>
+      <c r="CF45" s="5"/>
+      <c r="CG45" s="5"/>
+      <c r="CH45" s="5"/>
+      <c r="CI45" s="5"/>
+      <c r="CJ45" s="5"/>
+      <c r="CK45" s="5"/>
+      <c r="CL45" s="5"/>
+      <c r="CM45" s="5"/>
+      <c r="CN45" s="5"/>
+      <c r="CO45" s="5"/>
+      <c r="CP45" s="5"/>
+      <c r="CQ45" s="5"/>
+      <c r="CR45" s="5"/>
+      <c r="CS45" s="5"/>
+      <c r="CT45" s="5"/>
+      <c r="CU45" s="5"/>
+      <c r="CV45" s="5"/>
+      <c r="CW45" s="5"/>
       <c r="CX45" s="2"/>
     </row>
-    <row r="46" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5621,59 +5591,57 @@
       <c r="BA46" s="2">
         <v>45</v>
       </c>
-      <c r="BB46" s="3"/>
-      <c r="BC46" s="3"/>
-      <c r="BD46" s="3"/>
-      <c r="BE46" s="3"/>
-      <c r="BF46" s="3"/>
-      <c r="BG46" s="3"/>
-      <c r="BH46" s="3"/>
-      <c r="BI46" s="3"/>
-      <c r="BJ46" s="3"/>
-      <c r="BK46" s="2"/>
-      <c r="BL46" s="2"/>
-      <c r="BM46" s="2"/>
-      <c r="BN46" s="3"/>
-      <c r="BO46" s="3"/>
-      <c r="BP46" s="3"/>
-      <c r="BQ46" s="3"/>
-      <c r="BR46" s="3"/>
-      <c r="BS46" s="3"/>
-      <c r="BT46" s="3"/>
-      <c r="BU46" s="3"/>
-      <c r="BV46" s="3"/>
-      <c r="BW46" s="3"/>
-      <c r="BX46" s="3"/>
-      <c r="BY46" s="3"/>
-      <c r="BZ46" s="3"/>
-      <c r="CA46" s="3"/>
-      <c r="CB46" s="3"/>
-      <c r="CC46" s="3"/>
-      <c r="CD46" s="3"/>
-      <c r="CE46" s="3"/>
-      <c r="CF46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG46" s="3"/>
-      <c r="CH46" s="3"/>
-      <c r="CI46" s="3"/>
-      <c r="CJ46" s="3"/>
-      <c r="CK46" s="3"/>
-      <c r="CL46" s="3"/>
-      <c r="CM46" s="3"/>
-      <c r="CN46" s="2"/>
-      <c r="CO46" s="2"/>
-      <c r="CP46" s="2"/>
-      <c r="CQ46" s="3"/>
-      <c r="CR46" s="3"/>
-      <c r="CS46" s="3"/>
-      <c r="CT46" s="3"/>
-      <c r="CU46" s="3"/>
-      <c r="CV46" s="3"/>
-      <c r="CW46" s="3"/>
+      <c r="BB46" s="5"/>
+      <c r="BC46" s="5"/>
+      <c r="BD46" s="5"/>
+      <c r="BE46" s="5"/>
+      <c r="BF46" s="5"/>
+      <c r="BG46" s="5"/>
+      <c r="BH46" s="5"/>
+      <c r="BI46" s="5"/>
+      <c r="BJ46" s="5"/>
+      <c r="BK46" s="5"/>
+      <c r="BL46" s="5"/>
+      <c r="BM46" s="5"/>
+      <c r="BN46" s="5"/>
+      <c r="BO46" s="5"/>
+      <c r="BP46" s="5"/>
+      <c r="BQ46" s="5"/>
+      <c r="BR46" s="5"/>
+      <c r="BS46" s="5"/>
+      <c r="BT46" s="5"/>
+      <c r="BU46" s="5"/>
+      <c r="BV46" s="5"/>
+      <c r="BW46" s="5"/>
+      <c r="BX46" s="5"/>
+      <c r="BY46" s="5"/>
+      <c r="BZ46" s="5"/>
+      <c r="CA46" s="5"/>
+      <c r="CB46" s="5"/>
+      <c r="CC46" s="5"/>
+      <c r="CD46" s="5"/>
+      <c r="CE46" s="5"/>
+      <c r="CF46" s="5"/>
+      <c r="CG46" s="5"/>
+      <c r="CH46" s="5"/>
+      <c r="CI46" s="5"/>
+      <c r="CJ46" s="5"/>
+      <c r="CK46" s="5"/>
+      <c r="CL46" s="5"/>
+      <c r="CM46" s="5"/>
+      <c r="CN46" s="5"/>
+      <c r="CO46" s="5"/>
+      <c r="CP46" s="5"/>
+      <c r="CQ46" s="5"/>
+      <c r="CR46" s="5"/>
+      <c r="CS46" s="5"/>
+      <c r="CT46" s="5"/>
+      <c r="CU46" s="5"/>
+      <c r="CV46" s="5"/>
+      <c r="CW46" s="5"/>
       <c r="CX46" s="2"/>
     </row>
-    <row r="47" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5731,59 +5699,57 @@
       <c r="BA47" s="2">
         <v>46</v>
       </c>
-      <c r="BB47" s="3"/>
-      <c r="BC47" s="3"/>
-      <c r="BD47" s="2"/>
-      <c r="BE47" s="2"/>
-      <c r="BF47" s="2"/>
-      <c r="BG47" s="3"/>
-      <c r="BH47" s="3"/>
-      <c r="BI47" s="3"/>
-      <c r="BJ47" s="3"/>
-      <c r="BK47" s="2"/>
-      <c r="BL47" s="2"/>
-      <c r="BM47" s="2"/>
-      <c r="BN47" s="3"/>
-      <c r="BO47" s="3"/>
-      <c r="BP47" s="3"/>
-      <c r="BQ47" s="3"/>
-      <c r="BR47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS47" s="3"/>
-      <c r="BT47" s="3"/>
-      <c r="BU47" s="3"/>
-      <c r="BV47" s="3"/>
-      <c r="BW47" s="3"/>
-      <c r="BX47" s="2"/>
-      <c r="BY47" s="2"/>
-      <c r="BZ47" s="2"/>
-      <c r="CA47" s="2"/>
-      <c r="CB47" s="2"/>
-      <c r="CC47" s="2"/>
-      <c r="CD47" s="2"/>
-      <c r="CE47" s="2"/>
-      <c r="CF47" s="2"/>
-      <c r="CG47" s="2"/>
-      <c r="CH47" s="2"/>
-      <c r="CI47" s="2"/>
-      <c r="CJ47" s="2"/>
-      <c r="CK47" s="2"/>
-      <c r="CL47" s="2"/>
-      <c r="CM47" s="2"/>
-      <c r="CN47" s="2"/>
-      <c r="CO47" s="2"/>
-      <c r="CP47" s="2"/>
-      <c r="CQ47" s="3"/>
-      <c r="CR47" s="3"/>
-      <c r="CS47" s="3"/>
-      <c r="CT47" s="3"/>
-      <c r="CU47" s="9"/>
-      <c r="CV47" s="9"/>
-      <c r="CW47" s="9"/>
+      <c r="BB47" s="5"/>
+      <c r="BC47" s="5"/>
+      <c r="BD47" s="5"/>
+      <c r="BE47" s="5"/>
+      <c r="BF47" s="5"/>
+      <c r="BG47" s="5"/>
+      <c r="BH47" s="5"/>
+      <c r="BI47" s="5"/>
+      <c r="BJ47" s="5"/>
+      <c r="BK47" s="5"/>
+      <c r="BL47" s="5"/>
+      <c r="BM47" s="5"/>
+      <c r="BN47" s="5"/>
+      <c r="BO47" s="5"/>
+      <c r="BP47" s="5"/>
+      <c r="BQ47" s="5"/>
+      <c r="BR47" s="5"/>
+      <c r="BS47" s="5"/>
+      <c r="BT47" s="5"/>
+      <c r="BU47" s="5"/>
+      <c r="BV47" s="5"/>
+      <c r="BW47" s="5"/>
+      <c r="BX47" s="5"/>
+      <c r="BY47" s="5"/>
+      <c r="BZ47" s="5"/>
+      <c r="CA47" s="5"/>
+      <c r="CB47" s="5"/>
+      <c r="CC47" s="5"/>
+      <c r="CD47" s="5"/>
+      <c r="CE47" s="5"/>
+      <c r="CF47" s="5"/>
+      <c r="CG47" s="5"/>
+      <c r="CH47" s="5"/>
+      <c r="CI47" s="5"/>
+      <c r="CJ47" s="5"/>
+      <c r="CK47" s="5"/>
+      <c r="CL47" s="5"/>
+      <c r="CM47" s="5"/>
+      <c r="CN47" s="5"/>
+      <c r="CO47" s="5"/>
+      <c r="CP47" s="5"/>
+      <c r="CQ47" s="5"/>
+      <c r="CR47" s="5"/>
+      <c r="CS47" s="5"/>
+      <c r="CT47" s="5"/>
+      <c r="CU47" s="10"/>
+      <c r="CV47" s="10"/>
+      <c r="CW47" s="10"/>
       <c r="CX47" s="2"/>
     </row>
-    <row r="48" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5843,61 +5809,57 @@
       <c r="BA48" s="2">
         <v>47</v>
       </c>
-      <c r="BB48" s="3"/>
-      <c r="BC48" s="3"/>
-      <c r="BD48" s="2"/>
-      <c r="BE48" s="2"/>
-      <c r="BF48" s="2"/>
-      <c r="BG48" s="3"/>
-      <c r="BH48" s="3"/>
-      <c r="BI48" s="3"/>
-      <c r="BJ48" s="3"/>
-      <c r="BK48" s="3"/>
-      <c r="BL48" s="3"/>
-      <c r="BM48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN48" s="3"/>
-      <c r="BO48" s="3"/>
-      <c r="BP48" s="3"/>
-      <c r="BQ48" s="2"/>
-      <c r="BR48" s="2"/>
-      <c r="BS48" s="2"/>
-      <c r="BT48" s="2"/>
-      <c r="BU48" s="2"/>
-      <c r="BV48" s="3"/>
-      <c r="BW48" s="3"/>
-      <c r="BX48" s="3"/>
-      <c r="BY48" s="3"/>
-      <c r="BZ48" s="3"/>
-      <c r="CA48" s="3"/>
-      <c r="CB48" s="3"/>
-      <c r="CC48" s="3"/>
-      <c r="CD48" s="3"/>
-      <c r="CE48" s="3"/>
-      <c r="CF48" s="3"/>
-      <c r="CG48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH48" s="3"/>
-      <c r="CI48" s="3"/>
-      <c r="CJ48" s="3"/>
-      <c r="CK48" s="3"/>
-      <c r="CL48" s="3"/>
-      <c r="CM48" s="3"/>
-      <c r="CN48" s="3"/>
-      <c r="CO48" s="3"/>
-      <c r="CP48" s="3"/>
-      <c r="CQ48" s="3"/>
-      <c r="CR48" s="3"/>
-      <c r="CS48" s="3"/>
-      <c r="CT48" s="3"/>
-      <c r="CU48" s="9"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
+      <c r="BK48" s="5"/>
+      <c r="BL48" s="5"/>
+      <c r="BM48" s="5"/>
+      <c r="BN48" s="5"/>
+      <c r="BO48" s="5"/>
+      <c r="BP48" s="5"/>
+      <c r="BQ48" s="5"/>
+      <c r="BR48" s="5"/>
+      <c r="BS48" s="5"/>
+      <c r="BT48" s="5"/>
+      <c r="BU48" s="5"/>
+      <c r="BV48" s="5"/>
+      <c r="BW48" s="5"/>
+      <c r="BX48" s="5"/>
+      <c r="BY48" s="5"/>
+      <c r="BZ48" s="5"/>
+      <c r="CA48" s="5"/>
+      <c r="CB48" s="5"/>
+      <c r="CC48" s="5"/>
+      <c r="CD48" s="5"/>
+      <c r="CE48" s="5"/>
+      <c r="CF48" s="5"/>
+      <c r="CG48" s="5"/>
+      <c r="CH48" s="5"/>
+      <c r="CI48" s="5"/>
+      <c r="CJ48" s="5"/>
+      <c r="CK48" s="5"/>
+      <c r="CL48" s="5"/>
+      <c r="CM48" s="5"/>
+      <c r="CN48" s="5"/>
+      <c r="CO48" s="5"/>
+      <c r="CP48" s="5"/>
+      <c r="CQ48" s="5"/>
+      <c r="CR48" s="5"/>
+      <c r="CS48" s="5"/>
+      <c r="CT48" s="5"/>
+      <c r="CU48" s="10"/>
       <c r="CV48" s="10"/>
-      <c r="CW48" s="9"/>
+      <c r="CW48" s="10"/>
       <c r="CX48" s="2"/>
     </row>
-    <row r="49" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5955,59 +5917,57 @@
       <c r="BA49" s="2">
         <v>48</v>
       </c>
-      <c r="BB49" s="6"/>
-      <c r="BC49" s="3"/>
-      <c r="BD49" s="2"/>
-      <c r="BE49" s="2"/>
-      <c r="BF49" s="2"/>
-      <c r="BG49" s="3"/>
-      <c r="BH49" s="3"/>
-      <c r="BI49" s="3"/>
-      <c r="BJ49" s="3"/>
-      <c r="BK49" s="3"/>
-      <c r="BL49" s="3"/>
-      <c r="BM49" s="3"/>
-      <c r="BN49" s="3"/>
-      <c r="BO49" s="3"/>
-      <c r="BP49" s="3"/>
-      <c r="BQ49" s="2"/>
-      <c r="BR49" s="2"/>
-      <c r="BS49" s="2"/>
-      <c r="BT49" s="2"/>
-      <c r="BU49" s="2"/>
-      <c r="BV49" s="3"/>
-      <c r="BW49" s="3"/>
-      <c r="BX49" s="3"/>
-      <c r="BY49" s="3"/>
-      <c r="BZ49" s="3"/>
-      <c r="CA49" s="3"/>
-      <c r="CB49" s="3"/>
-      <c r="CC49" s="3"/>
-      <c r="CD49" s="3"/>
-      <c r="CE49" s="3"/>
-      <c r="CF49" s="3"/>
-      <c r="CG49" s="3"/>
-      <c r="CH49" s="3"/>
-      <c r="CI49" s="3"/>
-      <c r="CJ49" s="3"/>
-      <c r="CK49" s="3"/>
-      <c r="CL49" s="3"/>
-      <c r="CM49" s="3"/>
-      <c r="CN49" s="3"/>
-      <c r="CO49" s="3"/>
-      <c r="CP49" s="3"/>
-      <c r="CQ49" s="3"/>
-      <c r="CR49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="CS49" s="3"/>
-      <c r="CT49" s="3"/>
-      <c r="CU49" s="9"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
+      <c r="BK49" s="5"/>
+      <c r="BL49" s="5"/>
+      <c r="BM49" s="5"/>
+      <c r="BN49" s="5"/>
+      <c r="BO49" s="5"/>
+      <c r="BP49" s="5"/>
+      <c r="BQ49" s="5"/>
+      <c r="BR49" s="5"/>
+      <c r="BS49" s="5"/>
+      <c r="BT49" s="5"/>
+      <c r="BU49" s="5"/>
+      <c r="BV49" s="5"/>
+      <c r="BW49" s="5"/>
+      <c r="BX49" s="5"/>
+      <c r="BY49" s="5"/>
+      <c r="BZ49" s="5"/>
+      <c r="CA49" s="5"/>
+      <c r="CB49" s="5"/>
+      <c r="CC49" s="5"/>
+      <c r="CD49" s="5"/>
+      <c r="CE49" s="5"/>
+      <c r="CF49" s="5"/>
+      <c r="CG49" s="5"/>
+      <c r="CH49" s="5"/>
+      <c r="CI49" s="5"/>
+      <c r="CJ49" s="5"/>
+      <c r="CK49" s="5"/>
+      <c r="CL49" s="5"/>
+      <c r="CM49" s="5"/>
+      <c r="CN49" s="5"/>
+      <c r="CO49" s="5"/>
+      <c r="CP49" s="5"/>
+      <c r="CQ49" s="5"/>
+      <c r="CR49" s="5"/>
+      <c r="CS49" s="5"/>
+      <c r="CT49" s="5"/>
+      <c r="CU49" s="10"/>
       <c r="CV49" s="10"/>
-      <c r="CW49" s="9"/>
+      <c r="CW49" s="10"/>
       <c r="CX49" s="2"/>
     </row>
-    <row r="50" spans="1:102" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>

--- a/map_draw.xlsx
+++ b/map_draw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckckf\OneDrive\Documents\GitHub\2DGP_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5A0A9F-A001-43E8-8E7C-BA2710769DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C66B807-1CDD-44B1-80DA-02C6A56E304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7930" yWindow="4990" windowWidth="24260" windowHeight="16610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7930" yWindow="4270" windowWidth="24260" windowHeight="16610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +113,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +179,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -193,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,6 +265,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="CG19" sqref="CG19"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="BI46" sqref="BI46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -887,22 +951,22 @@
       <c r="BA2" s="2">
         <v>1</v>
       </c>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
       <c r="BR2" s="5"/>
       <c r="BS2" s="5"/>
       <c r="BT2" s="5"/>
@@ -914,7 +978,7 @@
       <c r="BZ2" s="5"/>
       <c r="CA2" s="5"/>
       <c r="CB2" s="5"/>
-      <c r="CC2" s="5"/>
+      <c r="CC2" s="1"/>
       <c r="CD2" s="5"/>
       <c r="CE2" s="5"/>
       <c r="CF2" s="5"/>
@@ -995,36 +1059,36 @@
       <c r="BA3" s="2">
         <v>2</v>
       </c>
-      <c r="BB3" s="5"/>
+      <c r="BB3" s="7"/>
       <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
       <c r="BT3" s="5"/>
       <c r="BU3" s="5"/>
       <c r="BV3" s="5"/>
-      <c r="BW3" s="5"/>
+      <c r="BW3" s="2"/>
       <c r="BX3" s="5"/>
-      <c r="BY3" s="5"/>
+      <c r="BY3" s="2"/>
       <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
+      <c r="CA3" s="2"/>
       <c r="CB3" s="5"/>
-      <c r="CC3" s="5"/>
-      <c r="CD3" s="5"/>
-      <c r="CE3" s="5"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
       <c r="CF3" s="5"/>
       <c r="CG3" s="5"/>
       <c r="CH3" s="5"/>
@@ -1101,9 +1165,9 @@
       <c r="BA4" s="2">
         <v>3</v>
       </c>
-      <c r="BB4" s="5"/>
+      <c r="BB4" s="7"/>
       <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
+      <c r="BD4" s="7"/>
       <c r="BE4" s="5"/>
       <c r="BF4" s="5"/>
       <c r="BG4" s="5"/>
@@ -1122,16 +1186,16 @@
       <c r="BT4" s="5"/>
       <c r="BU4" s="5"/>
       <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
+      <c r="BW4" s="2"/>
       <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
+      <c r="BY4" s="2"/>
       <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
+      <c r="CA4" s="2"/>
       <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
       <c r="CG4" s="5"/>
       <c r="CH4" s="5"/>
       <c r="CI4" s="5"/>
@@ -1207,50 +1271,50 @@
       <c r="BA5" s="2">
         <v>4</v>
       </c>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
-      <c r="BO5" s="5"/>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="5"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
       <c r="BR5" s="5"/>
       <c r="BS5" s="5"/>
       <c r="BT5" s="5"/>
-      <c r="BU5" s="5"/>
+      <c r="BU5" s="2"/>
       <c r="BV5" s="5"/>
-      <c r="BW5" s="5"/>
+      <c r="BW5" s="2"/>
       <c r="BX5" s="5"/>
-      <c r="BY5" s="5"/>
+      <c r="BY5" s="2"/>
       <c r="BZ5" s="5"/>
-      <c r="CA5" s="5"/>
+      <c r="CA5" s="2"/>
       <c r="CB5" s="5"/>
-      <c r="CC5" s="5"/>
-      <c r="CD5" s="5"/>
-      <c r="CE5" s="5"/>
-      <c r="CF5" s="5"/>
-      <c r="CG5" s="5"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
       <c r="CH5" s="5"/>
       <c r="CI5" s="5"/>
       <c r="CJ5" s="5"/>
       <c r="CK5" s="5"/>
-      <c r="CL5" s="5"/>
+      <c r="CL5" s="2"/>
       <c r="CM5" s="5"/>
       <c r="CN5" s="5"/>
       <c r="CO5" s="5"/>
       <c r="CP5" s="5"/>
       <c r="CQ5" s="5"/>
       <c r="CR5" s="5"/>
-      <c r="CS5" s="5"/>
+      <c r="CS5" s="14"/>
       <c r="CT5" s="5"/>
       <c r="CU5" s="5"/>
       <c r="CV5" s="5"/>
@@ -1313,52 +1377,52 @@
       <c r="BA6" s="2">
         <v>5</v>
       </c>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-      <c r="BN6" s="5"/>
-      <c r="BO6" s="5"/>
-      <c r="BP6" s="5"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
       <c r="BQ6" s="5"/>
       <c r="BR6" s="5"/>
       <c r="BS6" s="5"/>
       <c r="BT6" s="5"/>
-      <c r="BU6" s="5"/>
+      <c r="BU6" s="1"/>
       <c r="BV6" s="5"/>
-      <c r="BW6" s="5"/>
+      <c r="BW6" s="2"/>
       <c r="BX6" s="5"/>
-      <c r="BY6" s="5"/>
+      <c r="BY6" s="2"/>
       <c r="BZ6" s="5"/>
-      <c r="CA6" s="5"/>
+      <c r="CA6" s="2"/>
       <c r="CB6" s="5"/>
-      <c r="CC6" s="5"/>
-      <c r="CD6" s="5"/>
-      <c r="CE6" s="5"/>
-      <c r="CF6" s="5"/>
-      <c r="CG6" s="5"/>
-      <c r="CH6" s="5"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
       <c r="CI6" s="5"/>
       <c r="CJ6" s="5"/>
       <c r="CK6" s="5"/>
-      <c r="CL6" s="5"/>
-      <c r="CM6" s="5"/>
+      <c r="CL6" s="2"/>
+      <c r="CM6" s="2"/>
       <c r="CN6" s="5"/>
       <c r="CO6" s="5"/>
       <c r="CP6" s="5"/>
-      <c r="CQ6" s="5"/>
-      <c r="CR6" s="5"/>
-      <c r="CS6" s="5"/>
-      <c r="CT6" s="5"/>
-      <c r="CU6" s="5"/>
+      <c r="CQ6" s="2"/>
+      <c r="CR6" s="2"/>
+      <c r="CS6" s="2"/>
+      <c r="CT6" s="2"/>
+      <c r="CU6" s="2"/>
       <c r="CV6" s="5"/>
       <c r="CW6" s="5"/>
       <c r="CX6" s="2"/>
@@ -1436,17 +1500,17 @@
       <c r="BP7" s="5"/>
       <c r="BQ7" s="5"/>
       <c r="BR7" s="5"/>
-      <c r="BS7" s="5"/>
+      <c r="BS7" s="2"/>
       <c r="BT7" s="5"/>
       <c r="BU7" s="5"/>
       <c r="BV7" s="5"/>
-      <c r="BW7" s="5"/>
+      <c r="BW7" s="2"/>
       <c r="BX7" s="5"/>
-      <c r="BY7" s="5"/>
+      <c r="BY7" s="2"/>
       <c r="BZ7" s="5"/>
-      <c r="CA7" s="5"/>
+      <c r="CA7" s="2"/>
       <c r="CB7" s="5"/>
-      <c r="CC7" s="5"/>
+      <c r="CC7" s="2"/>
       <c r="CD7" s="5"/>
       <c r="CE7" s="5"/>
       <c r="CF7" s="5"/>
@@ -1464,8 +1528,8 @@
       <c r="CR7" s="5"/>
       <c r="CS7" s="5"/>
       <c r="CT7" s="5"/>
-      <c r="CU7" s="5"/>
-      <c r="CV7" s="5"/>
+      <c r="CU7" s="2"/>
+      <c r="CV7" s="2"/>
       <c r="CW7" s="5"/>
       <c r="CX7" s="2"/>
     </row>
@@ -1548,13 +1612,13 @@
       <c r="BT8" s="5"/>
       <c r="BU8" s="5"/>
       <c r="BV8" s="5"/>
-      <c r="BW8" s="5"/>
+      <c r="BW8" s="2"/>
       <c r="BX8" s="5"/>
-      <c r="BY8" s="5"/>
+      <c r="BY8" s="2"/>
       <c r="BZ8" s="5"/>
-      <c r="CA8" s="5"/>
+      <c r="CA8" s="2"/>
       <c r="CB8" s="5"/>
-      <c r="CC8" s="5"/>
+      <c r="CC8" s="2"/>
       <c r="CD8" s="5"/>
       <c r="CE8" s="5"/>
       <c r="CF8" s="5"/>
@@ -1648,19 +1712,19 @@
       <c r="BN9" s="5"/>
       <c r="BO9" s="5"/>
       <c r="BP9" s="5"/>
-      <c r="BQ9" s="5"/>
+      <c r="BQ9" s="2"/>
       <c r="BR9" s="5"/>
       <c r="BS9" s="5"/>
       <c r="BT9" s="5"/>
       <c r="BU9" s="5"/>
       <c r="BV9" s="5"/>
-      <c r="BW9" s="5"/>
+      <c r="BW9" s="2"/>
       <c r="BX9" s="5"/>
-      <c r="BY9" s="5"/>
+      <c r="BY9" s="2"/>
       <c r="BZ9" s="5"/>
-      <c r="CA9" s="5"/>
+      <c r="CA9" s="2"/>
       <c r="CB9" s="5"/>
-      <c r="CC9" s="5"/>
+      <c r="CC9" s="2"/>
       <c r="CD9" s="5"/>
       <c r="CE9" s="5"/>
       <c r="CF9" s="5"/>
@@ -1680,7 +1744,7 @@
       <c r="CT9" s="5"/>
       <c r="CU9" s="5"/>
       <c r="CV9" s="5"/>
-      <c r="CW9" s="5"/>
+      <c r="CW9" s="2"/>
       <c r="CX9" s="2"/>
     </row>
     <row r="10" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -1753,20 +1817,20 @@
       <c r="BM10" s="5"/>
       <c r="BN10" s="5"/>
       <c r="BO10" s="5"/>
-      <c r="BP10" s="5"/>
-      <c r="BQ10" s="5"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
       <c r="BR10" s="5"/>
       <c r="BS10" s="5"/>
       <c r="BT10" s="5"/>
       <c r="BU10" s="5"/>
       <c r="BV10" s="5"/>
-      <c r="BW10" s="5"/>
+      <c r="BW10" s="2"/>
       <c r="BX10" s="5"/>
-      <c r="BY10" s="5"/>
-      <c r="BZ10" s="5"/>
-      <c r="CA10" s="5"/>
+      <c r="BY10" s="2"/>
+      <c r="BZ10" s="14"/>
+      <c r="CA10" s="2"/>
       <c r="CB10" s="5"/>
-      <c r="CC10" s="5"/>
+      <c r="CC10" s="2"/>
       <c r="CD10" s="5"/>
       <c r="CE10" s="5"/>
       <c r="CF10" s="5"/>
@@ -1785,8 +1849,8 @@
       <c r="CS10" s="5"/>
       <c r="CT10" s="5"/>
       <c r="CU10" s="5"/>
-      <c r="CV10" s="5"/>
-      <c r="CW10" s="5"/>
+      <c r="CV10" s="2"/>
+      <c r="CW10" s="2"/>
       <c r="CX10" s="2"/>
     </row>
     <row r="11" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -1854,25 +1918,25 @@
       <c r="BH11" s="5"/>
       <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
-      <c r="BK11" s="5"/>
+      <c r="BK11" s="2"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="5"/>
-      <c r="BO11" s="5"/>
-      <c r="BP11" s="5"/>
-      <c r="BQ11" s="5"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="2"/>
       <c r="BR11" s="5"/>
       <c r="BS11" s="5"/>
       <c r="BT11" s="5"/>
       <c r="BU11" s="5"/>
       <c r="BV11" s="5"/>
-      <c r="BW11" s="5"/>
+      <c r="BW11" s="2"/>
       <c r="BX11" s="5"/>
-      <c r="BY11" s="5"/>
-      <c r="BZ11" s="5"/>
-      <c r="CA11" s="5"/>
+      <c r="BY11" s="2"/>
+      <c r="BZ11" s="2"/>
+      <c r="CA11" s="2"/>
       <c r="CB11" s="5"/>
-      <c r="CC11" s="5"/>
+      <c r="CC11" s="2"/>
       <c r="CD11" s="5"/>
       <c r="CE11" s="5"/>
       <c r="CF11" s="5"/>
@@ -1883,16 +1947,16 @@
       <c r="CK11" s="5"/>
       <c r="CL11" s="5"/>
       <c r="CM11" s="5"/>
-      <c r="CN11" s="5"/>
-      <c r="CO11" s="5"/>
-      <c r="CP11" s="5"/>
-      <c r="CQ11" s="5"/>
+      <c r="CN11" s="2"/>
+      <c r="CO11" s="2"/>
+      <c r="CP11" s="2"/>
+      <c r="CQ11" s="2"/>
       <c r="CR11" s="5"/>
       <c r="CS11" s="5"/>
       <c r="CT11" s="5"/>
-      <c r="CU11" s="5"/>
-      <c r="CV11" s="5"/>
-      <c r="CW11" s="5"/>
+      <c r="CU11" s="2"/>
+      <c r="CV11" s="2"/>
+      <c r="CW11" s="2"/>
       <c r="CX11" s="2"/>
     </row>
     <row r="12" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -1960,7 +2024,7 @@
       <c r="BH12" s="5"/>
       <c r="BI12" s="5"/>
       <c r="BJ12" s="5"/>
-      <c r="BK12" s="5"/>
+      <c r="BK12" s="1"/>
       <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
       <c r="BN12" s="5"/>
@@ -1972,13 +2036,13 @@
       <c r="BT12" s="5"/>
       <c r="BU12" s="5"/>
       <c r="BV12" s="5"/>
-      <c r="BW12" s="5"/>
+      <c r="BW12" s="2"/>
       <c r="BX12" s="5"/>
       <c r="BY12" s="5"/>
-      <c r="BZ12" s="5"/>
+      <c r="BZ12" s="2"/>
       <c r="CA12" s="5"/>
       <c r="CB12" s="5"/>
-      <c r="CC12" s="5"/>
+      <c r="CC12" s="2"/>
       <c r="CD12" s="5"/>
       <c r="CE12" s="5"/>
       <c r="CF12" s="5"/>
@@ -2066,7 +2130,7 @@
       <c r="BF13" s="5"/>
       <c r="BG13" s="5"/>
       <c r="BH13" s="5"/>
-      <c r="BI13" s="5"/>
+      <c r="BI13" s="2"/>
       <c r="BJ13" s="5"/>
       <c r="BK13" s="5"/>
       <c r="BL13" s="5"/>
@@ -2080,22 +2144,22 @@
       <c r="BT13" s="5"/>
       <c r="BU13" s="5"/>
       <c r="BV13" s="5"/>
-      <c r="BW13" s="5"/>
+      <c r="BW13" s="2"/>
       <c r="BX13" s="5"/>
       <c r="BY13" s="5"/>
-      <c r="BZ13" s="5"/>
+      <c r="BZ13" s="2"/>
       <c r="CA13" s="5"/>
       <c r="CB13" s="5"/>
-      <c r="CC13" s="5"/>
+      <c r="CC13" s="2"/>
       <c r="CD13" s="5"/>
       <c r="CE13" s="5"/>
       <c r="CF13" s="5"/>
       <c r="CG13" s="5"/>
       <c r="CH13" s="5"/>
-      <c r="CI13" s="5"/>
-      <c r="CJ13" s="5"/>
-      <c r="CK13" s="5"/>
-      <c r="CL13" s="5"/>
+      <c r="CI13" s="2"/>
+      <c r="CJ13" s="2"/>
+      <c r="CK13" s="2"/>
+      <c r="CL13" s="2"/>
       <c r="CM13" s="5"/>
       <c r="CN13" s="5"/>
       <c r="CO13" s="5"/>
@@ -2168,9 +2232,9 @@
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
       <c r="BH14" s="5"/>
       <c r="BI14" s="5"/>
       <c r="BJ14" s="5"/>
@@ -2186,13 +2250,13 @@
       <c r="BT14" s="5"/>
       <c r="BU14" s="5"/>
       <c r="BV14" s="5"/>
-      <c r="BW14" s="5"/>
+      <c r="BW14" s="2"/>
       <c r="BX14" s="5"/>
       <c r="BY14" s="5"/>
       <c r="BZ14" s="5"/>
       <c r="CA14" s="5"/>
       <c r="CB14" s="5"/>
-      <c r="CC14" s="5"/>
+      <c r="CC14" s="2"/>
       <c r="CD14" s="5"/>
       <c r="CE14" s="5"/>
       <c r="CF14" s="5"/>
@@ -2273,32 +2337,32 @@
       </c>
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="5"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
-      <c r="BK15" s="5"/>
-      <c r="BL15" s="5"/>
-      <c r="BM15" s="5"/>
-      <c r="BN15" s="5"/>
-      <c r="BO15" s="5"/>
-      <c r="BP15" s="5"/>
-      <c r="BQ15" s="5"/>
-      <c r="BR15" s="5"/>
-      <c r="BS15" s="5"/>
-      <c r="BT15" s="5"/>
-      <c r="BU15" s="5"/>
-      <c r="BV15" s="5"/>
-      <c r="BW15" s="5"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="14"/>
+      <c r="BL15" s="14"/>
+      <c r="BM15" s="14"/>
+      <c r="BN15" s="14"/>
+      <c r="BO15" s="14"/>
+      <c r="BP15" s="14"/>
+      <c r="BQ15" s="14"/>
+      <c r="BR15" s="14"/>
+      <c r="BS15" s="14"/>
+      <c r="BT15" s="14"/>
+      <c r="BU15" s="14"/>
+      <c r="BV15" s="14"/>
+      <c r="BW15" s="2"/>
       <c r="BX15" s="5"/>
       <c r="BY15" s="5"/>
       <c r="BZ15" s="5"/>
       <c r="CA15" s="5"/>
-      <c r="CB15" s="5"/>
-      <c r="CC15" s="5"/>
+      <c r="CB15" s="14"/>
+      <c r="CC15" s="2"/>
       <c r="CD15" s="5"/>
       <c r="CE15" s="5"/>
       <c r="CF15" s="5"/>
@@ -2309,10 +2373,10 @@
       <c r="CK15" s="5"/>
       <c r="CL15" s="5"/>
       <c r="CM15" s="5"/>
-      <c r="CN15" s="5"/>
-      <c r="CO15" s="5"/>
-      <c r="CP15" s="5"/>
-      <c r="CQ15" s="5"/>
+      <c r="CN15" s="2"/>
+      <c r="CO15" s="2"/>
+      <c r="CP15" s="2"/>
+      <c r="CQ15" s="2"/>
       <c r="CR15" s="5"/>
       <c r="CS15" s="5"/>
       <c r="CT15" s="5"/>
@@ -2384,29 +2448,29 @@
       <c r="BD16" s="5"/>
       <c r="BE16" s="5"/>
       <c r="BF16" s="5"/>
-      <c r="BG16" s="5"/>
-      <c r="BH16" s="5"/>
-      <c r="BI16" s="5"/>
-      <c r="BJ16" s="5"/>
-      <c r="BK16" s="5"/>
-      <c r="BL16" s="5"/>
-      <c r="BM16" s="5"/>
-      <c r="BN16" s="5"/>
-      <c r="BO16" s="5"/>
-      <c r="BP16" s="5"/>
-      <c r="BQ16" s="5"/>
-      <c r="BR16" s="5"/>
-      <c r="BS16" s="5"/>
-      <c r="BT16" s="5"/>
-      <c r="BU16" s="5"/>
-      <c r="BV16" s="5"/>
-      <c r="BW16" s="5"/>
-      <c r="BX16" s="5"/>
-      <c r="BY16" s="5"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="2"/>
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="2"/>
+      <c r="BT16" s="2"/>
+      <c r="BU16" s="2"/>
+      <c r="BV16" s="2"/>
+      <c r="BW16" s="2"/>
+      <c r="BX16" s="2"/>
+      <c r="BY16" s="2"/>
       <c r="BZ16" s="5"/>
-      <c r="CA16" s="5"/>
-      <c r="CB16" s="5"/>
-      <c r="CC16" s="5"/>
+      <c r="CA16" s="2"/>
+      <c r="CB16" s="2"/>
+      <c r="CC16" s="2"/>
       <c r="CD16" s="5"/>
       <c r="CE16" s="5"/>
       <c r="CF16" s="5"/>
@@ -2487,7 +2551,7 @@
       <c r="BA17" s="2">
         <v>16</v>
       </c>
-      <c r="BB17" s="5"/>
+      <c r="BB17" s="2"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="5"/>
@@ -2508,13 +2572,13 @@
       <c r="BT17" s="5"/>
       <c r="BU17" s="5"/>
       <c r="BV17" s="5"/>
-      <c r="BW17" s="5"/>
+      <c r="BW17" s="2"/>
       <c r="BX17" s="5"/>
       <c r="BY17" s="5"/>
       <c r="BZ17" s="5"/>
       <c r="CA17" s="5"/>
       <c r="CB17" s="5"/>
-      <c r="CC17" s="5"/>
+      <c r="CC17" s="2"/>
       <c r="CD17" s="5"/>
       <c r="CE17" s="5"/>
       <c r="CF17" s="5"/>
@@ -2530,7 +2594,7 @@
       <c r="CP17" s="5"/>
       <c r="CQ17" s="5"/>
       <c r="CR17" s="5"/>
-      <c r="CS17" s="5"/>
+      <c r="CS17" s="2"/>
       <c r="CT17" s="5"/>
       <c r="CU17" s="5"/>
       <c r="CV17" s="5"/>
@@ -2595,8 +2659,8 @@
       <c r="BA18" s="2">
         <v>17</v>
       </c>
-      <c r="BB18" s="5"/>
-      <c r="BC18" s="5"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="5"/>
       <c r="BF18" s="5"/>
@@ -2616,13 +2680,13 @@
       <c r="BT18" s="5"/>
       <c r="BU18" s="5"/>
       <c r="BV18" s="5"/>
-      <c r="BW18" s="5"/>
+      <c r="BW18" s="2"/>
       <c r="BX18" s="5"/>
       <c r="BY18" s="5"/>
       <c r="BZ18" s="5"/>
       <c r="CA18" s="5"/>
       <c r="CB18" s="5"/>
-      <c r="CC18" s="5"/>
+      <c r="CC18" s="2"/>
       <c r="CD18" s="5"/>
       <c r="CE18" s="5"/>
       <c r="CF18" s="5"/>
@@ -2638,8 +2702,8 @@
       <c r="CP18" s="5"/>
       <c r="CQ18" s="5"/>
       <c r="CR18" s="5"/>
-      <c r="CS18" s="5"/>
-      <c r="CT18" s="5"/>
+      <c r="CS18" s="2"/>
+      <c r="CT18" s="2"/>
       <c r="CU18" s="5"/>
       <c r="CV18" s="5"/>
       <c r="CW18" s="5"/>
@@ -2703,9 +2767,9 @@
       <c r="BA19" s="2">
         <v>18</v>
       </c>
-      <c r="BB19" s="5"/>
-      <c r="BC19" s="5"/>
-      <c r="BD19" s="5"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
       <c r="BE19" s="5"/>
       <c r="BF19" s="5"/>
       <c r="BG19" s="5"/>
@@ -2724,13 +2788,13 @@
       <c r="BT19" s="5"/>
       <c r="BU19" s="5"/>
       <c r="BV19" s="5"/>
-      <c r="BW19" s="5"/>
+      <c r="BW19" s="2"/>
       <c r="BX19" s="5"/>
-      <c r="BY19" s="5"/>
-      <c r="BZ19" s="5"/>
-      <c r="CA19" s="5"/>
+      <c r="BY19" s="14"/>
+      <c r="BZ19" s="14"/>
+      <c r="CA19" s="14"/>
       <c r="CB19" s="5"/>
-      <c r="CC19" s="5"/>
+      <c r="CC19" s="2"/>
       <c r="CD19" s="5"/>
       <c r="CE19" s="5"/>
       <c r="CF19" s="5"/>
@@ -2746,9 +2810,9 @@
       <c r="CP19" s="5"/>
       <c r="CQ19" s="5"/>
       <c r="CR19" s="5"/>
-      <c r="CS19" s="5"/>
-      <c r="CT19" s="5"/>
-      <c r="CU19" s="5"/>
+      <c r="CS19" s="2"/>
+      <c r="CT19" s="2"/>
+      <c r="CU19" s="2"/>
       <c r="CV19" s="5"/>
       <c r="CW19" s="5"/>
       <c r="CX19" s="2"/>
@@ -2809,10 +2873,10 @@
       <c r="BA20" s="2">
         <v>19</v>
       </c>
-      <c r="BB20" s="5"/>
-      <c r="BC20" s="5"/>
-      <c r="BD20" s="5"/>
-      <c r="BE20" s="5"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
       <c r="BF20" s="5"/>
       <c r="BG20" s="5"/>
       <c r="BH20" s="5"/>
@@ -2830,13 +2894,13 @@
       <c r="BT20" s="5"/>
       <c r="BU20" s="5"/>
       <c r="BV20" s="5"/>
-      <c r="BW20" s="5"/>
+      <c r="BW20" s="2"/>
       <c r="BX20" s="5"/>
-      <c r="BY20" s="5"/>
+      <c r="BY20" s="7"/>
       <c r="BZ20" s="5"/>
-      <c r="CA20" s="5"/>
+      <c r="CA20" s="7"/>
       <c r="CB20" s="5"/>
-      <c r="CC20" s="5"/>
+      <c r="CC20" s="2"/>
       <c r="CD20" s="5"/>
       <c r="CE20" s="5"/>
       <c r="CF20" s="5"/>
@@ -2854,8 +2918,8 @@
       <c r="CR20" s="5"/>
       <c r="CS20" s="5"/>
       <c r="CT20" s="5"/>
-      <c r="CU20" s="5"/>
-      <c r="CV20" s="5"/>
+      <c r="CU20" s="2"/>
+      <c r="CV20" s="2"/>
       <c r="CW20" s="5"/>
       <c r="CX20" s="2"/>
     </row>
@@ -2936,13 +3000,13 @@
       <c r="BT21" s="5"/>
       <c r="BU21" s="5"/>
       <c r="BV21" s="5"/>
-      <c r="BW21" s="5"/>
+      <c r="BW21" s="2"/>
       <c r="BX21" s="5"/>
-      <c r="BY21" s="5"/>
+      <c r="BY21" s="7"/>
       <c r="BZ21" s="5"/>
-      <c r="CA21" s="5"/>
+      <c r="CA21" s="7"/>
       <c r="CB21" s="5"/>
-      <c r="CC21" s="5"/>
+      <c r="CC21" s="2"/>
       <c r="CD21" s="5"/>
       <c r="CE21" s="5"/>
       <c r="CF21" s="5"/>
@@ -2953,7 +3017,7 @@
       <c r="CK21" s="5"/>
       <c r="CL21" s="5"/>
       <c r="CM21" s="5"/>
-      <c r="CN21" s="5"/>
+      <c r="CN21" s="14"/>
       <c r="CO21" s="5"/>
       <c r="CP21" s="5"/>
       <c r="CQ21" s="5"/>
@@ -3028,12 +3092,12 @@
       <c r="BD22" s="5"/>
       <c r="BE22" s="5"/>
       <c r="BF22" s="5"/>
-      <c r="BG22" s="5"/>
-      <c r="BH22" s="5"/>
-      <c r="BI22" s="5"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
       <c r="BJ22" s="5"/>
       <c r="BK22" s="5"/>
-      <c r="BL22" s="5"/>
+      <c r="BL22" s="2"/>
       <c r="BM22" s="5"/>
       <c r="BN22" s="5"/>
       <c r="BO22" s="5"/>
@@ -3044,13 +3108,13 @@
       <c r="BT22" s="5"/>
       <c r="BU22" s="5"/>
       <c r="BV22" s="5"/>
-      <c r="BW22" s="5"/>
-      <c r="BX22" s="5"/>
-      <c r="BY22" s="5"/>
-      <c r="BZ22" s="5"/>
-      <c r="CA22" s="5"/>
-      <c r="CB22" s="5"/>
-      <c r="CC22" s="5"/>
+      <c r="BW22" s="2"/>
+      <c r="BX22" s="2"/>
+      <c r="BY22" s="2"/>
+      <c r="BZ22" s="2"/>
+      <c r="CA22" s="2"/>
+      <c r="CB22" s="2"/>
+      <c r="CC22" s="2"/>
       <c r="CD22" s="5"/>
       <c r="CE22" s="5"/>
       <c r="CF22" s="5"/>
@@ -3059,18 +3123,18 @@
       <c r="CI22" s="5"/>
       <c r="CJ22" s="5"/>
       <c r="CK22" s="5"/>
-      <c r="CL22" s="5"/>
-      <c r="CM22" s="5"/>
-      <c r="CN22" s="5"/>
-      <c r="CO22" s="5"/>
+      <c r="CL22" s="2"/>
+      <c r="CM22" s="2"/>
+      <c r="CN22" s="2"/>
+      <c r="CO22" s="2"/>
       <c r="CP22" s="5"/>
       <c r="CQ22" s="5"/>
       <c r="CR22" s="5"/>
-      <c r="CS22" s="5"/>
-      <c r="CT22" s="5"/>
-      <c r="CU22" s="5"/>
-      <c r="CV22" s="5"/>
-      <c r="CW22" s="5"/>
+      <c r="CS22" s="2"/>
+      <c r="CT22" s="2"/>
+      <c r="CU22" s="2"/>
+      <c r="CV22" s="2"/>
+      <c r="CW22" s="2"/>
       <c r="CX22" s="2"/>
     </row>
     <row r="23" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -3139,8 +3203,8 @@
       <c r="BI23" s="5"/>
       <c r="BJ23" s="5"/>
       <c r="BK23" s="5"/>
-      <c r="BL23" s="5"/>
-      <c r="BM23" s="5"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
       <c r="BN23" s="5"/>
       <c r="BO23" s="5"/>
       <c r="BP23" s="5"/>
@@ -3257,7 +3321,7 @@
       <c r="BQ24" s="2"/>
       <c r="BR24" s="2"/>
       <c r="BS24" s="2"/>
-      <c r="BT24" s="2"/>
+      <c r="BT24" s="5"/>
       <c r="BU24" s="5"/>
       <c r="BV24" s="5"/>
       <c r="BW24" s="5"/>
@@ -3360,10 +3424,10 @@
       <c r="BN25" s="5"/>
       <c r="BO25" s="5"/>
       <c r="BP25" s="5"/>
-      <c r="BQ25" s="5"/>
-      <c r="BR25" s="5"/>
-      <c r="BS25" s="5"/>
-      <c r="BT25" s="5"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
       <c r="BU25" s="5"/>
       <c r="BV25" s="5"/>
       <c r="BW25" s="5"/>
@@ -3581,15 +3645,15 @@
       <c r="BS27" s="5"/>
       <c r="BT27" s="5"/>
       <c r="BU27" s="5"/>
-      <c r="BV27" s="5"/>
-      <c r="BW27" s="2"/>
+      <c r="BV27" s="2"/>
+      <c r="BW27" s="19"/>
       <c r="BX27" s="2"/>
       <c r="BY27" s="2"/>
       <c r="BZ27" s="2"/>
       <c r="CA27" s="2"/>
       <c r="CB27" s="2"/>
       <c r="CC27" s="2"/>
-      <c r="CD27" s="5"/>
+      <c r="CD27" s="2"/>
       <c r="CE27" s="5"/>
       <c r="CF27" s="5"/>
       <c r="CG27" s="5"/>
@@ -3687,15 +3751,15 @@
       <c r="BS28" s="5"/>
       <c r="BT28" s="5"/>
       <c r="BU28" s="5"/>
-      <c r="BV28" s="5"/>
-      <c r="BW28" s="5"/>
+      <c r="BV28" s="2"/>
+      <c r="BW28" s="16"/>
       <c r="BX28" s="5"/>
       <c r="BY28" s="5"/>
       <c r="BZ28" s="5"/>
       <c r="CA28" s="5"/>
       <c r="CB28" s="5"/>
-      <c r="CC28" s="5"/>
-      <c r="CD28" s="5"/>
+      <c r="CC28" s="16"/>
+      <c r="CD28" s="2"/>
       <c r="CE28" s="5"/>
       <c r="CF28" s="5"/>
       <c r="CG28" s="5"/>
@@ -3795,20 +3859,20 @@
       <c r="BS29" s="2"/>
       <c r="BT29" s="2"/>
       <c r="BU29" s="5"/>
-      <c r="BV29" s="5"/>
-      <c r="BW29" s="5"/>
-      <c r="BX29" s="5"/>
-      <c r="BY29" s="5"/>
-      <c r="BZ29" s="5"/>
-      <c r="CA29" s="5"/>
-      <c r="CB29" s="5"/>
-      <c r="CC29" s="5"/>
-      <c r="CD29" s="5"/>
+      <c r="BV29" s="2"/>
+      <c r="BW29" s="20"/>
+      <c r="BX29" s="19"/>
+      <c r="BY29" s="19"/>
+      <c r="BZ29" s="16"/>
+      <c r="CA29" s="19"/>
+      <c r="CB29" s="19"/>
+      <c r="CC29" s="20"/>
+      <c r="CD29" s="2"/>
       <c r="CE29" s="5"/>
-      <c r="CF29" s="2"/>
+      <c r="CF29" s="5"/>
       <c r="CG29" s="2"/>
       <c r="CH29" s="2"/>
-      <c r="CI29" s="2"/>
+      <c r="CI29" s="5"/>
       <c r="CJ29" s="5"/>
       <c r="CK29" s="5"/>
       <c r="CL29" s="5"/>
@@ -3898,18 +3962,18 @@
       <c r="BP30" s="5"/>
       <c r="BQ30" s="5"/>
       <c r="BR30" s="5"/>
-      <c r="BS30" s="5"/>
-      <c r="BT30" s="5"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
       <c r="BU30" s="5"/>
-      <c r="BV30" s="5"/>
-      <c r="BW30" s="5"/>
-      <c r="BX30" s="5"/>
-      <c r="BY30" s="5"/>
-      <c r="BZ30" s="5"/>
-      <c r="CA30" s="5"/>
-      <c r="CB30" s="5"/>
-      <c r="CC30" s="5"/>
-      <c r="CD30" s="5"/>
+      <c r="BV30" s="2"/>
+      <c r="BW30" s="20"/>
+      <c r="BX30" s="19"/>
+      <c r="BY30" s="16"/>
+      <c r="BZ30" s="16"/>
+      <c r="CA30" s="16"/>
+      <c r="CB30" s="19"/>
+      <c r="CC30" s="20"/>
+      <c r="CD30" s="2"/>
       <c r="CE30" s="5"/>
       <c r="CF30" s="5"/>
       <c r="CG30" s="5"/>
@@ -4006,18 +4070,18 @@
       <c r="BP31" s="5"/>
       <c r="BQ31" s="5"/>
       <c r="BR31" s="5"/>
-      <c r="BS31" s="5"/>
-      <c r="BT31" s="5"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
       <c r="BU31" s="5"/>
-      <c r="BV31" s="5"/>
-      <c r="BW31" s="5"/>
-      <c r="BX31" s="5"/>
-      <c r="BY31" s="5"/>
-      <c r="BZ31" s="5"/>
-      <c r="CA31" s="5"/>
-      <c r="CB31" s="5"/>
-      <c r="CC31" s="5"/>
-      <c r="CD31" s="5"/>
+      <c r="BV31" s="2"/>
+      <c r="BW31" s="20"/>
+      <c r="BX31" s="19"/>
+      <c r="BY31" s="16"/>
+      <c r="BZ31" s="16"/>
+      <c r="CA31" s="16"/>
+      <c r="CB31" s="19"/>
+      <c r="CC31" s="20"/>
+      <c r="CD31" s="2"/>
       <c r="CE31" s="5"/>
       <c r="CF31" s="5"/>
       <c r="CG31" s="5"/>
@@ -4031,12 +4095,12 @@
       <c r="CO31" s="5"/>
       <c r="CP31" s="5"/>
       <c r="CQ31" s="5"/>
-      <c r="CR31" s="5"/>
-      <c r="CS31" s="5"/>
-      <c r="CT31" s="5"/>
-      <c r="CU31" s="5"/>
-      <c r="CV31" s="5"/>
-      <c r="CW31" s="5"/>
+      <c r="CR31" s="14"/>
+      <c r="CS31" s="14"/>
+      <c r="CT31" s="14"/>
+      <c r="CU31" s="14"/>
+      <c r="CV31" s="14"/>
+      <c r="CW31" s="14"/>
       <c r="CX31" s="2"/>
     </row>
     <row r="32" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -4095,54 +4159,54 @@
       <c r="BA32" s="2">
         <v>31</v>
       </c>
-      <c r="BB32" s="5"/>
-      <c r="BC32" s="5"/>
-      <c r="BD32" s="5"/>
-      <c r="BE32" s="5"/>
-      <c r="BF32" s="5"/>
-      <c r="BG32" s="5"/>
-      <c r="BH32" s="5"/>
-      <c r="BI32" s="5"/>
-      <c r="BJ32" s="5"/>
-      <c r="BK32" s="5"/>
-      <c r="BL32" s="5"/>
-      <c r="BM32" s="5"/>
-      <c r="BN32" s="5"/>
-      <c r="BO32" s="5"/>
-      <c r="BP32" s="5"/>
+      <c r="BB32" s="14"/>
+      <c r="BC32" s="14"/>
+      <c r="BD32" s="14"/>
+      <c r="BE32" s="14"/>
+      <c r="BF32" s="14"/>
+      <c r="BG32" s="14"/>
+      <c r="BH32" s="14"/>
+      <c r="BI32" s="14"/>
+      <c r="BJ32" s="14"/>
+      <c r="BK32" s="14"/>
+      <c r="BL32" s="14"/>
+      <c r="BM32" s="14"/>
+      <c r="BN32" s="14"/>
+      <c r="BO32" s="14"/>
+      <c r="BP32" s="14"/>
       <c r="BQ32" s="5"/>
       <c r="BR32" s="5"/>
-      <c r="BS32" s="5"/>
-      <c r="BT32" s="5"/>
+      <c r="BS32" s="2"/>
+      <c r="BT32" s="2"/>
       <c r="BU32" s="5"/>
-      <c r="BV32" s="5"/>
-      <c r="BW32" s="5"/>
-      <c r="BX32" s="5"/>
-      <c r="BY32" s="5"/>
-      <c r="BZ32" s="5"/>
-      <c r="CA32" s="5"/>
-      <c r="CB32" s="5"/>
-      <c r="CC32" s="5"/>
-      <c r="CD32" s="5"/>
-      <c r="CE32" s="5"/>
-      <c r="CF32" s="5"/>
-      <c r="CG32" s="5"/>
-      <c r="CH32" s="5"/>
+      <c r="BV32" s="2"/>
+      <c r="BW32" s="20"/>
+      <c r="BX32" s="21"/>
+      <c r="BY32" s="7"/>
+      <c r="BZ32" s="14"/>
+      <c r="CA32" s="7"/>
+      <c r="CB32" s="21"/>
+      <c r="CC32" s="20"/>
+      <c r="CD32" s="2"/>
+      <c r="CE32" s="14"/>
+      <c r="CF32" s="14"/>
+      <c r="CG32" s="14"/>
+      <c r="CH32" s="14"/>
       <c r="CI32" s="5"/>
-      <c r="CJ32" s="5"/>
+      <c r="CJ32" s="14"/>
       <c r="CK32" s="5"/>
-      <c r="CL32" s="5"/>
-      <c r="CM32" s="5"/>
-      <c r="CN32" s="5"/>
-      <c r="CO32" s="5"/>
+      <c r="CL32" s="14"/>
+      <c r="CM32" s="14"/>
+      <c r="CN32" s="18"/>
+      <c r="CO32" s="17"/>
       <c r="CP32" s="5"/>
       <c r="CQ32" s="5"/>
-      <c r="CR32" s="5"/>
-      <c r="CS32" s="5"/>
-      <c r="CT32" s="5"/>
-      <c r="CU32" s="5"/>
-      <c r="CV32" s="5"/>
-      <c r="CW32" s="5"/>
+      <c r="CR32" s="2"/>
+      <c r="CS32" s="2"/>
+      <c r="CT32" s="2"/>
+      <c r="CU32" s="2"/>
+      <c r="CV32" s="2"/>
+      <c r="CW32" s="2"/>
       <c r="CX32" s="2"/>
     </row>
     <row r="33" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -4203,54 +4267,54 @@
       <c r="BA33" s="2">
         <v>32</v>
       </c>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
-      <c r="BK33" s="5"/>
-      <c r="BL33" s="5"/>
-      <c r="BM33" s="5"/>
-      <c r="BN33" s="5"/>
-      <c r="BO33" s="5"/>
-      <c r="BP33" s="5"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
       <c r="BQ33" s="5"/>
       <c r="BR33" s="5"/>
-      <c r="BS33" s="5"/>
-      <c r="BT33" s="5"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
       <c r="BU33" s="5"/>
       <c r="BV33" s="5"/>
-      <c r="BW33" s="5"/>
-      <c r="BX33" s="5"/>
-      <c r="BY33" s="5"/>
+      <c r="BW33" s="13"/>
+      <c r="BX33" s="2"/>
+      <c r="BY33" s="7"/>
       <c r="BZ33" s="5"/>
-      <c r="CA33" s="5"/>
-      <c r="CB33" s="5"/>
-      <c r="CC33" s="5"/>
-      <c r="CD33" s="5"/>
-      <c r="CE33" s="5"/>
-      <c r="CF33" s="5"/>
-      <c r="CG33" s="5"/>
-      <c r="CH33" s="5"/>
-      <c r="CI33" s="5"/>
-      <c r="CJ33" s="5"/>
-      <c r="CK33" s="5"/>
-      <c r="CL33" s="5"/>
-      <c r="CM33" s="5"/>
-      <c r="CN33" s="5"/>
-      <c r="CO33" s="5"/>
+      <c r="CA33" s="7"/>
+      <c r="CB33" s="2"/>
+      <c r="CC33" s="20"/>
+      <c r="CD33" s="2"/>
+      <c r="CE33" s="2"/>
+      <c r="CF33" s="2"/>
+      <c r="CG33" s="2"/>
+      <c r="CH33" s="2"/>
+      <c r="CI33" s="2"/>
+      <c r="CJ33" s="2"/>
+      <c r="CK33" s="2"/>
+      <c r="CL33" s="2"/>
+      <c r="CM33" s="2"/>
+      <c r="CN33" s="18"/>
+      <c r="CO33" s="18"/>
       <c r="CP33" s="5"/>
       <c r="CQ33" s="5"/>
-      <c r="CR33" s="5"/>
-      <c r="CS33" s="5"/>
-      <c r="CT33" s="5"/>
-      <c r="CU33" s="5"/>
-      <c r="CV33" s="5"/>
-      <c r="CW33" s="5"/>
+      <c r="CR33" s="2"/>
+      <c r="CS33" s="2"/>
+      <c r="CT33" s="2"/>
+      <c r="CU33" s="2"/>
+      <c r="CV33" s="2"/>
+      <c r="CW33" s="2"/>
       <c r="CX33" s="2"/>
     </row>
     <row r="34" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -4313,7 +4377,7 @@
       <c r="BC34" s="5"/>
       <c r="BD34" s="5"/>
       <c r="BE34" s="5"/>
-      <c r="BF34" s="5"/>
+      <c r="BF34" s="1"/>
       <c r="BG34" s="5"/>
       <c r="BH34" s="5"/>
       <c r="BI34" s="5"/>
@@ -4326,37 +4390,37 @@
       <c r="BP34" s="5"/>
       <c r="BQ34" s="5"/>
       <c r="BR34" s="5"/>
-      <c r="BS34" s="5"/>
-      <c r="BT34" s="5"/>
+      <c r="BS34" s="2"/>
+      <c r="BT34" s="2"/>
       <c r="BU34" s="5"/>
       <c r="BV34" s="5"/>
-      <c r="BW34" s="5"/>
-      <c r="BX34" s="5"/>
-      <c r="BY34" s="5"/>
+      <c r="BW34" s="13"/>
+      <c r="BX34" s="2"/>
+      <c r="BY34" s="14"/>
       <c r="BZ34" s="5"/>
-      <c r="CA34" s="5"/>
-      <c r="CB34" s="5"/>
-      <c r="CC34" s="5"/>
-      <c r="CD34" s="5"/>
-      <c r="CE34" s="5"/>
-      <c r="CF34" s="5"/>
-      <c r="CG34" s="5"/>
-      <c r="CH34" s="5"/>
-      <c r="CI34" s="5"/>
-      <c r="CJ34" s="5"/>
-      <c r="CK34" s="5"/>
-      <c r="CL34" s="5"/>
-      <c r="CM34" s="5"/>
-      <c r="CN34" s="5"/>
-      <c r="CO34" s="5"/>
+      <c r="CA34" s="14"/>
+      <c r="CB34" s="2"/>
+      <c r="CC34" s="13"/>
+      <c r="CD34" s="2"/>
+      <c r="CE34" s="2"/>
+      <c r="CF34" s="2"/>
+      <c r="CG34" s="2"/>
+      <c r="CH34" s="2"/>
+      <c r="CI34" s="2"/>
+      <c r="CJ34" s="2"/>
+      <c r="CK34" s="2"/>
+      <c r="CL34" s="2"/>
+      <c r="CM34" s="2"/>
+      <c r="CN34" s="2"/>
+      <c r="CO34" s="2"/>
       <c r="CP34" s="5"/>
       <c r="CQ34" s="5"/>
-      <c r="CR34" s="5"/>
-      <c r="CS34" s="5"/>
-      <c r="CT34" s="5"/>
-      <c r="CU34" s="5"/>
-      <c r="CV34" s="5"/>
-      <c r="CW34" s="5"/>
+      <c r="CR34" s="2"/>
+      <c r="CS34" s="2"/>
+      <c r="CT34" s="2"/>
+      <c r="CU34" s="2"/>
+      <c r="CV34" s="2"/>
+      <c r="CW34" s="2"/>
       <c r="CX34" s="2"/>
     </row>
     <row r="35" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -4424,7 +4488,7 @@
       <c r="BH35" s="5"/>
       <c r="BI35" s="5"/>
       <c r="BJ35" s="5"/>
-      <c r="BK35" s="5"/>
+      <c r="BK35" s="1"/>
       <c r="BL35" s="5"/>
       <c r="BM35" s="5"/>
       <c r="BN35" s="5"/>
@@ -4432,37 +4496,37 @@
       <c r="BP35" s="5"/>
       <c r="BQ35" s="5"/>
       <c r="BR35" s="5"/>
-      <c r="BS35" s="5"/>
-      <c r="BT35" s="5"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
       <c r="BU35" s="5"/>
       <c r="BV35" s="5"/>
-      <c r="BW35" s="5"/>
-      <c r="BX35" s="5"/>
-      <c r="BY35" s="5"/>
-      <c r="BZ35" s="5"/>
-      <c r="CA35" s="5"/>
-      <c r="CB35" s="5"/>
-      <c r="CC35" s="5"/>
-      <c r="CD35" s="5"/>
-      <c r="CE35" s="5"/>
-      <c r="CF35" s="5"/>
-      <c r="CG35" s="5"/>
-      <c r="CH35" s="5"/>
-      <c r="CI35" s="5"/>
-      <c r="CJ35" s="5"/>
-      <c r="CK35" s="5"/>
-      <c r="CL35" s="5"/>
-      <c r="CM35" s="5"/>
-      <c r="CN35" s="5"/>
-      <c r="CO35" s="5"/>
+      <c r="BW35" s="13"/>
+      <c r="BX35" s="19"/>
+      <c r="BY35" s="2"/>
+      <c r="BZ35" s="2"/>
+      <c r="CA35" s="2"/>
+      <c r="CB35" s="19"/>
+      <c r="CC35" s="13"/>
+      <c r="CD35" s="2"/>
+      <c r="CE35" s="2"/>
+      <c r="CF35" s="2"/>
+      <c r="CG35" s="2"/>
+      <c r="CH35" s="2"/>
+      <c r="CI35" s="2"/>
+      <c r="CJ35" s="2"/>
+      <c r="CK35" s="2"/>
+      <c r="CL35" s="2"/>
+      <c r="CM35" s="2"/>
+      <c r="CN35" s="2"/>
+      <c r="CO35" s="2"/>
       <c r="CP35" s="5"/>
       <c r="CQ35" s="5"/>
-      <c r="CR35" s="5"/>
-      <c r="CS35" s="5"/>
-      <c r="CT35" s="5"/>
-      <c r="CU35" s="5"/>
-      <c r="CV35" s="5"/>
-      <c r="CW35" s="5"/>
+      <c r="CR35" s="2"/>
+      <c r="CS35" s="2"/>
+      <c r="CT35" s="2"/>
+      <c r="CU35" s="2"/>
+      <c r="CV35" s="2"/>
+      <c r="CW35" s="2"/>
       <c r="CX35" s="2"/>
     </row>
     <row r="36" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -4522,53 +4586,53 @@
         <v>35</v>
       </c>
       <c r="BB36" s="5"/>
-      <c r="BC36" s="5"/>
-      <c r="BD36" s="5"/>
-      <c r="BE36" s="5"/>
-      <c r="BF36" s="5"/>
-      <c r="BG36" s="5"/>
-      <c r="BH36" s="5"/>
-      <c r="BI36" s="5"/>
-      <c r="BJ36" s="5"/>
-      <c r="BK36" s="5"/>
-      <c r="BL36" s="5"/>
-      <c r="BM36" s="5"/>
-      <c r="BN36" s="5"/>
-      <c r="BO36" s="5"/>
-      <c r="BP36" s="5"/>
-      <c r="BQ36" s="5"/>
-      <c r="BR36" s="5"/>
-      <c r="BS36" s="5"/>
-      <c r="BT36" s="5"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
+      <c r="BQ36" s="2"/>
+      <c r="BR36" s="2"/>
+      <c r="BS36" s="2"/>
+      <c r="BT36" s="2"/>
       <c r="BU36" s="5"/>
       <c r="BV36" s="5"/>
-      <c r="BW36" s="5"/>
-      <c r="BX36" s="5"/>
+      <c r="BW36" s="13"/>
+      <c r="BX36" s="16"/>
       <c r="BY36" s="5"/>
-      <c r="BZ36" s="5"/>
+      <c r="BZ36" s="2"/>
       <c r="CA36" s="5"/>
-      <c r="CB36" s="5"/>
-      <c r="CC36" s="5"/>
-      <c r="CD36" s="5"/>
-      <c r="CE36" s="5"/>
-      <c r="CF36" s="5"/>
-      <c r="CG36" s="5"/>
-      <c r="CH36" s="5"/>
-      <c r="CI36" s="5"/>
-      <c r="CJ36" s="5"/>
-      <c r="CK36" s="5"/>
-      <c r="CL36" s="5"/>
-      <c r="CM36" s="5"/>
-      <c r="CN36" s="5"/>
-      <c r="CO36" s="5"/>
+      <c r="CB36" s="16"/>
+      <c r="CC36" s="13"/>
+      <c r="CD36" s="2"/>
+      <c r="CE36" s="2"/>
+      <c r="CF36" s="2"/>
+      <c r="CG36" s="2"/>
+      <c r="CH36" s="2"/>
+      <c r="CI36" s="2"/>
+      <c r="CJ36" s="2"/>
+      <c r="CK36" s="2"/>
+      <c r="CL36" s="2"/>
+      <c r="CM36" s="2"/>
+      <c r="CN36" s="2"/>
+      <c r="CO36" s="2"/>
       <c r="CP36" s="5"/>
       <c r="CQ36" s="5"/>
-      <c r="CR36" s="5"/>
-      <c r="CS36" s="5"/>
-      <c r="CT36" s="5"/>
-      <c r="CU36" s="5"/>
-      <c r="CV36" s="5"/>
-      <c r="CW36" s="5"/>
+      <c r="CR36" s="2"/>
+      <c r="CS36" s="2"/>
+      <c r="CT36" s="2"/>
+      <c r="CU36" s="2"/>
+      <c r="CV36" s="2"/>
+      <c r="CW36" s="2"/>
       <c r="CX36" s="2"/>
     </row>
     <row r="37" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -4644,37 +4708,37 @@
       <c r="BP37" s="5"/>
       <c r="BQ37" s="5"/>
       <c r="BR37" s="5"/>
-      <c r="BS37" s="5"/>
-      <c r="BT37" s="5"/>
+      <c r="BS37" s="2"/>
+      <c r="BT37" s="2"/>
       <c r="BU37" s="5"/>
       <c r="BV37" s="5"/>
-      <c r="BW37" s="5"/>
-      <c r="BX37" s="5"/>
+      <c r="BW37" s="13"/>
+      <c r="BX37" s="16"/>
       <c r="BY37" s="5"/>
-      <c r="BZ37" s="5"/>
+      <c r="BZ37" s="2"/>
       <c r="CA37" s="5"/>
-      <c r="CB37" s="5"/>
-      <c r="CC37" s="5"/>
-      <c r="CD37" s="5"/>
-      <c r="CE37" s="5"/>
-      <c r="CF37" s="5"/>
-      <c r="CG37" s="5"/>
-      <c r="CH37" s="5"/>
-      <c r="CI37" s="5"/>
-      <c r="CJ37" s="5"/>
-      <c r="CK37" s="5"/>
-      <c r="CL37" s="5"/>
-      <c r="CM37" s="5"/>
-      <c r="CN37" s="5"/>
-      <c r="CO37" s="5"/>
+      <c r="CB37" s="16"/>
+      <c r="CC37" s="13"/>
+      <c r="CD37" s="2"/>
+      <c r="CE37" s="2"/>
+      <c r="CF37" s="2"/>
+      <c r="CG37" s="2"/>
+      <c r="CH37" s="2"/>
+      <c r="CI37" s="2"/>
+      <c r="CJ37" s="2"/>
+      <c r="CK37" s="2"/>
+      <c r="CL37" s="2"/>
+      <c r="CM37" s="2"/>
+      <c r="CN37" s="2"/>
+      <c r="CO37" s="2"/>
       <c r="CP37" s="5"/>
       <c r="CQ37" s="5"/>
-      <c r="CR37" s="5"/>
-      <c r="CS37" s="5"/>
-      <c r="CT37" s="5"/>
-      <c r="CU37" s="5"/>
-      <c r="CV37" s="5"/>
-      <c r="CW37" s="5"/>
+      <c r="CR37" s="2"/>
+      <c r="CS37" s="2"/>
+      <c r="CT37" s="2"/>
+      <c r="CU37" s="2"/>
+      <c r="CV37" s="2"/>
+      <c r="CW37" s="2"/>
       <c r="CX37" s="2"/>
     </row>
     <row r="38" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -4733,7 +4797,7 @@
       <c r="BA38" s="2">
         <v>37</v>
       </c>
-      <c r="BB38" s="5"/>
+      <c r="BB38" s="2"/>
       <c r="BC38" s="5"/>
       <c r="BD38" s="5"/>
       <c r="BE38" s="5"/>
@@ -4750,19 +4814,19 @@
       <c r="BP38" s="5"/>
       <c r="BQ38" s="5"/>
       <c r="BR38" s="5"/>
-      <c r="BS38" s="5"/>
-      <c r="BT38" s="5"/>
+      <c r="BS38" s="2"/>
+      <c r="BT38" s="2"/>
       <c r="BU38" s="5"/>
       <c r="BV38" s="5"/>
-      <c r="BW38" s="5"/>
-      <c r="BX38" s="5"/>
+      <c r="BW38" s="13"/>
+      <c r="BX38" s="16"/>
       <c r="BY38" s="5"/>
-      <c r="BZ38" s="5"/>
+      <c r="BZ38" s="2"/>
       <c r="CA38" s="5"/>
-      <c r="CB38" s="5"/>
-      <c r="CC38" s="5"/>
-      <c r="CD38" s="5"/>
-      <c r="CE38" s="5"/>
+      <c r="CB38" s="16"/>
+      <c r="CC38" s="13"/>
+      <c r="CD38" s="2"/>
+      <c r="CE38" s="2"/>
       <c r="CF38" s="5"/>
       <c r="CG38" s="5"/>
       <c r="CH38" s="5"/>
@@ -4772,15 +4836,15 @@
       <c r="CL38" s="5"/>
       <c r="CM38" s="5"/>
       <c r="CN38" s="5"/>
-      <c r="CO38" s="5"/>
+      <c r="CO38" s="2"/>
       <c r="CP38" s="5"/>
       <c r="CQ38" s="5"/>
-      <c r="CR38" s="5"/>
-      <c r="CS38" s="5"/>
-      <c r="CT38" s="5"/>
-      <c r="CU38" s="5"/>
-      <c r="CV38" s="5"/>
-      <c r="CW38" s="5"/>
+      <c r="CR38" s="2"/>
+      <c r="CS38" s="2"/>
+      <c r="CT38" s="2"/>
+      <c r="CU38" s="2"/>
+      <c r="CV38" s="2"/>
+      <c r="CW38" s="2"/>
       <c r="CX38" s="2"/>
     </row>
     <row r="39" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -4839,8 +4903,8 @@
       <c r="BA39" s="2">
         <v>38</v>
       </c>
-      <c r="BB39" s="5"/>
-      <c r="BC39" s="5"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
       <c r="BD39" s="5"/>
       <c r="BE39" s="5"/>
       <c r="BF39" s="5"/>
@@ -4856,19 +4920,19 @@
       <c r="BP39" s="5"/>
       <c r="BQ39" s="5"/>
       <c r="BR39" s="5"/>
-      <c r="BS39" s="5"/>
-      <c r="BT39" s="5"/>
+      <c r="BS39" s="2"/>
+      <c r="BT39" s="2"/>
       <c r="BU39" s="5"/>
       <c r="BV39" s="5"/>
-      <c r="BW39" s="5"/>
-      <c r="BX39" s="5"/>
+      <c r="BW39" s="13"/>
+      <c r="BX39" s="16"/>
       <c r="BY39" s="5"/>
-      <c r="BZ39" s="5"/>
+      <c r="BZ39" s="2"/>
       <c r="CA39" s="5"/>
-      <c r="CB39" s="5"/>
-      <c r="CC39" s="5"/>
-      <c r="CD39" s="5"/>
-      <c r="CE39" s="5"/>
+      <c r="CB39" s="16"/>
+      <c r="CC39" s="13"/>
+      <c r="CD39" s="2"/>
+      <c r="CE39" s="2"/>
       <c r="CF39" s="5"/>
       <c r="CG39" s="5"/>
       <c r="CH39" s="5"/>
@@ -4878,15 +4942,15 @@
       <c r="CL39" s="5"/>
       <c r="CM39" s="5"/>
       <c r="CN39" s="5"/>
-      <c r="CO39" s="5"/>
+      <c r="CO39" s="2"/>
       <c r="CP39" s="5"/>
       <c r="CQ39" s="5"/>
-      <c r="CR39" s="5"/>
-      <c r="CS39" s="5"/>
-      <c r="CT39" s="5"/>
-      <c r="CU39" s="5"/>
-      <c r="CV39" s="5"/>
-      <c r="CW39" s="5"/>
+      <c r="CR39" s="2"/>
+      <c r="CS39" s="2"/>
+      <c r="CT39" s="2"/>
+      <c r="CU39" s="2"/>
+      <c r="CV39" s="2"/>
+      <c r="CW39" s="2"/>
       <c r="CX39" s="2"/>
     </row>
     <row r="40" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -4947,36 +5011,36 @@
       <c r="BA40" s="2">
         <v>39</v>
       </c>
-      <c r="BB40" s="5"/>
-      <c r="BC40" s="5"/>
-      <c r="BD40" s="5"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
       <c r="BE40" s="5"/>
       <c r="BF40" s="5"/>
-      <c r="BG40" s="5"/>
+      <c r="BG40" s="2"/>
       <c r="BH40" s="5"/>
       <c r="BI40" s="5"/>
-      <c r="BJ40" s="5"/>
+      <c r="BJ40" s="2"/>
       <c r="BK40" s="5"/>
       <c r="BL40" s="5"/>
-      <c r="BM40" s="5"/>
+      <c r="BM40" s="2"/>
       <c r="BN40" s="5"/>
       <c r="BO40" s="5"/>
-      <c r="BP40" s="5"/>
+      <c r="BP40" s="2"/>
       <c r="BQ40" s="5"/>
       <c r="BR40" s="5"/>
-      <c r="BS40" s="5"/>
-      <c r="BT40" s="5"/>
+      <c r="BS40" s="2"/>
+      <c r="BT40" s="2"/>
       <c r="BU40" s="5"/>
       <c r="BV40" s="5"/>
-      <c r="BW40" s="5"/>
-      <c r="BX40" s="5"/>
+      <c r="BW40" s="13"/>
+      <c r="BX40" s="16"/>
       <c r="BY40" s="5"/>
-      <c r="BZ40" s="5"/>
+      <c r="BZ40" s="2"/>
       <c r="CA40" s="5"/>
-      <c r="CB40" s="5"/>
-      <c r="CC40" s="5"/>
-      <c r="CD40" s="5"/>
-      <c r="CE40" s="5"/>
+      <c r="CB40" s="16"/>
+      <c r="CC40" s="13"/>
+      <c r="CD40" s="2"/>
+      <c r="CE40" s="2"/>
       <c r="CF40" s="5"/>
       <c r="CG40" s="5"/>
       <c r="CH40" s="5"/>
@@ -4986,15 +5050,15 @@
       <c r="CL40" s="5"/>
       <c r="CM40" s="5"/>
       <c r="CN40" s="5"/>
-      <c r="CO40" s="5"/>
+      <c r="CO40" s="2"/>
       <c r="CP40" s="5"/>
       <c r="CQ40" s="5"/>
-      <c r="CR40" s="5"/>
-      <c r="CS40" s="5"/>
-      <c r="CT40" s="5"/>
-      <c r="CU40" s="5"/>
-      <c r="CV40" s="5"/>
-      <c r="CW40" s="5"/>
+      <c r="CR40" s="2"/>
+      <c r="CS40" s="2"/>
+      <c r="CT40" s="2"/>
+      <c r="CU40" s="2"/>
+      <c r="CV40" s="2"/>
+      <c r="CW40" s="2"/>
       <c r="CX40" s="2"/>
     </row>
     <row r="41" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -5053,41 +5117,41 @@
       <c r="BA41" s="2">
         <v>40</v>
       </c>
-      <c r="BB41" s="5"/>
-      <c r="BC41" s="5"/>
-      <c r="BD41" s="5"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
       <c r="BE41" s="5"/>
       <c r="BF41" s="5"/>
-      <c r="BG41" s="5"/>
+      <c r="BG41" s="1"/>
       <c r="BH41" s="5"/>
       <c r="BI41" s="5"/>
-      <c r="BJ41" s="5"/>
+      <c r="BJ41" s="1"/>
       <c r="BK41" s="5"/>
       <c r="BL41" s="5"/>
       <c r="BM41" s="5"/>
       <c r="BN41" s="5"/>
       <c r="BO41" s="5"/>
-      <c r="BP41" s="5"/>
+      <c r="BP41" s="1"/>
       <c r="BQ41" s="5"/>
       <c r="BR41" s="5"/>
-      <c r="BS41" s="5"/>
-      <c r="BT41" s="5"/>
+      <c r="BS41" s="2"/>
+      <c r="BT41" s="15"/>
       <c r="BU41" s="5"/>
       <c r="BV41" s="5"/>
-      <c r="BW41" s="5"/>
-      <c r="BX41" s="5"/>
+      <c r="BW41" s="13"/>
+      <c r="BX41" s="16"/>
       <c r="BY41" s="5"/>
       <c r="BZ41" s="5"/>
       <c r="CA41" s="5"/>
-      <c r="CB41" s="5"/>
-      <c r="CC41" s="5"/>
-      <c r="CD41" s="5"/>
-      <c r="CE41" s="5"/>
+      <c r="CB41" s="16"/>
+      <c r="CC41" s="13"/>
+      <c r="CD41" s="15"/>
+      <c r="CE41" s="2"/>
       <c r="CF41" s="5"/>
       <c r="CG41" s="5"/>
-      <c r="CH41" s="5"/>
-      <c r="CI41" s="5"/>
-      <c r="CJ41" s="5"/>
+      <c r="CH41" s="2"/>
+      <c r="CI41" s="2"/>
+      <c r="CJ41" s="2"/>
       <c r="CK41" s="5"/>
       <c r="CL41" s="5"/>
       <c r="CM41" s="5"/>
@@ -5096,7 +5160,7 @@
       <c r="CP41" s="5"/>
       <c r="CQ41" s="5"/>
       <c r="CR41" s="5"/>
-      <c r="CS41" s="5"/>
+      <c r="CS41" s="1"/>
       <c r="CT41" s="5"/>
       <c r="CU41" s="5"/>
       <c r="CV41" s="5"/>
@@ -5161,9 +5225,9 @@
       <c r="BA42" s="2">
         <v>41</v>
       </c>
-      <c r="BB42" s="5"/>
-      <c r="BC42" s="5"/>
-      <c r="BD42" s="5"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2"/>
       <c r="BE42" s="5"/>
       <c r="BF42" s="5"/>
       <c r="BG42" s="5"/>
@@ -5178,23 +5242,23 @@
       <c r="BP42" s="5"/>
       <c r="BQ42" s="5"/>
       <c r="BR42" s="5"/>
-      <c r="BS42" s="5"/>
-      <c r="BT42" s="5"/>
+      <c r="BS42" s="2"/>
+      <c r="BT42" s="2"/>
       <c r="BU42" s="5"/>
       <c r="BV42" s="5"/>
-      <c r="BW42" s="5"/>
+      <c r="BW42" s="13"/>
       <c r="BX42" s="5"/>
       <c r="BY42" s="5"/>
-      <c r="BZ42" s="5"/>
+      <c r="BZ42" s="2"/>
       <c r="CA42" s="5"/>
       <c r="CB42" s="5"/>
-      <c r="CC42" s="5"/>
-      <c r="CD42" s="5"/>
-      <c r="CE42" s="5"/>
+      <c r="CC42" s="13"/>
+      <c r="CD42" s="2"/>
+      <c r="CE42" s="2"/>
       <c r="CF42" s="5"/>
       <c r="CG42" s="5"/>
       <c r="CH42" s="5"/>
-      <c r="CI42" s="5"/>
+      <c r="CI42" s="1"/>
       <c r="CJ42" s="5"/>
       <c r="CK42" s="5"/>
       <c r="CL42" s="5"/>
@@ -5267,9 +5331,9 @@
       <c r="BA43" s="2">
         <v>42</v>
       </c>
-      <c r="BB43" s="5"/>
-      <c r="BC43" s="5"/>
-      <c r="BD43" s="5"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="1"/>
       <c r="BE43" s="5"/>
       <c r="BF43" s="5"/>
       <c r="BG43" s="5"/>
@@ -5288,13 +5352,13 @@
       <c r="BT43" s="5"/>
       <c r="BU43" s="5"/>
       <c r="BV43" s="5"/>
-      <c r="BW43" s="5"/>
+      <c r="BW43" s="13"/>
       <c r="BX43" s="5"/>
       <c r="BY43" s="5"/>
-      <c r="BZ43" s="5"/>
+      <c r="BZ43" s="2"/>
       <c r="CA43" s="5"/>
       <c r="CB43" s="5"/>
-      <c r="CC43" s="5"/>
+      <c r="CC43" s="13"/>
       <c r="CD43" s="5"/>
       <c r="CE43" s="5"/>
       <c r="CF43" s="5"/>
@@ -5302,14 +5366,14 @@
       <c r="CH43" s="5"/>
       <c r="CI43" s="5"/>
       <c r="CJ43" s="5"/>
-      <c r="CK43" s="5"/>
+      <c r="CK43" s="2"/>
       <c r="CL43" s="5"/>
       <c r="CM43" s="5"/>
       <c r="CN43" s="5"/>
-      <c r="CO43" s="5"/>
+      <c r="CO43" s="2"/>
       <c r="CP43" s="5"/>
       <c r="CQ43" s="5"/>
-      <c r="CR43" s="5"/>
+      <c r="CR43" s="2"/>
       <c r="CS43" s="5"/>
       <c r="CT43" s="5"/>
       <c r="CU43" s="5"/>
@@ -5373,8 +5437,8 @@
       <c r="BA44" s="2">
         <v>43</v>
       </c>
-      <c r="BB44" s="5"/>
-      <c r="BC44" s="5"/>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="1"/>
       <c r="BD44" s="5"/>
       <c r="BE44" s="5"/>
       <c r="BF44" s="5"/>
@@ -5394,13 +5458,13 @@
       <c r="BT44" s="5"/>
       <c r="BU44" s="5"/>
       <c r="BV44" s="5"/>
-      <c r="BW44" s="5"/>
+      <c r="BW44" s="13"/>
       <c r="BX44" s="5"/>
       <c r="BY44" s="5"/>
-      <c r="BZ44" s="5"/>
+      <c r="BZ44" s="2"/>
       <c r="CA44" s="5"/>
       <c r="CB44" s="5"/>
-      <c r="CC44" s="5"/>
+      <c r="CC44" s="13"/>
       <c r="CD44" s="5"/>
       <c r="CE44" s="5"/>
       <c r="CF44" s="5"/>
@@ -5412,10 +5476,10 @@
       <c r="CL44" s="5"/>
       <c r="CM44" s="5"/>
       <c r="CN44" s="5"/>
-      <c r="CO44" s="5"/>
+      <c r="CO44" s="2"/>
       <c r="CP44" s="5"/>
       <c r="CQ44" s="5"/>
-      <c r="CR44" s="5"/>
+      <c r="CR44" s="2"/>
       <c r="CS44" s="5"/>
       <c r="CT44" s="5"/>
       <c r="CU44" s="5"/>
@@ -5483,7 +5547,7 @@
       <c r="BA45" s="2">
         <v>44</v>
       </c>
-      <c r="BB45" s="5"/>
+      <c r="BB45" s="1"/>
       <c r="BC45" s="5"/>
       <c r="BD45" s="5"/>
       <c r="BE45" s="5"/>
@@ -5493,9 +5557,9 @@
       <c r="BI45" s="5"/>
       <c r="BJ45" s="5"/>
       <c r="BK45" s="5"/>
-      <c r="BL45" s="5"/>
-      <c r="BM45" s="5"/>
-      <c r="BN45" s="5"/>
+      <c r="BL45" s="14"/>
+      <c r="BM45" s="14"/>
+      <c r="BN45" s="14"/>
       <c r="BO45" s="5"/>
       <c r="BP45" s="5"/>
       <c r="BQ45" s="5"/>
@@ -5504,13 +5568,13 @@
       <c r="BT45" s="5"/>
       <c r="BU45" s="5"/>
       <c r="BV45" s="5"/>
-      <c r="BW45" s="5"/>
+      <c r="BW45" s="13"/>
       <c r="BX45" s="5"/>
       <c r="BY45" s="5"/>
-      <c r="BZ45" s="5"/>
+      <c r="BZ45" s="2"/>
       <c r="CA45" s="5"/>
       <c r="CB45" s="5"/>
-      <c r="CC45" s="5"/>
+      <c r="CC45" s="13"/>
       <c r="CD45" s="5"/>
       <c r="CE45" s="5"/>
       <c r="CF45" s="5"/>
@@ -5522,12 +5586,12 @@
       <c r="CL45" s="5"/>
       <c r="CM45" s="5"/>
       <c r="CN45" s="5"/>
-      <c r="CO45" s="5"/>
+      <c r="CO45" s="2"/>
       <c r="CP45" s="5"/>
       <c r="CQ45" s="5"/>
-      <c r="CR45" s="5"/>
+      <c r="CR45" s="2"/>
       <c r="CS45" s="5"/>
-      <c r="CT45" s="5"/>
+      <c r="CT45" s="2"/>
       <c r="CU45" s="5"/>
       <c r="CV45" s="5"/>
       <c r="CW45" s="5"/>
@@ -5598,27 +5662,27 @@
       <c r="BF46" s="5"/>
       <c r="BG46" s="5"/>
       <c r="BH46" s="5"/>
-      <c r="BI46" s="5"/>
-      <c r="BJ46" s="5"/>
-      <c r="BK46" s="5"/>
-      <c r="BL46" s="5"/>
-      <c r="BM46" s="5"/>
-      <c r="BN46" s="5"/>
-      <c r="BO46" s="5"/>
-      <c r="BP46" s="5"/>
-      <c r="BQ46" s="5"/>
-      <c r="BR46" s="5"/>
-      <c r="BS46" s="5"/>
+      <c r="BI46" s="2"/>
+      <c r="BJ46" s="2"/>
+      <c r="BK46" s="2"/>
+      <c r="BL46" s="2"/>
+      <c r="BM46" s="2"/>
+      <c r="BN46" s="2"/>
+      <c r="BO46" s="2"/>
+      <c r="BP46" s="2"/>
+      <c r="BQ46" s="2"/>
+      <c r="BR46" s="2"/>
+      <c r="BS46" s="2"/>
       <c r="BT46" s="5"/>
       <c r="BU46" s="5"/>
       <c r="BV46" s="5"/>
-      <c r="BW46" s="5"/>
+      <c r="BW46" s="13"/>
       <c r="BX46" s="5"/>
       <c r="BY46" s="5"/>
-      <c r="BZ46" s="5"/>
+      <c r="BZ46" s="2"/>
       <c r="CA46" s="5"/>
       <c r="CB46" s="5"/>
-      <c r="CC46" s="5"/>
+      <c r="CC46" s="13"/>
       <c r="CD46" s="5"/>
       <c r="CE46" s="5"/>
       <c r="CF46" s="5"/>
@@ -5630,10 +5694,10 @@
       <c r="CL46" s="5"/>
       <c r="CM46" s="5"/>
       <c r="CN46" s="5"/>
-      <c r="CO46" s="5"/>
+      <c r="CO46" s="2"/>
       <c r="CP46" s="5"/>
       <c r="CQ46" s="5"/>
-      <c r="CR46" s="5"/>
+      <c r="CR46" s="2"/>
       <c r="CS46" s="5"/>
       <c r="CT46" s="5"/>
       <c r="CU46" s="5"/>
@@ -5699,9 +5763,9 @@
       <c r="BA47" s="2">
         <v>46</v>
       </c>
-      <c r="BB47" s="5"/>
-      <c r="BC47" s="5"/>
-      <c r="BD47" s="5"/>
+      <c r="BB47" s="7"/>
+      <c r="BC47" s="7"/>
+      <c r="BD47" s="7"/>
       <c r="BE47" s="5"/>
       <c r="BF47" s="5"/>
       <c r="BG47" s="5"/>
@@ -5719,34 +5783,34 @@
       <c r="BS47" s="5"/>
       <c r="BT47" s="5"/>
       <c r="BU47" s="5"/>
-      <c r="BV47" s="5"/>
-      <c r="BW47" s="5"/>
-      <c r="BX47" s="5"/>
+      <c r="BV47" s="2"/>
+      <c r="BW47" s="2"/>
+      <c r="BX47" s="2"/>
       <c r="BY47" s="5"/>
-      <c r="BZ47" s="5"/>
+      <c r="BZ47" s="2"/>
       <c r="CA47" s="5"/>
-      <c r="CB47" s="5"/>
-      <c r="CC47" s="5"/>
-      <c r="CD47" s="5"/>
+      <c r="CB47" s="2"/>
+      <c r="CC47" s="2"/>
+      <c r="CD47" s="2"/>
       <c r="CE47" s="5"/>
       <c r="CF47" s="5"/>
       <c r="CG47" s="5"/>
       <c r="CH47" s="5"/>
-      <c r="CI47" s="5"/>
+      <c r="CI47" s="2"/>
       <c r="CJ47" s="5"/>
       <c r="CK47" s="5"/>
       <c r="CL47" s="5"/>
       <c r="CM47" s="5"/>
       <c r="CN47" s="5"/>
-      <c r="CO47" s="5"/>
+      <c r="CO47" s="2"/>
       <c r="CP47" s="5"/>
       <c r="CQ47" s="5"/>
-      <c r="CR47" s="5"/>
+      <c r="CR47" s="2"/>
       <c r="CS47" s="5"/>
       <c r="CT47" s="5"/>
-      <c r="CU47" s="10"/>
-      <c r="CV47" s="10"/>
-      <c r="CW47" s="10"/>
+      <c r="CU47" s="22"/>
+      <c r="CV47" s="22"/>
+      <c r="CW47" s="22"/>
       <c r="CX47" s="2"/>
     </row>
     <row r="48" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -5809,9 +5873,9 @@
       <c r="BA48" s="2">
         <v>47</v>
       </c>
-      <c r="BB48" s="5"/>
+      <c r="BB48" s="7"/>
       <c r="BC48" s="5"/>
-      <c r="BD48" s="5"/>
+      <c r="BD48" s="7"/>
       <c r="BE48" s="5"/>
       <c r="BF48" s="5"/>
       <c r="BG48" s="5"/>
@@ -5833,7 +5897,7 @@
       <c r="BW48" s="5"/>
       <c r="BX48" s="5"/>
       <c r="BY48" s="5"/>
-      <c r="BZ48" s="5"/>
+      <c r="BZ48" s="2"/>
       <c r="CA48" s="5"/>
       <c r="CB48" s="5"/>
       <c r="CC48" s="5"/>
@@ -5848,15 +5912,15 @@
       <c r="CL48" s="5"/>
       <c r="CM48" s="5"/>
       <c r="CN48" s="5"/>
-      <c r="CO48" s="5"/>
+      <c r="CO48" s="2"/>
       <c r="CP48" s="5"/>
       <c r="CQ48" s="5"/>
-      <c r="CR48" s="5"/>
+      <c r="CR48" s="2"/>
       <c r="CS48" s="5"/>
       <c r="CT48" s="5"/>
-      <c r="CU48" s="10"/>
+      <c r="CU48" s="9"/>
       <c r="CV48" s="10"/>
-      <c r="CW48" s="10"/>
+      <c r="CW48" s="9"/>
       <c r="CX48" s="2"/>
     </row>
     <row r="49" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
@@ -5917,54 +5981,54 @@
       <c r="BA49" s="2">
         <v>48</v>
       </c>
-      <c r="BB49" s="5"/>
+      <c r="BB49" s="7"/>
       <c r="BC49" s="5"/>
-      <c r="BD49" s="5"/>
-      <c r="BE49" s="5"/>
-      <c r="BF49" s="5"/>
-      <c r="BG49" s="5"/>
-      <c r="BH49" s="5"/>
-      <c r="BI49" s="5"/>
-      <c r="BJ49" s="5"/>
-      <c r="BK49" s="5"/>
-      <c r="BL49" s="5"/>
-      <c r="BM49" s="5"/>
-      <c r="BN49" s="5"/>
-      <c r="BO49" s="5"/>
-      <c r="BP49" s="5"/>
-      <c r="BQ49" s="5"/>
-      <c r="BR49" s="5"/>
-      <c r="BS49" s="5"/>
-      <c r="BT49" s="5"/>
-      <c r="BU49" s="5"/>
-      <c r="BV49" s="5"/>
-      <c r="BW49" s="5"/>
-      <c r="BX49" s="5"/>
-      <c r="BY49" s="5"/>
-      <c r="BZ49" s="5"/>
-      <c r="CA49" s="5"/>
-      <c r="CB49" s="5"/>
-      <c r="CC49" s="5"/>
-      <c r="CD49" s="5"/>
-      <c r="CE49" s="5"/>
-      <c r="CF49" s="5"/>
-      <c r="CG49" s="5"/>
-      <c r="CH49" s="5"/>
-      <c r="CI49" s="5"/>
-      <c r="CJ49" s="5"/>
-      <c r="CK49" s="5"/>
-      <c r="CL49" s="5"/>
-      <c r="CM49" s="5"/>
-      <c r="CN49" s="5"/>
-      <c r="CO49" s="5"/>
-      <c r="CP49" s="5"/>
-      <c r="CQ49" s="5"/>
-      <c r="CR49" s="5"/>
-      <c r="CS49" s="5"/>
-      <c r="CT49" s="5"/>
-      <c r="CU49" s="10"/>
+      <c r="BD49" s="7"/>
+      <c r="BE49" s="14"/>
+      <c r="BF49" s="14"/>
+      <c r="BG49" s="14"/>
+      <c r="BH49" s="14"/>
+      <c r="BI49" s="14"/>
+      <c r="BJ49" s="14"/>
+      <c r="BK49" s="14"/>
+      <c r="BL49" s="14"/>
+      <c r="BM49" s="14"/>
+      <c r="BN49" s="14"/>
+      <c r="BO49" s="14"/>
+      <c r="BP49" s="14"/>
+      <c r="BQ49" s="14"/>
+      <c r="BR49" s="14"/>
+      <c r="BS49" s="14"/>
+      <c r="BT49" s="14"/>
+      <c r="BU49" s="14"/>
+      <c r="BV49" s="14"/>
+      <c r="BW49" s="14"/>
+      <c r="BX49" s="14"/>
+      <c r="BY49" s="14"/>
+      <c r="BZ49" s="2"/>
+      <c r="CA49" s="14"/>
+      <c r="CB49" s="14"/>
+      <c r="CC49" s="14"/>
+      <c r="CD49" s="14"/>
+      <c r="CE49" s="14"/>
+      <c r="CF49" s="2"/>
+      <c r="CG49" s="14"/>
+      <c r="CH49" s="14"/>
+      <c r="CI49" s="14"/>
+      <c r="CJ49" s="14"/>
+      <c r="CK49" s="14"/>
+      <c r="CL49" s="14"/>
+      <c r="CM49" s="14"/>
+      <c r="CN49" s="14"/>
+      <c r="CO49" s="2"/>
+      <c r="CP49" s="14"/>
+      <c r="CQ49" s="14"/>
+      <c r="CR49" s="2"/>
+      <c r="CS49" s="14"/>
+      <c r="CT49" s="14"/>
+      <c r="CU49" s="9"/>
       <c r="CV49" s="10"/>
-      <c r="CW49" s="10"/>
+      <c r="CW49" s="9"/>
       <c r="CX49" s="2"/>
     </row>
     <row r="50" spans="1:102" ht="53.25" customHeight="1" thickBot="1">
